--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1427.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1427.xlsx
@@ -9276,29 +9276,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0</v>
+        <v>0.02702831381560991</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0</v>
+        <v>0.0006925139123140565</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0</v>
+        <v>0.03075453860973308</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0</v>
+        <v>0.0007879864796352764</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0</v>
+        <v>0.0564467179006547</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0</v>
+        <v>0.0006555571793895307</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0</v>
+        <v>0.08106215999999999</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0</v>
+        <v>0.0005506636153846155</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.02702831381560991</v>
+        <v>0.0567594590127808</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0006925139123140565</v>
+        <v>0.002077541736942169</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.04212432000000001</v>
+        <v>0.0474677701757901</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001079300686153846</v>
+        <v>0.001598493017968402</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.07440823366284405</v>
+        <v>0.08870337403615292</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0006911281840010227</v>
+        <v>0.001600102224358935</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.16212432</v>
+        <v>0.1785628199816877</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0009901841157374735</v>
+        <v>0.001651990846153846</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0367861203568647</v>
+        <v>0.06211102162345494</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001423623578218133</v>
+        <v>0.003185324123157715</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.0533274813172664</v>
+        <v>0.06685769262985453</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001555162413895767</v>
+        <v>0.003237902058461539</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.10212432</v>
+        <v>0.1227102563057711</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001101327230769231</v>
+        <v>0.003558134130177513</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1785628199816877</v>
+        <v>0.1995652814576661</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001557976073169009</v>
+        <v>0.003181047229782958</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.0567594590127808</v>
+        <v>0.06592105035418197</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002077541736942169</v>
+        <v>0.004777986184736573</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.06685769262985453</v>
+        <v>0.07398407512596791</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002447162980233778</v>
+        <v>0.004795479053905206</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.1227102563057711</v>
+        <v>0.133635666165128</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.001890471014211158</v>
+        <v>0.004800306673076804</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.1864974202183877</v>
+        <v>0.2228501786926515</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002360675744327849</v>
+        <v>0.004771570844674437</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0609384109765418</v>
+        <v>0.07277081101010979</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002847247156436265</v>
+        <v>0.00637064824631543</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.07008800677459254</v>
+        <v>0.08151984259341</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003110324827791534</v>
+        <v>0.006393972071873608</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1303152878740171</v>
+        <v>0.1463988212837953</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002764512736004091</v>
+        <v>0.006400408897435738</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.1988435454446402</v>
+        <v>0.2390163205992937</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003147567659103799</v>
+        <v>0.006362094459565915</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.02702831381560991</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.05762167725271186</v>
+        <v>0.07875198247360443</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003559058945545332</v>
+        <v>0.007963310307894288</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.07412106988101771</v>
+        <v>0.08681905653783858</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003887906034739418</v>
+        <v>0.00799246508984201</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.136626611574727</v>
+        <v>0.1564803705168669</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003455640920005113</v>
+        <v>0.008000511121794673</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2103254074119425</v>
+        <v>0.2542920504403589</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003934459573879748</v>
+        <v>0.007952618074457393</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.06813421162941938</v>
+        <v>0.08395624362703193</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004270870734654398</v>
+        <v>0.009555972369473146</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.07944923507714219</v>
+        <v>0.0920509179769996</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004665487241687302</v>
+        <v>0.009590958107810412</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1433858782764515</v>
+        <v>0.1675816754061979</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004146769104006136</v>
+        <v>0.009600613346153608</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2205423248407797</v>
+        <v>0.2689057114786132</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004721351488655699</v>
+        <v>0.009543141689348875</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.06247946592426921</v>
+        <v>0.08147527335275838</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004982682523763464</v>
+        <v>0.011148634431052</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.08347568397392685</v>
+        <v>0.09678462792863898</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005443068448635185</v>
+        <v>0.01118945112577881</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1517954064264083</v>
+        <v>0.1756040974936435</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004837897288007159</v>
+        <v>0.01120071557051254</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2294936164516362</v>
+        <v>0.2791856469768232</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005508243403431648</v>
+        <v>0.01113366530424035</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.06966089195486615</v>
+        <v>0.08740075053314979</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00569449431287253</v>
+        <v>0.01274129649263086</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0870035981823328</v>
+        <v>0.1007893874105027</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006220649655583069</v>
+        <v>0.01278794414374722</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1572575144718151</v>
+        <v>0.1828489983210584</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005529025472008182</v>
+        <v>0.01280081779487148</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.2359786009649968</v>
+        <v>0.287660200197755</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006295135318207598</v>
+        <v>0.01272418891913183</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.07668194153881509</v>
+        <v>0.08582435405057216</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006406306101981596</v>
+        <v>0.01433395855420972</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.09053615931332104</v>
+        <v>0.1048343974403366</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006998230862530951</v>
+        <v>0.01438643716171562</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1624745208598897</v>
+        <v>0.1892177394302978</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006220153656009204</v>
+        <v>0.01440092001923041</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2473965971013461</v>
+        <v>0.2950577144041748</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007082027232983547</v>
+        <v>0.01431471253402331</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.07554606649372091</v>
+        <v>0.08383776278739156</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007118117891090663</v>
+        <v>0.01592662061578858</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.09427654897785254</v>
+        <v>0.1082888590358866</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007775812069478835</v>
+        <v>0.01598493017968402</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1680487440378496</v>
+        <v>0.196211682363217</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006911281840010226</v>
+        <v>0.01600102224358935</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.2549469235811689</v>
+        <v>0.299106532858849</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007868919147759496</v>
+        <v>0.01590523614891479</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.07225671863718841</v>
+        <v>0.08853265562597411</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007829929680199729</v>
+        <v>0.01751928267736743</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.09722794878688831</v>
+        <v>0.1100219732148988</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008553393276426719</v>
+        <v>0.01758342319765242</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1737825024529127</v>
+        <v>0.2011321886616706</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00760241002401125</v>
+        <v>0.01760112446794828</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.2635288991249499</v>
+        <v>0.3045349988245438</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008655811062535447</v>
+        <v>0.01749575976380627</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.07881734978682246</v>
+        <v>0.09600071144868573</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008541741469308795</v>
+        <v>0.01911194473894629</v>
       </c>
       <c r="J77" t="n">
-        <v>0.1002935403513895</v>
+        <v>0.112402940995119</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009330974483374603</v>
+        <v>0.01918191621562082</v>
       </c>
       <c r="L77" t="n">
-        <v>0.1792781145522965</v>
+        <v>0.2068806198675138</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008293538208012272</v>
+        <v>0.01920122669230722</v>
       </c>
       <c r="N77" t="n">
-        <v>0.2718418424531736</v>
+        <v>0.3089714555640253</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009442702977311397</v>
+        <v>0.01908628337869775</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.07823141176022794</v>
+        <v>0.0943336091378925</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009253553258417861</v>
+        <v>0.02070460680052515</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1045765052823169</v>
+        <v>0.1151009633942933</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01010855569032249</v>
+        <v>0.02078040923358923</v>
       </c>
       <c r="L78" t="n">
-        <v>0.1844378987832188</v>
+        <v>0.2093583375226016</v>
       </c>
       <c r="M78" t="n">
-        <v>0.008984666392013294</v>
+        <v>0.02080132891666615</v>
       </c>
       <c r="N78" t="n">
-        <v>0.2768850722863249</v>
+        <v>0.31104424634006</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01022959489208735</v>
+        <v>0.02067680699358923</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.08450235637500965</v>
+        <v>0.09662302757596049</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009965365047526927</v>
+        <v>0.022297268862104</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1071800251906316</v>
+        <v>0.1162852414301673</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01088613689727037</v>
+        <v>0.02237890225155763</v>
       </c>
       <c r="L79" t="n">
-        <v>0.1897641735928973</v>
+        <v>0.2138667031687894</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009675794576014318</v>
+        <v>0.02240143114102508</v>
       </c>
       <c r="N79" t="n">
-        <v>0.2857579073448884</v>
+        <v>0.3147817144154142</v>
       </c>
       <c r="O79" t="n">
-        <v>0.0110164868068633</v>
+        <v>0.02226733060848071</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.08363363544877246</v>
+        <v>0.09994385584419828</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01067717683663599</v>
+        <v>0.02388993092368286</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1097072816872948</v>
+        <v>0.1177249761204872</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01166371810421825</v>
+        <v>0.02397739526952603</v>
       </c>
       <c r="L80" t="n">
-        <v>0.1921592574285497</v>
+        <v>0.2158070783479317</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01036692276001534</v>
+        <v>0.02400153336538402</v>
       </c>
       <c r="N80" t="n">
-        <v>0.2903596663493487</v>
+        <v>0.3214335914828101</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01180337872163925</v>
+        <v>0.02385785422337218</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.09462870079912129</v>
+        <v>0.09524608456256391</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01138898862574506</v>
+        <v>0.02548259298526172</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1113614563832672</v>
+        <v>0.1192918730482241</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01244129931116614</v>
+        <v>0.02557588828749443</v>
       </c>
       <c r="L81" t="n">
-        <v>0.1973254687373935</v>
+        <v>0.2189092814105595</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01105805094401636</v>
+        <v>0.02560163558974295</v>
       </c>
       <c r="N81" t="n">
-        <v>0.2977896680201906</v>
+        <v>0.3244958156341368</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0125902706364152</v>
+        <v>0.02544837783826366</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.08749100424366087</v>
+        <v>0.09350772408926876</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01210080041485413</v>
+        <v>0.02707525504684058</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1134457308895101</v>
+        <v>0.1214165459563253</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01321888051811402</v>
+        <v>0.02717438130546283</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2025651259666468</v>
+        <v>0.2224258774678631</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01174917912801739</v>
+        <v>0.02720173781410189</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3050472310778988</v>
+        <v>0.3275243863300046</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01337716255119115</v>
+        <v>0.02703890145315514</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.09222399759999615</v>
+        <v>0.1037205968723932</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01281261220396319</v>
+        <v>0.02866791710841943</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1156632868169843</v>
+        <v>0.1234898199520719</v>
       </c>
       <c r="K83" t="n">
-        <v>0.0139964617250619</v>
+        <v>0.02877287432343124</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2049805475635269</v>
+        <v>0.2263512277070151</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01244030731201841</v>
+        <v>0.02880184003846082</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3081316742429577</v>
+        <v>0.3299936808310745</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01416405446596709</v>
+        <v>0.02862942506804662</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.09083113268573197</v>
+        <v>0.1048765253600176</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01352442399307226</v>
+        <v>0.03026057916999829</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1188173057766509</v>
+        <v>0.1240019564075463</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01477404293200979</v>
+        <v>0.03037136734139964</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2079740519752517</v>
+        <v>0.2279674038652885</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01313143549601943</v>
+        <v>0.03040194226281976</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3131423162358526</v>
+        <v>0.3352780763980077</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01495094638074305</v>
+        <v>0.0302199486829381</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0973158613184731</v>
+        <v>0.1069673320002225</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01423623578218133</v>
+        <v>0.03185324123157715</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1195109693794709</v>
+        <v>0.1250432166948312</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01555162413895767</v>
+        <v>0.03196986035936804</v>
       </c>
       <c r="L85" t="n">
-        <v>0.2126479576490388</v>
+        <v>0.230156477679956</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01382256368002045</v>
+        <v>0.03200204448717869</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3175784757770677</v>
+        <v>0.3391519502914659</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01573783829551899</v>
+        <v>0.03181047229782957</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.09968163531582448</v>
+        <v>0.1009848392410881</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01494804757129039</v>
+        <v>0.03344590329315601</v>
       </c>
       <c r="J86" t="n">
-        <v>0.1216474592364053</v>
+        <v>0.127403862186009</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01632920534590555</v>
+        <v>0.03356835337733644</v>
       </c>
       <c r="L86" t="n">
-        <v>0.215104583032106</v>
+        <v>0.2338005208882905</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01451369186402147</v>
+        <v>0.03360214671153763</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3230394715870876</v>
+        <v>0.3424896797721099</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01652473021029495</v>
+        <v>0.03340099591272105</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.09293190649539089</v>
+        <v>0.099920869530695</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01565985936039946</v>
+        <v>0.03503856535473487</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1235299569584151</v>
+        <v>0.1282741542531623</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01710678655285344</v>
+        <v>0.03516684639530485</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2171462465716709</v>
+        <v>0.2354816052275646</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0152048200480225</v>
+        <v>0.03520224893589656</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3262246223863972</v>
+        <v>0.3435656421006011</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01731162212507089</v>
+        <v>0.03499151952761254</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1000701266747773</v>
+        <v>0.1087672453171234</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01637167114950852</v>
+        <v>0.03663122741631372</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1238616441564614</v>
+        <v>0.1293443542683735</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01788436775980132</v>
+        <v>0.03676533941327325</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2222752667149512</v>
+        <v>0.2369818024350512</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01589594823202352</v>
+        <v>0.03680235116025549</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3310332468954811</v>
+        <v>0.3474542145376011</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01809851403984684</v>
+        <v>0.03658204314250401</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1040997476715884</v>
+        <v>0.1055157890484539</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01708348293861759</v>
+        <v>0.03822388947789258</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1261457024415051</v>
+        <v>0.1307047236037252</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01866194896674921</v>
+        <v>0.03836383243124165</v>
       </c>
       <c r="L89" t="n">
-        <v>0.2246939619091647</v>
+        <v>0.237683184248023</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01658707641602454</v>
+        <v>0.03840245338461443</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3352646638348241</v>
+        <v>0.3478297743437708</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01888540595462279</v>
+        <v>0.0381725667573955</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1050242213034292</v>
+        <v>0.1081583231727669</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01779529472772666</v>
+        <v>0.03981655153947144</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1260853134245073</v>
+        <v>0.1308455236312999</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01943953017369709</v>
+        <v>0.03996232544921005</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2265046506015289</v>
+        <v>0.2389678224037527</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01727820460002557</v>
+        <v>0.04000255560897337</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3365181919249109</v>
+        <v>0.3509666987797716</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01967229786939874</v>
+        <v>0.03976309037228697</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1018469993879045</v>
+        <v>0.1066866701381427</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01850710651683572</v>
+        <v>0.0414092136010503</v>
       </c>
       <c r="J91" t="n">
-        <v>0.127683658716429</v>
+        <v>0.1319570157231801</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02021711138064497</v>
+        <v>0.04156081846717846</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2287096512392617</v>
+        <v>0.2415177886395135</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01796933278402659</v>
+        <v>0.0416026578333323</v>
       </c>
       <c r="N91" t="n">
-        <v>0.337793149886226</v>
+        <v>0.3516393651062645</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02045918978417469</v>
+        <v>0.04135361398717845</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1065715337426191</v>
+        <v>0.1070926523926617</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01921891830594479</v>
+        <v>0.04300187566262915</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1283439199282311</v>
+        <v>0.1323294612514484</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02099469258759286</v>
+        <v>0.04315931148514685</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2302112822695806</v>
+        <v>0.2425151546925777</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01866046096802761</v>
+        <v>0.04320276005769123</v>
       </c>
       <c r="N92" t="n">
-        <v>0.3399888564392545</v>
+        <v>0.352822150583911</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02124608169895064</v>
+        <v>0.04294413760206993</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.09820127618517781</v>
+        <v>0.1063680923844043</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01993073009505385</v>
+        <v>0.04459453772420801</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1294692786708747</v>
+        <v>0.1332531215881872</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02177227379454074</v>
+        <v>0.04475780450311526</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2314118621397034</v>
+        <v>0.2446419923002184</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01935158915202864</v>
+        <v>0.04480286228205017</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3418046303044805</v>
+        <v>0.3571256399633753</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02203297361372659</v>
+        <v>0.04453466121696141</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1057396785331856</v>
+        <v>0.1135189180255616</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02064254188416292</v>
+        <v>0.04618719978578687</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1292629165553209</v>
+        <v>0.1337153852597091</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02254985500148862</v>
+        <v>0.04635629752108366</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2335137092968479</v>
+        <v>0.2454205126115422</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02004271733602966</v>
+        <v>0.04640296450640911</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3454397902023889</v>
+        <v>0.3568155880353097</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02281986552850254</v>
+        <v>0.04612518483185288</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1021901926042473</v>
+        <v>0.1035072667012373</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02135435367327199</v>
+        <v>0.04777986184736573</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1291280151925305</v>
+        <v>0.1329151321754065</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02332743620843651</v>
+        <v>0.04795479053905206</v>
       </c>
       <c r="L95" t="n">
-        <v>0.2351191421882317</v>
+        <v>0.24521236912832</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02073384552003068</v>
+        <v>0.04800306673076803</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3439936548534647</v>
+        <v>0.3540539718852088</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02360675744327849</v>
+        <v>0.04771570844674437</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.1075562702159678</v>
+        <v>0.111431337396319</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02206616546238106</v>
+        <v>0.04937252390894459</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1306677561934648</v>
+        <v>0.1325768991561685</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02410501741538439</v>
+        <v>0.04955328355702046</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2362304792610724</v>
+        <v>0.2429726982713502</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0214249737040317</v>
+        <v>0.04960316895512697</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3470655429781921</v>
+        <v>0.3537666154983196</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02439364935805444</v>
+        <v>0.04930623206163585</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1048413631859518</v>
+        <v>0.1072884124685767</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02277797725149012</v>
+        <v>0.05096518597052344</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1302853211690845</v>
+        <v>0.1328558980899811</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02488259862233227</v>
+        <v>0.05115177657498887</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2361500389625877</v>
+        <v>0.2445753314927745</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02211610188803273</v>
+        <v>0.05120327117948591</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3469547652851036</v>
+        <v>0.3549721095580718</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02518054127283039</v>
+        <v>0.05089675567652732</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1080489233318042</v>
+        <v>0.1080828017236995</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02348978904059918</v>
+        <v>0.0525578480321023</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1300821412087667</v>
+        <v>0.1329573903044942</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02566017982928016</v>
+        <v>0.05275026959295726</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2380801397399954</v>
+        <v>0.2429338358158159</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02280723007203375</v>
+        <v>0.05280337340384484</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3462576489611784</v>
+        <v>0.3523839579870159</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02596743318760634</v>
+        <v>0.0524872792914188</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.10218240247113</v>
+        <v>0.1028188149673766</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02420160082970825</v>
+        <v>0.05415051009368116</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1294546435884441</v>
+        <v>0.1328865083374666</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02643776103622804</v>
+        <v>0.05434876261092567</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2380231000405132</v>
+        <v>0.2440576599519541</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02349835825603477</v>
+        <v>0.05440347562820377</v>
       </c>
       <c r="N99" t="n">
-        <v>0.344144165371163</v>
+        <v>0.3520156647077022</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02675432510238229</v>
+        <v>0.05407780290631028</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1052452524215339</v>
+        <v>0.1095007620052971</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02491341261881732</v>
+        <v>0.05574317215526001</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1295125120900614</v>
+        <v>0.1323483847266573</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02721534224317592</v>
+        <v>0.05594725562889407</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2378812383113588</v>
+        <v>0.2421562526126687</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0241894864400358</v>
+        <v>0.05600357785256271</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3444162138730755</v>
+        <v>0.3511807336426811</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02754121701715824</v>
+        <v>0.05566832652120177</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1082385952465858</v>
+        <v>0.1091329526431502</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02562522440792639</v>
+        <v>0.05733583421683887</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1300673361965906</v>
+        <v>0.1316481520098253</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02799292345012381</v>
+        <v>0.05754574864686247</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2391568729997496</v>
+        <v>0.2411390625094393</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02488061462403682</v>
+        <v>0.05760368007692165</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3425756938249342</v>
+        <v>0.3501926687145031</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02832810893193419</v>
+        <v>0.05725885013609324</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1071562782286779</v>
+        <v>0.1087196966866251</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02633703619703545</v>
+        <v>0.05892849627841773</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1291307053910038</v>
+        <v>0.1312909427247296</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02877050465707169</v>
+        <v>0.05914424166483088</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2376471426557608</v>
+        <v>0.2420155383537458</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02557174280803784</v>
+        <v>0.05920378230128057</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3366245045847573</v>
+        <v>0.3505649738457181</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02911500084671014</v>
+        <v>0.05884937375098472</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1090031331882097</v>
+        <v>0.1042653039414108</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02704884798614451</v>
+        <v>0.06052115833999658</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1284142091562733</v>
+        <v>0.1309818894091291</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02954808586401957</v>
+        <v>0.06074273468279928</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2374321305356613</v>
+        <v>0.2407951288570677</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02626287099203886</v>
+        <v>0.06080388452563951</v>
       </c>
       <c r="N103" t="n">
-        <v>0.3360645455105629</v>
+        <v>0.348111152958877</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02990189276148609</v>
+        <v>0.0604398973658762</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1067854249248972</v>
+        <v>0.1067740842131965</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02776065977525358</v>
+        <v>0.06211382040157544</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1279294369753712</v>
+        <v>0.1301261246007828</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03032566707096746</v>
+        <v>0.06234122770076769</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2367244004678659</v>
+        <v>0.2382872827308847</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02695399917603988</v>
+        <v>0.06240398674999845</v>
       </c>
       <c r="N104" t="n">
-        <v>0.330597715960369</v>
+        <v>0.3457447099765297</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03068878467626204</v>
+        <v>0.06203042098076768</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.101509418238456</v>
+        <v>0.1052503473076714</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02847247156436265</v>
+        <v>0.0637064824631543</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1278879783312695</v>
+        <v>0.1302287808374497</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03110324827791534</v>
+        <v>0.06393972071873608</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2374412866141559</v>
+        <v>0.2372014486866765</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02764512736004091</v>
+        <v>0.06400408897435739</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3300259152921939</v>
+        <v>0.3434791488212269</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03147567659103798</v>
+        <v>0.06362094459565915</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1011813779286022</v>
+        <v>0.1076984030305246</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02918428335347172</v>
+        <v>0.06529914452473316</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1259014227069405</v>
+        <v>0.1291949906568887</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03188082948486323</v>
+        <v>0.06553821373670447</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2372001231363126</v>
+        <v>0.2367470754359227</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02833625554404193</v>
+        <v>0.06560419119871631</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3241510428640559</v>
+        <v>0.3437279734155186</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03226256850581394</v>
+        <v>0.06521146821055064</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1098075687950515</v>
+        <v>0.1071225611874453</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02989609514258078</v>
+        <v>0.06689180658631202</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1261813595853563</v>
+        <v>0.1279298865968588</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03265841069181111</v>
+        <v>0.06713670675467288</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2360182441961175</v>
+        <v>0.2360336116901031</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02902738372804295</v>
+        <v>0.06720429342307525</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3211749980339731</v>
+        <v>0.3428046876819556</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03304946042058989</v>
+        <v>0.06680199182544211</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1023942556375197</v>
+        <v>0.1005271315841226</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03060790693168985</v>
+        <v>0.06848446864789087</v>
       </c>
       <c r="J108" t="n">
-        <v>0.1251393784494891</v>
+        <v>0.127538601195119</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03343599189875899</v>
+        <v>0.06873519977264128</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2339129839553518</v>
+        <v>0.2331705061606973</v>
       </c>
       <c r="M108" t="n">
-        <v>0.02971851191204397</v>
+        <v>0.06880439564743419</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3198996801599636</v>
+        <v>0.3397227955430879</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03383635233536584</v>
+        <v>0.06839251544033359</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1039477032557229</v>
+        <v>0.1059164240262457</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03131971872079892</v>
+        <v>0.07007713070946973</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1244870687823109</v>
+        <v>0.1270262669894283</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03421357310570688</v>
+        <v>0.07033369279060969</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2333016765757968</v>
+        <v>0.2329672075591851</v>
       </c>
       <c r="M109" t="n">
-        <v>0.030409640096045</v>
+        <v>0.07040449787179312</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3182269886000456</v>
+        <v>0.3382958009214659</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03462324425014179</v>
+        <v>0.06998303905522507</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.09747417644937668</v>
+        <v>0.0962947483195037</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03203153050990798</v>
+        <v>0.0716697927710486</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1230360200667939</v>
+        <v>0.1254980165175456</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03499115431265476</v>
+        <v>0.07193218580857809</v>
       </c>
       <c r="L110" t="n">
-        <v>0.2314016562192338</v>
+        <v>0.232133164597046</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03110076828004602</v>
+        <v>0.07200460009615206</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3160588227122373</v>
+        <v>0.3371372077396401</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03541013616491774</v>
+        <v>0.07157356267011655</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1029799400181971</v>
+        <v>0.1036664142695858</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03274334229901704</v>
+        <v>0.07326245483262744</v>
       </c>
       <c r="J111" t="n">
-        <v>0.1228978217859103</v>
+        <v>0.12585898231723</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03576873551960264</v>
+        <v>0.0735306788265465</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2302302570474443</v>
+        <v>0.2303778259857597</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03179189646404704</v>
+        <v>0.07360470232051099</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3130970818545568</v>
+        <v>0.3349605199201607</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03619702807969369</v>
+        <v>0.07316408628500802</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1064712587618998</v>
+        <v>0.1010357316821811</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03345515408812611</v>
+        <v>0.07485511689420631</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1227840634226322</v>
+        <v>0.1244142969262403</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03654631672655053</v>
+        <v>0.07512917184451488</v>
       </c>
       <c r="L112" t="n">
-        <v>0.2304048132222095</v>
+        <v>0.228110640436806</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03248302464804807</v>
+        <v>0.07520480454486993</v>
       </c>
       <c r="N112" t="n">
-        <v>0.3120436653850223</v>
+        <v>0.330579241385578</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03698391999446964</v>
+        <v>0.0747546098998995</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.1059543974802008</v>
+        <v>0.09940701036297871</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03416696587723518</v>
+        <v>0.07644777895578517</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1212063344599318</v>
+        <v>0.1234690928823355</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03732389793349841</v>
+        <v>0.07672766486248329</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2282426589053107</v>
+        <v>0.2283410566616644</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03317415283204909</v>
+        <v>0.07680490676922887</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3105004726616519</v>
+        <v>0.3294068760584425</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03777081190924559</v>
+        <v>0.076345133514791</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.09643562097281598</v>
+        <v>0.1027845601176679</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03487877766634424</v>
+        <v>0.07804044101736402</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1209762243807811</v>
+        <v>0.1225285027232747</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03810147914044629</v>
+        <v>0.07832615788045169</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2261611282585292</v>
+        <v>0.2250785233718146</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03386528101605011</v>
+        <v>0.07840500899358779</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3122255564974241</v>
+        <v>0.3275569199043287</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03855770382402154</v>
+        <v>0.07793565712968246</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.102921194039461</v>
+        <v>0.09713662341177694</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03559058945545331</v>
+        <v>0.07963310307894288</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1203053226681524</v>
+        <v>0.1225931681332205</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03887906034739418</v>
+        <v>0.0799246508984201</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2250775554436465</v>
+        <v>0.2239310260940818</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03455640920005113</v>
+        <v>0.08000511121794673</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3104305111900586</v>
+        <v>0.3257670833445122</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03934459573879748</v>
+        <v>0.07952618074457395</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09641738147985192</v>
+        <v>0.09739973084877281</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03630240124456238</v>
+        <v>0.08122576514052174</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1199052188050178</v>
+        <v>0.1211785126967537</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03965664155434206</v>
+        <v>0.0815231439163885</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2239092746224438</v>
+        <v>0.2241645503096018</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03524753738405215</v>
+        <v>0.08160521344230566</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3116942909447931</v>
+        <v>0.3246001495553867</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04013148765357343</v>
+        <v>0.08111670435946543</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.1039304480937045</v>
+        <v>0.09258575349804148</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03701421303367144</v>
+        <v>0.0828184272021006</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1198875022743493</v>
+        <v>0.1200633640630354</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04043422276128995</v>
+        <v>0.08312163693435691</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2234736199567024</v>
+        <v>0.2213086761842816</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03593866556805318</v>
+        <v>0.0832053156666646</v>
       </c>
       <c r="N117" t="n">
-        <v>0.3140969923453893</v>
+        <v>0.320800115930816</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04091837956834939</v>
+        <v>0.08270722797435691</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.1004666586807345</v>
+        <v>0.09170873322169197</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03772602482278051</v>
+        <v>0.08441108926367945</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1183637625591192</v>
+        <v>0.1202644446536034</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04121180396823783</v>
+        <v>0.08472012995232531</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2220879256082037</v>
+        <v>0.2191941887495757</v>
       </c>
       <c r="M118" t="n">
-        <v>0.0366297937520542</v>
+        <v>0.08480541789102354</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3160187119756095</v>
+        <v>0.3175109798646633</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04170527148312533</v>
+        <v>0.08429775158924838</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.1040322780406579</v>
+        <v>0.08978271188183302</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03843783661188958</v>
+        <v>0.08600375132525831</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1191455891422997</v>
+        <v>0.1189984768899955</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04198938517518571</v>
+        <v>0.0863186229702937</v>
       </c>
       <c r="L119" t="n">
-        <v>0.221169525738729</v>
+        <v>0.217851873036939</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03732092193605523</v>
+        <v>0.08640552011538247</v>
       </c>
       <c r="N119" t="n">
-        <v>0.317439546419215</v>
+        <v>0.3129767387507922</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04249216339790128</v>
+        <v>0.08588827520413986</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.09763357097319054</v>
+        <v>0.09882173134057352</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03914964840099864</v>
+        <v>0.08759641338683717</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1184445715068627</v>
+        <v>0.1181821831937493</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0427669663821336</v>
+        <v>0.0879171159882621</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2202357545100596</v>
+        <v>0.2148125140778259</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03801205012005624</v>
+        <v>0.08800562233974139</v>
       </c>
       <c r="N120" t="n">
-        <v>0.318039592259968</v>
+        <v>0.311441389983066</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04327905531267723</v>
+        <v>0.08747879881903134</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.1032768022780482</v>
+        <v>0.08783983346002223</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03986146019010771</v>
+        <v>0.08918907544841602</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1187765562496552</v>
+        <v>0.1170322859864027</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04354454758908148</v>
+        <v>0.08951560900623051</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2175039460839768</v>
+        <v>0.2150068969036912</v>
       </c>
       <c r="M121" t="n">
-        <v>0.03870317830405727</v>
+        <v>0.08960572456410033</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3195989460816301</v>
+        <v>0.3098489309553483</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04406594722745318</v>
+        <v>0.08906932243392282</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.1029682367549468</v>
+        <v>0.0958510601022881</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04057327197921678</v>
+        <v>0.09078173750999488</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1190533085616033</v>
+        <v>0.1145655076894935</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04432212879602936</v>
+        <v>0.09111410202419891</v>
       </c>
       <c r="L122" t="n">
-        <v>0.216091434622262</v>
+        <v>0.2126658065459893</v>
       </c>
       <c r="M122" t="n">
-        <v>0.03939430648805829</v>
+        <v>0.09120582678845927</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3193977044679631</v>
+        <v>0.3059433590615024</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04485283914222913</v>
+        <v>0.09065984604881429</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.09271413920360221</v>
+        <v>0.09186945312947987</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04128508376832584</v>
+        <v>0.09237439957157374</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1196627799447192</v>
+        <v>0.1139985707245595</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04509971000297724</v>
+        <v>0.09271259504216732</v>
       </c>
       <c r="L123" t="n">
-        <v>0.2155155542866965</v>
+        <v>0.210020028036175</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04008543467205931</v>
+        <v>0.09280592901281821</v>
       </c>
       <c r="N123" t="n">
-        <v>0.323515964002729</v>
+        <v>0.3014686716953919</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04563973105700508</v>
+        <v>0.09225036966370577</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.09752077442373018</v>
+        <v>0.08490905440370643</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04199689555743491</v>
+        <v>0.09396706163315259</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1196918108195491</v>
+        <v>0.1128481975131384</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04587729120992513</v>
+        <v>0.09431108806013572</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2164936392390616</v>
+        <v>0.2070003464057029</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04077656285606034</v>
+        <v>0.09440603123717714</v>
       </c>
       <c r="N124" t="n">
-        <v>0.3245338212696892</v>
+        <v>0.2984688662508803</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04642662297178104</v>
+        <v>0.09384089327859725</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.09239440721504664</v>
+        <v>0.08498390578707661</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04270870734654397</v>
+        <v>0.09555972369473145</v>
       </c>
       <c r="J125" t="n">
-        <v>0.120827241606639</v>
+        <v>0.1118311104767681</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04665487241687302</v>
+        <v>0.09590958107810413</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2163430236411386</v>
+        <v>0.2062375466860275</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04146769104006136</v>
+        <v>0.09600613346153607</v>
       </c>
       <c r="N125" t="n">
-        <v>0.3261313728526061</v>
+        <v>0.2977879401218311</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04721351488655699</v>
+        <v>0.09543141689348873</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.09934130237726742</v>
+        <v>0.09109308436449869</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04342051913565304</v>
+        <v>0.09715238575631031</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1210559127265349</v>
+        <v>0.1109640320369862</v>
       </c>
       <c r="K126" t="n">
-        <v>0.0474324536238209</v>
+        <v>0.09750807409607251</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2138810416547089</v>
+        <v>0.2038624139086035</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04215881922406238</v>
+        <v>0.09760623568589501</v>
       </c>
       <c r="N126" t="n">
-        <v>0.329188715335241</v>
+        <v>0.2936743454833091</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04800040680133293</v>
+        <v>0.0970219405083802</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.09637160855848505</v>
+        <v>0.09313457611715086</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04413233092476211</v>
+        <v>0.09874504781788918</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1212646645997831</v>
+        <v>0.1100829697835279</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04821003483076878</v>
+        <v>0.09910656711404092</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2147255832985034</v>
+        <v>0.2008980924794253</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04284994740806341</v>
+        <v>0.09920633791025395</v>
       </c>
       <c r="N127" t="n">
-        <v>0.3317859453013559</v>
+        <v>0.2908157365779254</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04878729871610888</v>
+        <v>0.0986124641232717</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.1014916187510564</v>
+        <v>0.0891028441992049</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04484414271387117</v>
+        <v>0.100337709879468</v>
       </c>
       <c r="J128" t="n">
-        <v>0.1219403376469294</v>
+        <v>0.108003528401395</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04898761603771667</v>
+        <v>0.1007050601320093</v>
       </c>
       <c r="L128" t="n">
-        <v>0.2144983046708195</v>
+        <v>0.199253525201619</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04354107559206442</v>
+        <v>0.1008064401346129</v>
       </c>
       <c r="N128" t="n">
-        <v>0.3319031593347125</v>
+        <v>0.2885389883827778</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04957419063088483</v>
+        <v>0.1002029877381632</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.09169437972183585</v>
+        <v>0.08901798954038322</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04555595450298024</v>
+        <v>0.1019303719410469</v>
       </c>
       <c r="J129" t="n">
-        <v>0.12336977228852</v>
+        <v>0.1078491783586855</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04976519724466455</v>
+        <v>0.1023035531499777</v>
       </c>
       <c r="L129" t="n">
-        <v>0.2142903793937129</v>
+        <v>0.1961651665523161</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04423220377606545</v>
+        <v>0.1024065423589718</v>
       </c>
       <c r="N129" t="n">
-        <v>0.3350204540190728</v>
+        <v>0.282807083180071</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05036108254566078</v>
+        <v>0.1017935113530546</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.1019726796012805</v>
+        <v>0.08190011307040813</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04626776629208931</v>
+        <v>0.1035230340026257</v>
       </c>
       <c r="J130" t="n">
-        <v>0.124139808945101</v>
+        <v>0.1055438578067295</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05054277845161243</v>
+        <v>0.1039020461679461</v>
       </c>
       <c r="L130" t="n">
-        <v>0.2155839032972968</v>
+        <v>0.1939770853130626</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04492333196006647</v>
+        <v>0.1040066445833307</v>
       </c>
       <c r="N130" t="n">
-        <v>0.3379179259381984</v>
+        <v>0.2800830032520093</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05114797446043673</v>
+        <v>0.1033840349679461</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.1023193065198477</v>
+        <v>0.07776931571900214</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04697957808119837</v>
+        <v>0.1051156960642046</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1244372880372185</v>
+        <v>0.1040115048968573</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05132035965856032</v>
+        <v>0.1055005391859145</v>
       </c>
       <c r="L131" t="n">
-        <v>0.2167609722116843</v>
+        <v>0.1910333502654043</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0456144601440675</v>
+        <v>0.1056067468076897</v>
       </c>
       <c r="N131" t="n">
-        <v>0.3405756716758512</v>
+        <v>0.2759297308807976</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05193486637521268</v>
+        <v>0.1049745585828376</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.09372704860799437</v>
+        <v>0.08164569841588755</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04769138987030744</v>
+        <v>0.1067083581257835</v>
       </c>
       <c r="J132" t="n">
-        <v>0.1251490499854184</v>
+        <v>0.103776057780399</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0520979408655082</v>
+        <v>0.1070990322038829</v>
       </c>
       <c r="L132" t="n">
-        <v>0.2175036819669888</v>
+        <v>0.1895780301908869</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04630558832806852</v>
+        <v>0.1072068490320486</v>
       </c>
       <c r="N132" t="n">
-        <v>0.3413737878157931</v>
+        <v>0.2742102483486404</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05272175828998863</v>
+        <v>0.1065650821977291</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.09518869399617781</v>
+        <v>0.08054936209078674</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04840320165941651</v>
+        <v>0.1083010201873623</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1260619352102469</v>
+        <v>0.1016614546086849</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05287552207245608</v>
+        <v>0.1086975252218513</v>
       </c>
       <c r="L133" t="n">
-        <v>0.2188941283933231</v>
+        <v>0.1878551938710564</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04699671651206954</v>
+        <v>0.1088069512564075</v>
       </c>
       <c r="N133" t="n">
-        <v>0.3428923709417858</v>
+        <v>0.2692875379377424</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05350865020476459</v>
+        <v>0.1081556058126206</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.1036970308148552</v>
+        <v>0.08550040767342211</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04911501344852557</v>
+        <v>0.1098936822489412</v>
       </c>
       <c r="J134" t="n">
-        <v>0.12766278413225</v>
+        <v>0.1006916335330452</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05365310327940396</v>
+        <v>0.1102960182398197</v>
       </c>
       <c r="L134" t="n">
-        <v>0.2204144073208006</v>
+        <v>0.1841089100874584</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04768784469607056</v>
+        <v>0.1104070534807665</v>
       </c>
       <c r="N134" t="n">
-        <v>0.3444115176375911</v>
+        <v>0.2664245819303083</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05429554211954053</v>
+        <v>0.1097461294275121</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.1002448471944837</v>
+        <v>0.08051893609351603</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04982682523763464</v>
+        <v>0.11148634431052</v>
       </c>
       <c r="J135" t="n">
-        <v>0.1286384371719738</v>
+        <v>0.09889053270480994</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05443068448635185</v>
+        <v>0.1118945112577881</v>
       </c>
       <c r="L135" t="n">
-        <v>0.2210466145795345</v>
+        <v>0.1826832476216387</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04837897288007159</v>
+        <v>0.1120071557051254</v>
       </c>
       <c r="N135" t="n">
-        <v>0.3490113244869709</v>
+        <v>0.2650843626085425</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05508243403431648</v>
+        <v>0.1113366530424035</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.1038249312655204</v>
+        <v>0.07962504828079088</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0505386370267437</v>
+        <v>0.1130790063720989</v>
       </c>
       <c r="J136" t="n">
-        <v>0.1286757347499645</v>
+        <v>0.0985820902753094</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05520826569329973</v>
+        <v>0.1134930042757565</v>
       </c>
       <c r="L136" t="n">
-        <v>0.2227728459996379</v>
+        <v>0.1799222752551434</v>
       </c>
       <c r="M136" t="n">
-        <v>0.04907010106407261</v>
+        <v>0.1136072579294844</v>
       </c>
       <c r="N136" t="n">
-        <v>0.3477718880736868</v>
+        <v>0.2606298622546498</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05586932594909242</v>
+        <v>0.112927176657295</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.09743007115842246</v>
+        <v>0.07383884516496908</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05125044881585277</v>
+        <v>0.1146716684336777</v>
       </c>
       <c r="J137" t="n">
-        <v>0.129961517286768</v>
+        <v>0.09689024439587379</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05598584690024761</v>
+        <v>0.1150914972937249</v>
       </c>
       <c r="L137" t="n">
-        <v>0.225475197411224</v>
+        <v>0.178470061769518</v>
       </c>
       <c r="M137" t="n">
-        <v>0.04976122924807364</v>
+        <v>0.1152073601538433</v>
       </c>
       <c r="N137" t="n">
-        <v>0.3518733049815008</v>
+        <v>0.2584240631508347</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05665621786386837</v>
+        <v>0.1145177002721865</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.1040530550036472</v>
+        <v>0.07118042767577296</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05196226060496184</v>
+        <v>0.1162643304952566</v>
       </c>
       <c r="J138" t="n">
-        <v>0.1306826252029304</v>
+        <v>0.09683893321783327</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0567634281071955</v>
+        <v>0.1166899903116933</v>
       </c>
       <c r="L138" t="n">
-        <v>0.2248357646444058</v>
+        <v>0.1779706759463085</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05045235743207466</v>
+        <v>0.1168074623782022</v>
       </c>
       <c r="N138" t="n">
-        <v>0.3526956717941746</v>
+        <v>0.2569299475793022</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05744310977864433</v>
+        <v>0.116108223887078</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.09868667093165161</v>
+        <v>0.07566989674292492</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0526740723940709</v>
+        <v>0.1178569925568355</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1318258989189978</v>
+        <v>0.09625209489251801</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05754100931414338</v>
+        <v>0.1182884833296618</v>
       </c>
       <c r="L139" t="n">
-        <v>0.2277366435292967</v>
+        <v>0.1761681865670606</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05114348561607568</v>
+        <v>0.1184075646025611</v>
       </c>
       <c r="N139" t="n">
-        <v>0.3536190850954701</v>
+        <v>0.2566104978222564</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05823000169342028</v>
+        <v>0.1176987475019694</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.105323707072893</v>
+        <v>0.07432735329614733</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05338588418317997</v>
+        <v>0.1194496546184143</v>
       </c>
       <c r="J140" t="n">
-        <v>0.1324781788555162</v>
+        <v>0.09515366757125826</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05831859052109126</v>
+        <v>0.1198869763476302</v>
       </c>
       <c r="L140" t="n">
-        <v>0.2295599298960097</v>
+        <v>0.1743066624133201</v>
       </c>
       <c r="M140" t="n">
-        <v>0.0518346138000767</v>
+        <v>0.1200076668269201</v>
       </c>
       <c r="N140" t="n">
-        <v>0.3540236414691491</v>
+        <v>0.2525286961619023</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05901689360819623</v>
+        <v>0.1192892711168609</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.1009569515578284</v>
+        <v>0.07817289826516256</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05409769597228903</v>
+        <v>0.1210423166799932</v>
       </c>
       <c r="J141" t="n">
-        <v>0.1319263054330319</v>
+        <v>0.09446758940538413</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05909617172803915</v>
+        <v>0.1214854693655986</v>
       </c>
       <c r="L141" t="n">
-        <v>0.231587719574658</v>
+        <v>0.1747301722666329</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05252574198407772</v>
+        <v>0.121607769051279</v>
       </c>
       <c r="N141" t="n">
-        <v>0.3542894374989735</v>
+        <v>0.2521475248804443</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05980378552297218</v>
+        <v>0.1208797947317524</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.101579192516915</v>
+        <v>0.07217455998067374</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0548095077613981</v>
+        <v>0.122634978741572</v>
       </c>
       <c r="J142" t="n">
-        <v>0.1334571190720907</v>
+        <v>0.09490812492686299</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05987375293498703</v>
+        <v>0.123083962383567</v>
       </c>
       <c r="L142" t="n">
-        <v>0.2324021083953549</v>
+        <v>0.1736766959722145</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05321687016807875</v>
+        <v>0.123207871275638</v>
       </c>
       <c r="N142" t="n">
-        <v>0.3571256399633753</v>
+        <v>0.2548846748781647</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06059067743774812</v>
+        <v>0.1224703183466439</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.09918321808061011</v>
+        <v>0.0802120838225248</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05552131955050717</v>
+        <v>0.1242276408031509</v>
       </c>
       <c r="J143" t="n">
-        <v>0.1337153852597091</v>
+        <v>0.09503692267372069</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06065133414193492</v>
+        <v>0.1246824554015354</v>
       </c>
       <c r="L143" t="n">
-        <v>0.2343851921882134</v>
+        <v>0.1737216012005675</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05390799835207977</v>
+        <v>0.1248079734999969</v>
       </c>
       <c r="N143" t="n">
-        <v>0.3571254694941861</v>
+        <v>0.2536175032598619</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06137756935252408</v>
+        <v>0.1240608419615354</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.09976181637937075</v>
+        <v>0.07027813511903919</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05623313133961624</v>
+        <v>0.1258203028647297</v>
       </c>
       <c r="J144" t="n">
-        <v>0.1334153655000042</v>
+        <v>0.09440034614991674</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0614289153488828</v>
+        <v>0.1262809484195037</v>
       </c>
       <c r="L144" t="n">
-        <v>0.2360190667833467</v>
+        <v>0.1735305803763568</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05459912653608079</v>
+        <v>0.1264080757243558</v>
       </c>
       <c r="N144" t="n">
-        <v>0.3568706804445716</v>
+        <v>0.2522390840626412</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06216446126730003</v>
+        <v>0.1256513655764268</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.1053077755436541</v>
+        <v>0.08037123686122304</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05694494312872531</v>
+        <v>0.1274129649263086</v>
       </c>
       <c r="J145" t="n">
-        <v>0.1333137919754816</v>
+        <v>0.09529663638881133</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06220649655583068</v>
+        <v>0.1278794414374722</v>
       </c>
       <c r="L145" t="n">
-        <v>0.237885828010868</v>
+        <v>0.1757003953415673</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05529025472008181</v>
+        <v>0.1280081779487148</v>
       </c>
       <c r="N145" t="n">
-        <v>0.3559226521632053</v>
+        <v>0.2535447893713484</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06295135318207597</v>
+        <v>0.1272418891913183</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.1088138837039174</v>
+        <v>0.07548991204008244</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05765675491783436</v>
+        <v>0.1290056269878875</v>
       </c>
       <c r="J146" t="n">
-        <v>0.1330097277344159</v>
+        <v>0.09472403442376456</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06298407776277856</v>
+        <v>0.1294779344554406</v>
       </c>
       <c r="L146" t="n">
-        <v>0.2374675717008905</v>
+        <v>0.1740278079381837</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05598138290408284</v>
+        <v>0.1296082801730737</v>
       </c>
       <c r="N146" t="n">
-        <v>0.3553883465383446</v>
+        <v>0.2553299912708296</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06373824509685193</v>
+        <v>0.1288324128062098</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.1072729289906177</v>
+        <v>0.08063268364662361</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05836856670694343</v>
+        <v>0.1305982890494663</v>
       </c>
       <c r="J147" t="n">
-        <v>0.132603208965244</v>
+        <v>0.09558078128813666</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06376165896972645</v>
+        <v>0.1310764274734089</v>
       </c>
       <c r="L147" t="n">
-        <v>0.2386463936835273</v>
+        <v>0.1739095800081911</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05667251108808386</v>
+        <v>0.1312083823974326</v>
       </c>
       <c r="N147" t="n">
-        <v>0.3553747254582462</v>
+        <v>0.2549900618459309</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06452513701162788</v>
+        <v>0.1304229364211013</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.1076776995342123</v>
+        <v>0.08079807467185258</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0590803784960525</v>
+        <v>0.1321909511110452</v>
       </c>
       <c r="J148" t="n">
-        <v>0.133094271856403</v>
+        <v>0.09546511801528773</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06453924017667434</v>
+        <v>0.1326749204913774</v>
       </c>
       <c r="L148" t="n">
-        <v>0.2400043897888915</v>
+        <v>0.1763424733935741</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05736363927208488</v>
+        <v>0.1328084846217916</v>
       </c>
       <c r="N148" t="n">
-        <v>0.3546887508111674</v>
+        <v>0.2548203731814982</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06531202892640382</v>
+        <v>0.1320134600359928</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.1060209834651583</v>
+        <v>0.07498460810677553</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05979219028516156</v>
+        <v>0.133783613172624</v>
       </c>
       <c r="J149" t="n">
-        <v>0.1327829525963302</v>
+        <v>0.09637528563857797</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06531682138362221</v>
+        <v>0.1342734135093458</v>
       </c>
       <c r="L149" t="n">
-        <v>0.2417236558470965</v>
+        <v>0.1746232499363177</v>
       </c>
       <c r="M149" t="n">
-        <v>0.0580547674560859</v>
+        <v>0.1344085868461505</v>
       </c>
       <c r="N149" t="n">
-        <v>0.3542373844853649</v>
+        <v>0.2563162973623775</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06609892084117978</v>
+        <v>0.1336039836508842</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.1132955689139128</v>
+        <v>0.08019080694239857</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06050400207427063</v>
+        <v>0.1353762752342029</v>
       </c>
       <c r="J150" t="n">
-        <v>0.1323692873734626</v>
+        <v>0.09550952519136754</v>
       </c>
       <c r="K150" t="n">
-        <v>0.0660944025905701</v>
+        <v>0.1358719065273142</v>
       </c>
       <c r="L150" t="n">
-        <v>0.2420862876882553</v>
+        <v>0.1769486714784068</v>
       </c>
       <c r="M150" t="n">
-        <v>0.05874589564008693</v>
+        <v>0.1360086890705094</v>
       </c>
       <c r="N150" t="n">
-        <v>0.353927588369096</v>
+        <v>0.2568732064734153</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06688581275595572</v>
+        <v>0.1351945072657757</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.1135189180255616</v>
+        <v>0.0724151941697278</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0612158138633797</v>
+        <v>0.1369689372957817</v>
       </c>
       <c r="J151" t="n">
-        <v>0.1329533123762373</v>
+        <v>0.09686607770701661</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06687198379751798</v>
+        <v>0.1374703995452826</v>
       </c>
       <c r="L151" t="n">
-        <v>0.244274381142481</v>
+        <v>0.1767154998618263</v>
       </c>
       <c r="M151" t="n">
-        <v>0.05943702382408795</v>
+        <v>0.1376087912948684</v>
       </c>
       <c r="N151" t="n">
-        <v>0.3544663243506173</v>
+        <v>0.257586472599457</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06767270467073168</v>
+        <v>0.1367850308806672</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.1076391656369831</v>
+        <v>0.07965629277976939</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06192762565248876</v>
+        <v>0.1385615993573606</v>
       </c>
       <c r="J152" t="n">
-        <v>0.1323350637930915</v>
+        <v>0.09594318421888529</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06764956500446587</v>
+        <v>0.139068892563251</v>
       </c>
       <c r="L152" t="n">
-        <v>0.244570032039887</v>
+        <v>0.1777204969285608</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06012815200808898</v>
+        <v>0.1392088935192273</v>
       </c>
       <c r="N152" t="n">
-        <v>0.3511605543181863</v>
+        <v>0.2588514678253492</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06845959658550763</v>
+        <v>0.1383755544955587</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.1117804272272589</v>
+        <v>0.07291262576352947</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06263943744159783</v>
+        <v>0.1401542614189395</v>
       </c>
       <c r="J153" t="n">
-        <v>0.1329145778124623</v>
+        <v>0.09713908576033378</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06842714621141376</v>
+        <v>0.1406673855812194</v>
       </c>
       <c r="L153" t="n">
-        <v>0.2454205126115422</v>
+        <v>0.1784604245205955</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06081928019209</v>
+        <v>0.1408089957435862</v>
       </c>
       <c r="N153" t="n">
-        <v>0.3527172401600599</v>
+        <v>0.2606635642359374</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06924648850028357</v>
+        <v>0.1399660781104501</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.1079189604422383</v>
+        <v>0.07320390993816778</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0633512492307069</v>
+        <v>0.1417469234805183</v>
       </c>
       <c r="J154" t="n">
-        <v>0.1328918906227868</v>
+        <v>0.09725202336472227</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06920472741836163</v>
+        <v>0.1422658785991878</v>
       </c>
       <c r="L154" t="n">
-        <v>0.2431200661982587</v>
+        <v>0.1783320444799151</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06151040837609102</v>
+        <v>0.1424090979679452</v>
       </c>
       <c r="N154" t="n">
-        <v>0.3514433437644948</v>
+        <v>0.2610421485914406</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07003338041505952</v>
+        <v>0.1415566017253416</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.1120546168415322</v>
+        <v>0.08171070036946664</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06406306101981596</v>
+        <v>0.1433395855420972</v>
       </c>
       <c r="J155" t="n">
-        <v>0.1323670384125021</v>
+        <v>0.09823149916506838</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06998230862530952</v>
+        <v>0.1438643716171562</v>
       </c>
       <c r="L155" t="n">
-        <v>0.2432100506867433</v>
+        <v>0.1795533631845692</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06220153656009204</v>
+        <v>0.1440092001923041</v>
       </c>
       <c r="N155" t="n">
-        <v>0.3488458270197482</v>
+        <v>0.2631453332205893</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07082027232983548</v>
+        <v>0.1431471253402331</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.1131872479847511</v>
+        <v>0.08443871326202719</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06477487280892504</v>
+        <v>0.144932247603676</v>
       </c>
       <c r="J156" t="n">
-        <v>0.1333400573700455</v>
+        <v>0.09859457860887799</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07075988983225741</v>
+        <v>0.1454628646351246</v>
       </c>
       <c r="L156" t="n">
-        <v>0.2449871966722753</v>
+        <v>0.180903149909339</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06289266474409307</v>
+        <v>0.1456093024166631</v>
       </c>
       <c r="N156" t="n">
-        <v>0.3478316518140773</v>
+        <v>0.2630221327559158</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07160716424461142</v>
+        <v>0.1447376489551246</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.112316705431506</v>
+        <v>0.07834336127921264</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06548668459803408</v>
+        <v>0.1465249096652549</v>
       </c>
       <c r="J157" t="n">
-        <v>0.1334109836838538</v>
+        <v>0.09988816399014119</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07153747103920528</v>
+        <v>0.147061357653093</v>
       </c>
       <c r="L157" t="n">
-        <v>0.2452519473409633</v>
+        <v>0.1832874755568447</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06358379292809409</v>
+        <v>0.147209404641022</v>
       </c>
       <c r="N157" t="n">
-        <v>0.3497077800357388</v>
+        <v>0.2678328416087934</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07239405615938738</v>
+        <v>0.146328172570016</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.1134428407414075</v>
+        <v>0.08138005708438635</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06619849638714316</v>
+        <v>0.1481175717268337</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1322798535423645</v>
+        <v>0.1009591563514186</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07231505224615317</v>
+        <v>0.1486598506710614</v>
       </c>
       <c r="L158" t="n">
-        <v>0.245104745878916</v>
+        <v>0.1843085879521822</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06427492111209511</v>
+        <v>0.1488095068653809</v>
       </c>
       <c r="N158" t="n">
-        <v>0.3495811735729899</v>
+        <v>0.2705377541905957</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07318094807416332</v>
+        <v>0.1479186961849075</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.1135655054740662</v>
+        <v>0.08750421334091153</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06691030817625222</v>
+        <v>0.1497102337884126</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1325467031340144</v>
+        <v>0.1025544567352708</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07309263345310106</v>
+        <v>0.1502583436890298</v>
       </c>
       <c r="L159" t="n">
-        <v>0.2450460354722417</v>
+        <v>0.1879687349204479</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06496604929609613</v>
+        <v>0.1504096090897399</v>
       </c>
       <c r="N159" t="n">
-        <v>0.3487587943140876</v>
+        <v>0.2757971649126961</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07396783998893927</v>
+        <v>0.149509219799799</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.1066845511890929</v>
+        <v>0.08267124271215141</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0676221199653613</v>
+        <v>0.1513028958499915</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1331115686472408</v>
+        <v>0.1027209661842584</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07387021466004894</v>
+        <v>0.1518568367069982</v>
       </c>
       <c r="L160" t="n">
-        <v>0.2434762593070491</v>
+        <v>0.1887701642867377</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06565717748009715</v>
+        <v>0.1520097113140988</v>
       </c>
       <c r="N160" t="n">
-        <v>0.3465476041472888</v>
+        <v>0.2775713681864679</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07475473190371522</v>
+        <v>0.1510997434146905</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.1147998294460985</v>
+        <v>0.08783655786146939</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06833393175447036</v>
+        <v>0.1528955579115703</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1333744862704808</v>
+        <v>0.1043055857409422</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07464779586699682</v>
+        <v>0.1534553297249666</v>
       </c>
       <c r="L161" t="n">
-        <v>0.2435958605694468</v>
+        <v>0.1908151238761475</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06634830566409818</v>
+        <v>0.1536098135384577</v>
       </c>
       <c r="N161" t="n">
-        <v>0.3473545649608506</v>
+        <v>0.2822206584232843</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07554162381849118</v>
+        <v>0.152690267029582</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.1129111918046934</v>
+        <v>0.08295557145222858</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06904574354357944</v>
+        <v>0.1544882199731492</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1332354921921715</v>
+        <v>0.1065552164478827</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0754253770739447</v>
+        <v>0.155053822742935</v>
       </c>
       <c r="L162" t="n">
-        <v>0.2435052824455433</v>
+        <v>0.1949058615137736</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0670394338480992</v>
+        <v>0.1552099157628166</v>
       </c>
       <c r="N162" t="n">
-        <v>0.34628663864303</v>
+        <v>0.284905330034519</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07632851573326711</v>
+        <v>0.1542807906444734</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.1120184898244885</v>
+        <v>0.08698369614779232</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06975755533268849</v>
+        <v>0.156080882034728</v>
       </c>
       <c r="J163" t="n">
-        <v>0.13199462260075</v>
+        <v>0.1068167593476406</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07620295828089259</v>
+        <v>0.1566523157609034</v>
       </c>
       <c r="L163" t="n">
-        <v>0.2444049681214471</v>
+        <v>0.196544625024712</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06773056203210022</v>
+        <v>0.1568100179871756</v>
       </c>
       <c r="N163" t="n">
-        <v>0.3448507870820842</v>
+        <v>0.2884856774315453</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07711540764804307</v>
+        <v>0.1558713142593649</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.1071215750650946</v>
+        <v>0.08587743661454504</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07046936712179756</v>
+        <v>0.1576735440963069</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1329519136846535</v>
+        <v>0.1083371154827766</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07698053948784048</v>
+        <v>0.1582508087788718</v>
       </c>
       <c r="L164" t="n">
-        <v>0.2440953607832669</v>
+        <v>0.1990336622340588</v>
       </c>
       <c r="M164" t="n">
-        <v>0.06842169021610124</v>
+        <v>0.1584101202115345</v>
       </c>
       <c r="N164" t="n">
-        <v>0.3431539721662697</v>
+        <v>0.2897378178959474</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07790229956281902</v>
+        <v>0.1574618378742564</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.1042202990861222</v>
+        <v>0.09269565164839481</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07118117891090663</v>
+        <v>0.1592662061578858</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1319074016323191</v>
+        <v>0.1087187569047674</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07775812069478835</v>
+        <v>0.1598493017968402</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2446769036171111</v>
+        <v>0.2009513019418595</v>
       </c>
       <c r="M165" t="n">
-        <v>0.06911281840010226</v>
+        <v>0.1600102224358935</v>
       </c>
       <c r="N165" t="n">
-        <v>0.344303155783844</v>
+        <v>0.2928998772495983</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07868919147759497</v>
+        <v>0.1590523614891479</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.1103145134471821</v>
+        <v>0.09249410111441715</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07189299070001569</v>
+        <v>0.1608588682194646</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1328611226321838</v>
+        <v>0.1101709385710093</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07853570190173624</v>
+        <v>0.1614477948148086</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2430500398090885</v>
+        <v>0.2033049360291407</v>
       </c>
       <c r="M166" t="n">
-        <v>0.06980394658410329</v>
+        <v>0.1616103246602524</v>
       </c>
       <c r="N166" t="n">
-        <v>0.3442052998230639</v>
+        <v>0.2960005117491509</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07947608339237093</v>
+        <v>0.1606428851040393</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.1134040697078851</v>
+        <v>0.08727419945712837</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07260480248912476</v>
+        <v>0.1624515302810435</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1320131128726849</v>
+        <v>0.1115007434811828</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07931328310868413</v>
+        <v>0.163046287832777</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2435152125453074</v>
+        <v>0.2032171115774636</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07049507476810431</v>
+        <v>0.1632104268846113</v>
       </c>
       <c r="N167" t="n">
-        <v>0.3441467152291606</v>
+        <v>0.2981441532763605</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08026297530714686</v>
+        <v>0.1622334087189309</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.1144888194278419</v>
+        <v>0.09503736112104495</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07331661427823381</v>
+        <v>0.1640441923426223</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1317634085422595</v>
+        <v>0.1120098560940342</v>
       </c>
       <c r="K168" t="n">
-        <v>0.080090864315632</v>
+        <v>0.1646447808507454</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2419728650118766</v>
+        <v>0.2060909295800291</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07118620295210534</v>
+        <v>0.1648105291089703</v>
       </c>
       <c r="N168" t="n">
-        <v>0.340903627544069</v>
+        <v>0.3014352337129815</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08104986722192283</v>
+        <v>0.1638239323338223</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.1105686141666632</v>
+        <v>0.08778500055068318</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07402842606734289</v>
+        <v>0.1656368544042012</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1318120458293446</v>
+        <v>0.1132999608683097</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08086844552257989</v>
+        <v>0.1662432738687138</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2434234403949045</v>
+        <v>0.2066294910300381</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07187733113610635</v>
+        <v>0.1664106313333292</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3430748566800578</v>
+        <v>0.3019781849407689</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08183675913669877</v>
+        <v>0.1654144559487138</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.1126433054839597</v>
+        <v>0.0905185321905594</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07474023785645195</v>
+        <v>0.16722951646578</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1328590609223774</v>
+        <v>0.1132727422627559</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08164602672952777</v>
+        <v>0.1678417668866822</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2435673818804997</v>
+        <v>0.2095358969206915</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07256845932010737</v>
+        <v>0.1680107335576881</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3427592918076063</v>
+        <v>0.3051774388414776</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08262365105147472</v>
+        <v>0.1670049795636053</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.1047127449393421</v>
+        <v>0.09323937048518997</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07545204964556103</v>
+        <v>0.1688221785273589</v>
       </c>
       <c r="J171" t="n">
-        <v>0.132204490009795</v>
+        <v>0.114329884736119</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08242360793647566</v>
+        <v>0.1694402599046506</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2427051326547708</v>
+        <v>0.2113132482451899</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07325958750410839</v>
+        <v>0.1696108357820471</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3394558220971933</v>
+        <v>0.3077374272968623</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08341054296625067</v>
+        <v>0.1685955031784968</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.1117767840924212</v>
+        <v>0.0899489298790913</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07616386143467009</v>
+        <v>0.1704148405889377</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1315483692800346</v>
+        <v>0.1154730727471453</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08320118914342355</v>
+        <v>0.171038752922619</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2423371359038264</v>
+        <v>0.2114646459967344</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07395071568810943</v>
+        <v>0.171210938006406</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3391633367192979</v>
+        <v>0.3085625821886782</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08419743488102663</v>
+        <v>0.1701860267933882</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.1148352745028076</v>
+        <v>0.09564862481677967</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07687567322377915</v>
+        <v>0.1720075026505166</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1318907349215332</v>
+        <v>0.1163039907545812</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08397877035037142</v>
+        <v>0.1726372459405874</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2411638348137748</v>
+        <v>0.2133931911685257</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07464184387211045</v>
+        <v>0.1728110402307649</v>
       </c>
       <c r="N173" t="n">
-        <v>0.3395807248443992</v>
+        <v>0.3123573353986797</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08498432679580256</v>
+        <v>0.1717765504082797</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.1118880677301121</v>
+        <v>0.09533986974277146</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07758748501288822</v>
+        <v>0.1736001647120955</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1326316231227281</v>
+        <v>0.1166243232171732</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08475635155731931</v>
+        <v>0.1742357389585558</v>
       </c>
       <c r="L174" t="n">
-        <v>0.242785672570725</v>
+        <v>0.2145019847537647</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07533297205611147</v>
+        <v>0.1744111424551239</v>
       </c>
       <c r="N174" t="n">
-        <v>0.341106875642976</v>
+        <v>0.3130261188086216</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08577121871057852</v>
+        <v>0.1733670740231712</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.1049350153339454</v>
+        <v>0.09802407910158302</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07829929680199728</v>
+        <v>0.1751928267736743</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1317710700720562</v>
+        <v>0.1183357545936674</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0855339327642672</v>
+        <v>0.1758342319765242</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2423030923607852</v>
+        <v>0.2156941277456523</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07602410024011248</v>
+        <v>0.1760112446794828</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3408406782855078</v>
+        <v>0.3167733643002592</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08655811062535446</v>
+        <v>0.1749575976380627</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.1059759688739182</v>
+        <v>0.09671139156859933</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07901110859110635</v>
+        <v>0.1767854888352532</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1324067624118195</v>
+        <v>0.1182416967849926</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08631151397121507</v>
+        <v>0.1774327249944926</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2426165373700641</v>
+        <v>0.2186738291671617</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07671522842411352</v>
+        <v>0.1776113469038418</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3387810219424731</v>
+        <v>0.3183436493087753</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08734500254013042</v>
+        <v>0.1765481212529542</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.1090107799096413</v>
+        <v>0.101438247626103</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07972292038021542</v>
+        <v>0.178378150896832</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1323183526557364</v>
+        <v>0.1195863593311288</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08708909517816296</v>
+        <v>0.179031218012461</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2414264507846702</v>
+        <v>0.2191172998514138</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07740635660811454</v>
+        <v>0.1792114491282007</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3397267957843512</v>
+        <v>0.3218395467346955</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08813189445490636</v>
+        <v>0.1781386448678456</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.1060393000007253</v>
+        <v>0.09618770915018031</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08043473216932449</v>
+        <v>0.1799708129584109</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1318023520528606</v>
+        <v>0.1208670275310059</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08786667638511085</v>
+        <v>0.1806297110304294</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2413332757907122</v>
+        <v>0.2214316490680522</v>
       </c>
       <c r="M178" t="n">
-        <v>0.07809748479211556</v>
+        <v>0.1808115513525596</v>
       </c>
       <c r="N178" t="n">
-        <v>0.339276888981621</v>
+        <v>0.3240974639304031</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08891878636968231</v>
+        <v>0.1797291684827371</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.116061380706781</v>
+        <v>0.09393547847873605</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08114654395843356</v>
+        <v>0.1815634750199898</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1311602803818879</v>
+        <v>0.1221547653542896</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08864425759205873</v>
+        <v>0.1822282040483978</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2413374555742985</v>
+        <v>0.2223636072231958</v>
       </c>
       <c r="M179" t="n">
-        <v>0.07878861297611658</v>
+        <v>0.1824116535769185</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3361301907047618</v>
+        <v>0.3241412689839851</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08970567828445826</v>
+        <v>0.1813196920976286</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.1060768735874191</v>
+        <v>0.09565725794967507</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08185835574754262</v>
+        <v>0.1831561370815686</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1317936574215141</v>
+        <v>0.1220206367706448</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08942183879900661</v>
+        <v>0.1838266970663662</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2421394333215378</v>
+        <v>0.2251599047229633</v>
       </c>
       <c r="M180" t="n">
-        <v>0.07947974116011761</v>
+        <v>0.1840117558012775</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3358855901242521</v>
+        <v>0.3293948299835286</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09049257019923422</v>
+        <v>0.1829102157125201</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1070856302022504</v>
+        <v>0.1053287499009023</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08257016753665168</v>
+        <v>0.1847487991431475</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1306040029504351</v>
+        <v>0.1238357057497369</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09019942000595449</v>
+        <v>0.1854251900843346</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2397396522185386</v>
+        <v>0.2250672719734737</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08017086934411863</v>
+        <v>0.1856118580256364</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3388419764105716</v>
+        <v>0.3313820150171214</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09127946211401017</v>
+        <v>0.1845007393274115</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1150867581718066</v>
+        <v>0.1009256566703225</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08328197932576076</v>
+        <v>0.1863414612047263</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1310928367473466</v>
+        <v>0.1245710362612311</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09097700121290238</v>
+        <v>0.187023683102303</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2406385554514094</v>
+        <v>0.2267324393808458</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08086199752811965</v>
+        <v>0.1872119602499953</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3358982387341988</v>
+        <v>0.3309266921728503</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09206635402878612</v>
+        <v>0.186091262942303</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1130616526294887</v>
+        <v>0.1024236805958405</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08399379111486982</v>
+        <v>0.1879341232663052</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1308616785909447</v>
+        <v>0.1238976922747928</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09175458241985027</v>
+        <v>0.1886221761202714</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2406365862062588</v>
+        <v>0.2276021373511984</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08155312571212067</v>
+        <v>0.1888120624743543</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3364532662656128</v>
+        <v>0.3327527295388025</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09285324594356208</v>
+        <v>0.1876817865571945</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1090035336908635</v>
+        <v>0.1057985240153612</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08470560290397888</v>
+        <v>0.189526785327884</v>
       </c>
       <c r="J184" t="n">
-        <v>0.130012048259925</v>
+        <v>0.1249867377600871</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09253216362679814</v>
+        <v>0.1902206691382398</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2398341876691955</v>
+        <v>0.2298230962906505</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08224425389612171</v>
+        <v>0.1904121646987132</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3350059481752931</v>
+        <v>0.3333839952030654</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09364013785833801</v>
+        <v>0.189272310172086</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1069140537952566</v>
+        <v>0.1020754084190285</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08541741469308795</v>
+        <v>0.1911194473894629</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1306454655329835</v>
+        <v>0.1249327967622463</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09330974483374603</v>
+        <v>0.1918191621562083</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2407318030263279</v>
+        <v>0.2312727951365998</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08293538208012273</v>
+        <v>0.1920122669230721</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3359551736337182</v>
+        <v>0.3358450519472786</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09442702977311397</v>
+        <v>0.1908628337869775</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.113794865381993</v>
+        <v>0.104343780867705</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08612922648219701</v>
+        <v>0.1927121094510418</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1301634501888159</v>
+        <v>0.1262520341095166</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09408732604069392</v>
+        <v>0.1934176551741766</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2398275331226149</v>
+        <v>0.2316603028282859</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08362651026412374</v>
+        <v>0.1936123691474311</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3348998318113672</v>
+        <v>0.3362862898564335</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09521392168788992</v>
+        <v>0.1924533574018689</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1126476208903982</v>
+        <v>0.1076063251512666</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08684103827130608</v>
+        <v>0.1943047715126206</v>
       </c>
       <c r="J187" t="n">
-        <v>0.1296675220061181</v>
+        <v>0.126364386325468</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09486490724764179</v>
+        <v>0.195016148192145</v>
       </c>
       <c r="L187" t="n">
-        <v>0.240512898971291</v>
+        <v>0.23053516350828</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08431763844812476</v>
+        <v>0.19521247137179</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3362388118787194</v>
+        <v>0.3355092124300418</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09600081360266587</v>
+        <v>0.1940438810167604</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1084739727597975</v>
+        <v>0.1058629518510288</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08755285006041515</v>
+        <v>0.1958974335741995</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1298592007635859</v>
+        <v>0.1269697469215932</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09564248845458968</v>
+        <v>0.1966146412101134</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2393871183040843</v>
+        <v>0.2329971811372687</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0850087666321258</v>
+        <v>0.196812573596149</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3353710030062534</v>
+        <v>0.3382135394923663</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09678770551744181</v>
+        <v>0.1956344046316519</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.114275573429516</v>
+        <v>0.09711357154830715</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08826466184952422</v>
+        <v>0.1974900956357784</v>
       </c>
       <c r="J189" t="n">
-        <v>0.1291400062399153</v>
+        <v>0.126468009409385</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09642006966153756</v>
+        <v>0.1982131342280818</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2383502278728846</v>
+        <v>0.2325461596759381</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08569989481612682</v>
+        <v>0.1984126758205079</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3344952943644487</v>
+        <v>0.3397989908676687</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09757459743221776</v>
+        <v>0.1972249282465434</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1050540753388793</v>
+        <v>0.1033580948244173</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08897647363863329</v>
+        <v>0.1990827576973572</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1282114582138019</v>
+        <v>0.1268590673003363</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09719765086848545</v>
+        <v>0.1998116272460503</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2390022644295813</v>
+        <v>0.2337819030849745</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08639102300012784</v>
+        <v>0.2000127780448668</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3325105751237841</v>
+        <v>0.3391652863802114</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09836148934699371</v>
+        <v>0.1988154518614349</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.1048111309272124</v>
+        <v>0.0995964322606749</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08968828542774235</v>
+        <v>0.200675419758936</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1280750764639417</v>
+        <v>0.1269428141059398</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09797523207543334</v>
+        <v>0.2014101202640186</v>
       </c>
       <c r="L191" t="n">
-        <v>0.237443264726064</v>
+        <v>0.233004215325064</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08708215118412885</v>
+        <v>0.2016128802692258</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3347157344547385</v>
+        <v>0.3409121458542568</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09914838126176967</v>
+        <v>0.2004059754763263</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1085483926338409</v>
+        <v>0.1038284944383955</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09040009721685141</v>
+        <v>0.2022680818205149</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1280323807690305</v>
+        <v>0.1274191433376886</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09875281328238121</v>
+        <v>0.203008613281987</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2384732655142224</v>
+        <v>0.2342129003568929</v>
       </c>
       <c r="M192" t="n">
-        <v>0.08777327936812988</v>
+        <v>0.2032129824935847</v>
       </c>
       <c r="N192" t="n">
-        <v>0.3342096615277912</v>
+        <v>0.342439289114067</v>
       </c>
       <c r="O192" t="n">
-        <v>0.0999352731765456</v>
+        <v>0.2019964990912178</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1142675128980899</v>
+        <v>0.1000541919388947</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09111190900596049</v>
+        <v>0.2038607438820938</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1282848909077641</v>
+        <v>0.1272879485070752</v>
       </c>
       <c r="K193" t="n">
-        <v>0.0995303944893291</v>
+        <v>0.2046071062999555</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2384923035459458</v>
+        <v>0.2332077621411475</v>
       </c>
       <c r="M193" t="n">
-        <v>0.08846440755213091</v>
+        <v>0.2048130847179436</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3339912455134211</v>
+        <v>0.3418464359839041</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1007221650913216</v>
+        <v>0.2035870227061093</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1059701441592848</v>
+        <v>0.1022734353434881</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09182372079506955</v>
+        <v>0.2054534059436726</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1267341266588383</v>
+        <v>0.1284491231255927</v>
       </c>
       <c r="K194" t="n">
-        <v>0.100307975696277</v>
+        <v>0.2062055993179238</v>
       </c>
       <c r="L194" t="n">
-        <v>0.238300415573124</v>
+        <v>0.234888604638514</v>
       </c>
       <c r="M194" t="n">
-        <v>0.08915553573613193</v>
+        <v>0.2064131869423026</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3329593755821071</v>
+        <v>0.3410333062880303</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1015090570060975</v>
+        <v>0.2051775463210008</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1126579388567508</v>
+        <v>0.1004861352334913</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09253553258417861</v>
+        <v>0.2070460680052515</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1263816078009491</v>
+        <v>0.1283025607047338</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1010855569032249</v>
+        <v>0.2078040923358923</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2369976383476465</v>
+        <v>0.2343552318096786</v>
       </c>
       <c r="M195" t="n">
-        <v>0.08984666392013295</v>
+        <v>0.2080132891666615</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3327129409043283</v>
+        <v>0.3430996198507081</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1022959489208735</v>
+        <v>0.2067680699358923</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.1063325494298133</v>
+        <v>0.09969220219021994</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09324734437328767</v>
+        <v>0.2086387300668303</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1269288541127923</v>
+        <v>0.1287481547559913</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1018631381101728</v>
+        <v>0.2094025853538607</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2382840086214028</v>
+        <v>0.2347074476153275</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09053779210413397</v>
+        <v>0.2096133913910204</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3320508306505638</v>
+        <v>0.3423450964961995</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1030828408356494</v>
+        <v>0.2083585935507837</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1039956283177976</v>
+        <v>0.1028915467949896</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09395915616239674</v>
+        <v>0.2102313921284092</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1263773853730636</v>
+        <v>0.1287857987908581</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1026407193171206</v>
+        <v>0.211001078371829</v>
       </c>
       <c r="L197" t="n">
-        <v>0.2358595631462825</v>
+        <v>0.237145056016147</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09122892028813499</v>
+        <v>0.2112134936153794</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3307719339912927</v>
+        <v>0.3427694560487669</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1038697327504254</v>
+        <v>0.2099491171656752</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1106488279600289</v>
+        <v>0.1070840796291159</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09467096795150581</v>
+        <v>0.211824054189988</v>
       </c>
       <c r="J198" t="n">
-        <v>0.1263287213604589</v>
+        <v>0.128915386320827</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1034183005240685</v>
+        <v>0.2125995713897975</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2363243386741751</v>
+        <v>0.2378678609728234</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09192004847213602</v>
+        <v>0.2128135958397383</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3291751400969941</v>
+        <v>0.3450724183326722</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1046566246652013</v>
+        <v>0.2115396407805667</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1022938007958326</v>
+        <v>0.1022697112739144</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09538277974061488</v>
+        <v>0.2134167162515669</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1261843818536741</v>
+        <v>0.1285368108573909</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1041958817310164</v>
+        <v>0.2141980644077658</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2357783719569702</v>
+        <v>0.2381756664460428</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09261117665613704</v>
+        <v>0.2144136980640972</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3300593381381467</v>
+        <v>0.3462537031721777</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1054435165799773</v>
+        <v>0.2131301643954581</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.102932199264534</v>
+        <v>0.09944835231070069</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09609459152972395</v>
+        <v>0.2150093783131458</v>
       </c>
       <c r="J200" t="n">
-        <v>0.124945886631405</v>
+        <v>0.1299499659120425</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1049734629379643</v>
+        <v>0.2157965574257343</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2355216997465575</v>
+        <v>0.2382682763964914</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09330230484013806</v>
+        <v>0.2160138002884562</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3294234172852295</v>
+        <v>0.3459130303915459</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1062304084947532</v>
+        <v>0.2147206880103496</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1025656758054584</v>
+        <v>0.1026199133207904</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09680640331883301</v>
+        <v>0.2166020403747246</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1245147554723475</v>
+        <v>0.1299547449962747</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1057510441449122</v>
+        <v>0.2173950504437027</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2363543587948264</v>
+        <v>0.2367454947848556</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09399343302413908</v>
+        <v>0.2176139025128151</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3295672775977824</v>
+        <v>0.3472501198150387</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1070173004095292</v>
+        <v>0.2163112116252411</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1011958828579311</v>
+        <v>0.1097843048854992</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09751821510794208</v>
+        <v>0.2181947024363035</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1250925081551973</v>
+        <v>0.1299510416215804</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1065286253518601</v>
+        <v>0.2189935434616711</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2356763858536665</v>
+        <v>0.2374071255718216</v>
       </c>
       <c r="M202" t="n">
-        <v>0.0946845612081401</v>
+        <v>0.219214004737174</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3277936501203728</v>
+        <v>0.3477646912669184</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1078041923243051</v>
+        <v>0.2179017352401326</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.1098244728612773</v>
+        <v>0.09994143758614261</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09823002689705114</v>
+        <v>0.2197873644978824</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1243781940314516</v>
+        <v>0.1299387492994523</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1073062065588079</v>
+        <v>0.2205920364796395</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2344878176749674</v>
+        <v>0.2386529727180756</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09537568939214112</v>
+        <v>0.2208141069615329</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3285028668680611</v>
+        <v>0.3463564645714474</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1085910842390811</v>
+        <v>0.2194922588550241</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1054530982548224</v>
+        <v>0.1030912220040363</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0989418386861602</v>
+        <v>0.2213800265594612</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1240630323537876</v>
+        <v>0.1308177615413833</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1080837877657558</v>
+        <v>0.2221905294976079</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2329886910106186</v>
+        <v>0.2385828401843038</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09606681757614215</v>
+        <v>0.2224142091858919</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3257950306887827</v>
+        <v>0.3473251595528878</v>
       </c>
       <c r="O204" t="n">
-        <v>0.109377976153857</v>
+        <v>0.2210827824699156</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1100834114778918</v>
+        <v>0.1022335687204958</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09965365047526928</v>
+        <v>0.2229726886210401</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1232460809051324</v>
+        <v>0.1298879718588663</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1088613689727037</v>
+        <v>0.2237890225155763</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2348790426125098</v>
+        <v>0.2403965319311924</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09675794576014318</v>
+        <v>0.2240143114102509</v>
       </c>
       <c r="N205" t="n">
-        <v>0.324570244430473</v>
+        <v>0.3486704960355018</v>
       </c>
       <c r="O205" t="n">
-        <v>0.110164868068633</v>
+        <v>0.2226733060848071</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1037170649698107</v>
+        <v>0.1043683883168367</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1003654622643783</v>
+        <v>0.2245653506826189</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1235273305195586</v>
+        <v>0.1311492737633941</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1096389501796516</v>
+        <v>0.2253875155335447</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2326589092325305</v>
+        <v>0.2392938519194277</v>
       </c>
       <c r="M206" t="n">
-        <v>0.0974490739441442</v>
+        <v>0.2256144136346098</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3255286109410664</v>
+        <v>0.3484921938435515</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1109517599834089</v>
+        <v>0.2242638296996985</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.09935571116990428</v>
+        <v>0.1094955913743747</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1010772740534874</v>
+        <v>0.2261580127441978</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1224067720311393</v>
+        <v>0.1313015607664593</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1104165313865995</v>
+        <v>0.2269860085515131</v>
       </c>
       <c r="L207" t="n">
-        <v>0.2322283276225701</v>
+        <v>0.239974604109696</v>
       </c>
       <c r="M207" t="n">
-        <v>0.09814020212814521</v>
+        <v>0.2272145158589687</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3247702330684988</v>
+        <v>0.3488899728012994</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1117386518981848</v>
+        <v>0.22585435331459</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.100001002517498</v>
+        <v>0.1016150884744253</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1017890858425965</v>
+        <v>0.2277506748057766</v>
       </c>
       <c r="J208" t="n">
-        <v>0.1232843962739471</v>
+        <v>0.131444726379555</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1111941125935473</v>
+        <v>0.2285845015694815</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2325873345345184</v>
+        <v>0.2396385924626834</v>
       </c>
       <c r="M208" t="n">
-        <v>0.09883133031214623</v>
+        <v>0.2288146180833276</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3252952136607047</v>
+        <v>0.3488635527330074</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1125255438129608</v>
+        <v>0.2274448769294815</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.09965459145191723</v>
+        <v>0.1057267901983042</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1025008976317055</v>
+        <v>0.2293433368673555</v>
       </c>
       <c r="J209" t="n">
-        <v>0.122660194082055</v>
+        <v>0.130978664114174</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1119716938004952</v>
+        <v>0.2301829945874499</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2313359667202648</v>
+        <v>0.2411856209390762</v>
       </c>
       <c r="M209" t="n">
-        <v>0.09952245849614727</v>
+        <v>0.2304147203076866</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3252036555656196</v>
+        <v>0.3499126534629378</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1133124357277367</v>
+        <v>0.229035400544373</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1073181304124871</v>
+        <v>0.1008306071273269</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1032127094208146</v>
+        <v>0.2309359989289343</v>
       </c>
       <c r="J210" t="n">
-        <v>0.1227341562895358</v>
+        <v>0.130803267481809</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1127492750074431</v>
+        <v>0.2317814876054183</v>
       </c>
       <c r="L210" t="n">
-        <v>0.231574260931699</v>
+        <v>0.2403154934995607</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1002135866801483</v>
+        <v>0.2320148225320455</v>
       </c>
       <c r="N210" t="n">
-        <v>0.3229956616311782</v>
+        <v>0.351036994815353</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1140993276425127</v>
+        <v>0.2306259241592644</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.107993271838533</v>
+        <v>0.1119264498428091</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1039245212099237</v>
+        <v>0.2325286609905132</v>
       </c>
       <c r="J211" t="n">
-        <v>0.1212062737304624</v>
+        <v>0.130918429993953</v>
       </c>
       <c r="K211" t="n">
-        <v>0.113526856214391</v>
+        <v>0.2333799806233867</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2305022539207104</v>
+        <v>0.2400280141048231</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1009047148641493</v>
+        <v>0.2336149247564044</v>
       </c>
       <c r="N211" t="n">
-        <v>0.3217713347053159</v>
+        <v>0.349336296614515</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1148862195572887</v>
+        <v>0.2322164477741559</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1076816681693802</v>
+        <v>0.1020142289260663</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1046363329990327</v>
+        <v>0.234121323052092</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1212765372389076</v>
+        <v>0.1317240451620987</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1143044374213389</v>
+        <v>0.2349784736413551</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2318199824391887</v>
+        <v>0.2401229867155495</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1015958430481503</v>
+        <v>0.2352150269807634</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3215307776359679</v>
+        <v>0.3501102786846862</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1156731114720646</v>
+        <v>0.2338069713890474</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.104384971844354</v>
+        <v>0.1090938549584142</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1053481447881418</v>
+        <v>0.2357139851136709</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1215449376489441</v>
+        <v>0.1308200064977389</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1150820186282868</v>
+        <v>0.2365769666593235</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2295274832390234</v>
+        <v>0.2399002152924262</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1022869712321514</v>
+        <v>0.2368151292051223</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3219740932710692</v>
+        <v>0.3516586608501288</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1164600033868406</v>
+        <v>0.2353974950039389</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1011048353027798</v>
+        <v>0.1101652385211684</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1060599565772509</v>
+        <v>0.2373066471752498</v>
       </c>
       <c r="J214" t="n">
-        <v>0.121411465794645</v>
+        <v>0.1314062075123666</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1158595998352347</v>
+        <v>0.2381754596772919</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2294247930721041</v>
+        <v>0.2409595037961396</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1029780994161524</v>
+        <v>0.2384152314294813</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3195013844585547</v>
+        <v>0.3495811629351049</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1172468953016165</v>
+        <v>0.2369880186188304</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0998427586482306</v>
+        <v>0.1022282901956444</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1067717683663599</v>
+        <v>0.2388993092368286</v>
       </c>
       <c r="J215" t="n">
-        <v>0.120276112510083</v>
+        <v>0.1314825417174745</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1166371810421825</v>
+        <v>0.2397739526952603</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2303119486903204</v>
+        <v>0.2418006561873757</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1036692276001534</v>
+        <v>0.2400153336538402</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3198127540463597</v>
+        <v>0.3508775047638767</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1180337872163925</v>
+        <v>0.2385785422337218</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1005884352487428</v>
+        <v>0.1062829205631579</v>
       </c>
       <c r="G216" t="n">
-        <v>0.107483580155469</v>
+        <v>0.2404919712984075</v>
       </c>
       <c r="J216" t="n">
-        <v>0.119938868629331</v>
+        <v>0.1320489026245555</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1174147622491304</v>
+        <v>0.2413724457132287</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2289889868455617</v>
+        <v>0.2415234764268209</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1043603557841544</v>
+        <v>0.2416154358781991</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3180083048824193</v>
+        <v>0.3526474061607064</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1188206791311684</v>
+        <v>0.2401690658486133</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.09933483137314376</v>
+        <v>0.1063290402050245</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1081953919445781</v>
+        <v>0.2420846333599863</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1203997249864618</v>
+        <v>0.1315051837451023</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1181923434560783</v>
+        <v>0.2429709387311971</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2269559442897178</v>
+        <v>0.2413277684751614</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1050514839681554</v>
+        <v>0.2432155381025581</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3175881398146686</v>
+        <v>0.3533905869498566</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1196075710459444</v>
+        <v>0.2417595894635048</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.09908195956844772</v>
+        <v>0.1043665597025597</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1089072037336871</v>
+        <v>0.2436772954215652</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1200586724155482</v>
+        <v>0.1319512785906079</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1189699246630262</v>
+        <v>0.2445694317491655</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2283128577746781</v>
+        <v>0.2425133362930833</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1057426121521565</v>
+        <v>0.244815640326917</v>
       </c>
       <c r="N218" t="n">
-        <v>0.3178523616910426</v>
+        <v>0.352606766955589</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1203944629607203</v>
+        <v>0.2433501130783963</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.09782983238166894</v>
+        <v>0.1063953896370792</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1096190155227962</v>
+        <v>0.2452699574831441</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1191157017506631</v>
+        <v>0.1310870806725651</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1197475058699741</v>
+        <v>0.2461679247671339</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2272597640523321</v>
+        <v>0.2407799838412731</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1064337403361575</v>
+        <v>0.2464157425512759</v>
       </c>
       <c r="N219" t="n">
-        <v>0.3173010733594768</v>
+        <v>0.3510956660021661</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1211813548754962</v>
+        <v>0.2449406366932877</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1025784623598216</v>
+        <v>0.1044154405898986</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1103308273119053</v>
+        <v>0.2468626195447229</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1185708038258794</v>
+        <v>0.1313124835024665</v>
       </c>
       <c r="K220" t="n">
-        <v>0.120525087076922</v>
+        <v>0.2477664177851023</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2252910592327312</v>
+        <v>0.2424275150804168</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1071248685201585</v>
+        <v>0.2480158447756349</v>
       </c>
       <c r="N220" t="n">
-        <v>0.3149343776679057</v>
+        <v>0.35065700391385</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1219682467902722</v>
+        <v>0.2465311603081792</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1033278620499199</v>
+        <v>0.1124266231423335</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1110426391010143</v>
+        <v>0.2484552816063018</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1180239694752699</v>
+        <v>0.1324273805918053</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1213026682838698</v>
+        <v>0.2493649108030707</v>
       </c>
       <c r="L221" t="n">
-        <v>0.226591945015743</v>
+        <v>0.2421557339712006</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1078159967041595</v>
+        <v>0.2496159469999938</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3137523774642649</v>
+        <v>0.3511905005149031</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1227551387050482</v>
+        <v>0.2481216839230707</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.09707804399897811</v>
+        <v>0.1074200883907625</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1117544508901234</v>
+        <v>0.2500479436678806</v>
       </c>
       <c r="J222" t="n">
-        <v>0.1181751895329074</v>
+        <v>0.131830074430632</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1220802494908177</v>
+        <v>0.2509634038210391</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2239620296441018</v>
+        <v>0.2415634898658421</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1085071248881606</v>
+        <v>0.2512160492243528</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3133551755964891</v>
+        <v>0.3532547300012339</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1235420306198241</v>
+        <v>0.2497122075379622</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1018290207540104</v>
+        <v>0.1092141712156059</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1124662626792325</v>
+        <v>0.2516406057294595</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1173244548328648</v>
+        <v>0.1318345526017924</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1228578306977656</v>
+        <v>0.2525618968390075</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2244017407967276</v>
+        <v>0.2427288114425879</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1091982530721616</v>
+        <v>0.2528161514487117</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3109428749125137</v>
+        <v>0.3519615982597359</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1243289225346001</v>
+        <v>0.2513027311528536</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.101580804862031</v>
+        <v>0.1027575936679682</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1131780744683415</v>
+        <v>0.2532332677910383</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1172717562092149</v>
+        <v>0.1307366438832014</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1236354119047135</v>
+        <v>0.2541603898569759</v>
       </c>
       <c r="L224" t="n">
-        <v>0.22281150615254</v>
+        <v>0.2413354957879013</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1098893812561626</v>
+        <v>0.2544162536730706</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3126155782602739</v>
+        <v>0.3504868306362336</v>
       </c>
       <c r="O224" t="n">
-        <v>0.125115814449376</v>
+        <v>0.2528932547677451</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.09333340887005405</v>
+        <v>0.1110782314309827</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1138898862574506</v>
+        <v>0.2548259298526172</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1163170844960306</v>
+        <v>0.1307695453622819</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1244129931116614</v>
+        <v>0.2557588828749443</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2238917533904591</v>
+        <v>0.2393446568605601</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1105805094401636</v>
+        <v>0.2560163558974295</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3121733884877044</v>
+        <v>0.3464177700629195</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1259027063641519</v>
+        <v>0.2544837783826366</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.09908684532509389</v>
+        <v>0.09920396018778292</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1146016980465597</v>
+        <v>0.2564185919141961</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1162604305273847</v>
+        <v>0.1290664541264571</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1251905743186092</v>
+        <v>0.2573573758929127</v>
       </c>
       <c r="L226" t="n">
-        <v>0.2215429101894047</v>
+        <v>0.237917408619342</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1112716376241646</v>
+        <v>0.2576164581217885</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3111164084427408</v>
+        <v>0.3437417594719868</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1266895982789279</v>
+        <v>0.2560743019975281</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.09284112677416469</v>
+        <v>0.1081626556215022</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1153135098356687</v>
+        <v>0.2580112539757749</v>
       </c>
       <c r="J227" t="n">
-        <v>0.11680178513735</v>
+        <v>0.1286605672631503</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1259681555255571</v>
+        <v>0.2589558689108811</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2208654042282966</v>
+        <v>0.2364148650230244</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1119627658081657</v>
+        <v>0.2592165603461474</v>
       </c>
       <c r="N227" t="n">
-        <v>0.3089447409733178</v>
+        <v>0.340446141795628</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1274764901937039</v>
+        <v>0.2576648256124196</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.1015962657642806</v>
+        <v>0.09998219341527402</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1160253216247778</v>
+        <v>0.2596039160373538</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1165411391599994</v>
+        <v>0.1270850818597843</v>
       </c>
       <c r="K228" t="n">
-        <v>0.126745736732505</v>
+        <v>0.2605543619288495</v>
       </c>
       <c r="L228" t="n">
-        <v>0.220659663186055</v>
+        <v>0.2315981400303854</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1126538939921667</v>
+        <v>0.2608166625705063</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3059584889273707</v>
+        <v>0.3374182599660364</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1282633821084798</v>
+        <v>0.2592553492273111</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09435227484245594</v>
+        <v>0.09769044925223173</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1167371334138869</v>
+        <v>0.2611965780989327</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1152784834294059</v>
+        <v>0.1247731950037825</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1275233179394529</v>
+        <v>0.2621528549468179</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2190261147415993</v>
+        <v>0.2309283476002023</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1133450221761677</v>
+        <v>0.2624167647948653</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3051577551528345</v>
+        <v>0.3331454569154044</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1290502740232558</v>
+        <v>0.2608458728422026</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1011091665557049</v>
+        <v>0.1033152988155087</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1174489452029959</v>
+        <v>0.2627892401605115</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1149138087796421</v>
+        <v>0.1230581037825678</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1283008991464008</v>
+        <v>0.2637513479647863</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2198651865738497</v>
+        <v>0.2279666016912529</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1140361503601687</v>
+        <v>0.2640168670192242</v>
       </c>
       <c r="N230" t="n">
-        <v>0.3071426424976443</v>
+        <v>0.329015075575925</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1298371659380317</v>
+        <v>0.262436396457094</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.09686695345104164</v>
+        <v>0.09988461778823847</v>
       </c>
       <c r="G231" t="n">
-        <v>0.118160756992105</v>
+        <v>0.2643819022220903</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1150471060447809</v>
+        <v>0.1215730052835635</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1290784803533487</v>
+        <v>0.2653498409827547</v>
       </c>
       <c r="L231" t="n">
-        <v>0.2181773063617261</v>
+        <v>0.223474016262315</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1147272785441698</v>
+        <v>0.2656169692435831</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3062132538097356</v>
+        <v>0.3255144588797911</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1306240578528076</v>
+        <v>0.2640269200719855</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.09162564807548033</v>
+        <v>0.09242628185355432</v>
       </c>
       <c r="G232" t="n">
-        <v>0.118872568781214</v>
+        <v>0.2659745642836692</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1149783660588952</v>
+        <v>0.1207510965941928</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1298560615602966</v>
+        <v>0.2669483340007231</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2178629017841482</v>
+        <v>0.2212117052721661</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1154184067281708</v>
+        <v>0.2672170714679421</v>
       </c>
       <c r="N232" t="n">
-        <v>0.304069691937043</v>
+        <v>0.3189309497591957</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1314109497675836</v>
+        <v>0.265617443686877</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.1013852629760354</v>
+        <v>0.09296816669458975</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1195843805703231</v>
+        <v>0.2675672263452481</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1136075796560578</v>
+        <v>0.1184255748018785</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1306336427672444</v>
+        <v>0.2685468270186915</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2157224005200359</v>
+        <v>0.217340782679584</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1161095349121718</v>
+        <v>0.268817173692301</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3020120597275017</v>
+        <v>0.3157518911463313</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1321978416823596</v>
+        <v>0.2672079673017684</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.09614581069972082</v>
+        <v>0.08953814799447814</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1202961923594322</v>
+        <v>0.2691598884068269</v>
       </c>
       <c r="J234" t="n">
-        <v>0.1134347376703416</v>
+        <v>0.117029636994044</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1314112239741923</v>
+        <v>0.2701453200366599</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2152562302483092</v>
+        <v>0.2143223624433461</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1168006630961728</v>
+        <v>0.2704172759166599</v>
       </c>
       <c r="N234" t="n">
-        <v>0.2997404600290471</v>
+        <v>0.3126646259733911</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1329847335971355</v>
+        <v>0.2687984909166599</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.09990730379355096</v>
+        <v>0.09516410143635286</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1210080041485413</v>
+        <v>0.2707525504684057</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1138598309358194</v>
+        <v>0.1155964802581123</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1321888051811402</v>
+        <v>0.2717438130546284</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2142648186478879</v>
+        <v>0.2122175585222303</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1174917912801739</v>
+        <v>0.2720173781410189</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3001549956896139</v>
+        <v>0.3082564971725676</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1337716255119114</v>
+        <v>0.2703890145315514</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09566975480453997</v>
+        <v>0.09687390270334735</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1217198159376503</v>
+        <v>0.2723452125299846</v>
       </c>
       <c r="J236" t="n">
-        <v>0.112582850286564</v>
+        <v>0.1141593016815066</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1329663863880881</v>
+        <v>0.2733423060725967</v>
       </c>
       <c r="L236" t="n">
-        <v>0.213048593397692</v>
+        <v>0.2083874848750144</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1181829194641749</v>
+        <v>0.2736174803653778</v>
       </c>
       <c r="N236" t="n">
-        <v>0.3007557695571376</v>
+        <v>0.303814847676054</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1345585174266874</v>
+        <v>0.2719795381464429</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09043317627970206</v>
+        <v>0.09569167117753587</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1224316277267594</v>
+        <v>0.2739378745915635</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1132037865566484</v>
+        <v>0.1126498495795536</v>
       </c>
       <c r="K237" t="n">
-        <v>0.133743967595036</v>
+        <v>0.2749407990905651</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2120079821766411</v>
+        <v>0.2063915767603276</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1188740476481759</v>
+        <v>0.2752175825897368</v>
       </c>
       <c r="N237" t="n">
-        <v>0.296642884479553</v>
+        <v>0.2986111853353457</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1353454093414634</v>
+        <v>0.2735700617613344</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.09219758076605149</v>
+        <v>0.08554363547230841</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1231434395158685</v>
+        <v>0.2755305366531424</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1118226305801453</v>
+        <v>0.1113930945407886</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1345215488019839</v>
+        <v>0.2765392921085336</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2101434126636554</v>
+        <v>0.2046991329048999</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1195651758321769</v>
+        <v>0.2768176848140957</v>
       </c>
       <c r="N238" t="n">
-        <v>0.2977164433047954</v>
+        <v>0.2956038936047967</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1361323012562393</v>
+        <v>0.2751605853762258</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08996298081060246</v>
+        <v>0.08439136274984811</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1238552513049775</v>
+        <v>0.2771231987147212</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1124393731911276</v>
+        <v>0.1088313195129451</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1352991300089317</v>
+        <v>0.2781377851265019</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2102553125376546</v>
+        <v>0.2006974606135699</v>
       </c>
       <c r="M239" t="n">
-        <v>0.120256304016178</v>
+        <v>0.2784177870384546</v>
       </c>
       <c r="N239" t="n">
-        <v>0.2971765488807998</v>
+        <v>0.2913833009374124</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1369191931710153</v>
+        <v>0.2767511089911173</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.1007293889603692</v>
+        <v>0.08423478697162791</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1245670630940866</v>
+        <v>0.2787158607763001</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1111540052236681</v>
+        <v>0.1078644458508918</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1360767112158796</v>
+        <v>0.2797362781444703</v>
       </c>
       <c r="L240" t="n">
-        <v>0.2096441094775586</v>
+        <v>0.1992864151051028</v>
       </c>
       <c r="M240" t="n">
-        <v>0.120947432200179</v>
+        <v>0.2800178892628136</v>
       </c>
       <c r="N240" t="n">
-        <v>0.2934233040555013</v>
+        <v>0.2896492004145474</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1377060850857912</v>
+        <v>0.2783416326060088</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.09349681776236586</v>
+        <v>0.08607384209912074</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1252788748831957</v>
+        <v>0.2803085228378789</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1116665175118397</v>
+        <v>0.1060923949094978</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1368542924228275</v>
+        <v>0.2813347711624388</v>
       </c>
       <c r="L241" t="n">
-        <v>0.2079102311622873</v>
+        <v>0.1961658515982642</v>
       </c>
       <c r="M241" t="n">
-        <v>0.12163856038418</v>
+        <v>0.2816179914871725</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2934568116768351</v>
+        <v>0.2839013851175562</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1384929770005671</v>
+        <v>0.2799321562209003</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.09626527976360667</v>
+        <v>0.07890846209379951</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1259906866723047</v>
+        <v>0.2819011848994578</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1110769008897152</v>
+        <v>0.1055150880436316</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1376318736297754</v>
+        <v>0.2829332641804072</v>
       </c>
       <c r="L242" t="n">
-        <v>0.2059541052707605</v>
+        <v>0.193135625311819</v>
       </c>
       <c r="M242" t="n">
-        <v>0.122329688568181</v>
+        <v>0.2832180937115314</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2923771745927363</v>
+        <v>0.2825396481277938</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1392798689153431</v>
+        <v>0.2815226798357918</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0890347875111059</v>
+        <v>0.08673858091713714</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1267024984614138</v>
+        <v>0.2834938469610366</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1095851461913675</v>
+        <v>0.1037324466081622</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1384094548367233</v>
+        <v>0.2845317571983756</v>
       </c>
       <c r="L243" t="n">
-        <v>0.2045761594818983</v>
+        <v>0.1900955914645331</v>
       </c>
       <c r="M243" t="n">
-        <v>0.123020816752182</v>
+        <v>0.2848181959358904</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2921844956511399</v>
+        <v>0.2789637825266144</v>
       </c>
       <c r="O243" t="n">
-        <v>0.140066760830119</v>
+        <v>0.2831132034506832</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.09780535355187776</v>
+        <v>0.08156413253060661</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1274143102505229</v>
+        <v>0.2850865090226155</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1093912442508695</v>
+        <v>0.1024443919579586</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1391870360436712</v>
+        <v>0.286130250216344</v>
       </c>
       <c r="L244" t="n">
-        <v>0.2045768214746202</v>
+        <v>0.1881456052751713</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1237119449361831</v>
+        <v>0.2864182981602493</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2880788776999812</v>
+        <v>0.2745735813953729</v>
       </c>
       <c r="O244" t="n">
-        <v>0.140853652744895</v>
+        <v>0.2847037270655747</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.08857699043293642</v>
+        <v>0.08338505089568084</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1281261220396319</v>
+        <v>0.2866791710841944</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1091951859022938</v>
+        <v>0.1016508454478893</v>
       </c>
       <c r="K245" t="n">
-        <v>0.139964617250619</v>
+        <v>0.2877287432343124</v>
       </c>
       <c r="L245" t="n">
-        <v>0.2039565189278465</v>
+        <v>0.1845855219624992</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1244030731201841</v>
+        <v>0.2880184003846082</v>
       </c>
       <c r="N245" t="n">
-        <v>0.287060423587195</v>
+        <v>0.2683688378154242</v>
       </c>
       <c r="O245" t="n">
-        <v>0.141640544659671</v>
+        <v>0.2862942506804662</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.09834971070129615</v>
+        <v>0.08220126997383274</v>
       </c>
       <c r="G246" t="n">
-        <v>0.128837933828741</v>
+        <v>0.2882718331457732</v>
       </c>
       <c r="J246" t="n">
-        <v>0.1085969619797134</v>
+        <v>0.09955172843282328</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1407421984575669</v>
+        <v>0.2893272362522808</v>
       </c>
       <c r="L246" t="n">
-        <v>0.2007156795204967</v>
+        <v>0.1837151967452823</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1250942013041851</v>
+        <v>0.2896185026089672</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2865292361607167</v>
+        <v>0.2667493448681223</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1424274365744469</v>
+        <v>0.2878847742953577</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.09012352690397109</v>
+        <v>0.07401272372653528</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1295497456178501</v>
+        <v>0.289864495207352</v>
       </c>
       <c r="J247" t="n">
-        <v>0.1089965633172013</v>
+        <v>0.09794696226762944</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1415197796645148</v>
+        <v>0.2909257292702492</v>
       </c>
       <c r="L247" t="n">
-        <v>0.2018547309314911</v>
+        <v>0.1813344848422855</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1257853294881861</v>
+        <v>0.2912186048333261</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2849854182684812</v>
+        <v>0.2629148956348226</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1432143284892228</v>
+        <v>0.2894752979102492</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.08789845158797553</v>
+        <v>0.07481934611526132</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1302615574069591</v>
+        <v>0.2914571572689309</v>
       </c>
       <c r="J248" t="n">
-        <v>0.10889398074883</v>
+        <v>0.09753646830717652</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1422973608714627</v>
+        <v>0.2925242222882176</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1999741008397493</v>
+        <v>0.1786432414722746</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1264764576721872</v>
+        <v>0.292818707057685</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2859290727584237</v>
+        <v>0.2593652831968791</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1440012204039988</v>
+        <v>0.2910658215251407</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.09867449730032364</v>
+        <v>0.07762107110148385</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1309733691960682</v>
+        <v>0.2930498193305098</v>
       </c>
       <c r="J249" t="n">
-        <v>0.1078892051086727</v>
+        <v>0.09572016790633334</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1430749420784106</v>
+        <v>0.294122715306186</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1978742169241911</v>
+        <v>0.1759413218540146</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1271675858561882</v>
+        <v>0.2944188092820439</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2851603024784795</v>
+        <v>0.2535003006356471</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1447881123187748</v>
+        <v>0.2926563451400321</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.09145167658802962</v>
+        <v>0.07241783264667574</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1316851809851773</v>
+        <v>0.2946424813920887</v>
       </c>
       <c r="J250" t="n">
-        <v>0.107182227230802</v>
+        <v>0.09359798241996883</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1438525232853585</v>
+        <v>0.2957212083241543</v>
       </c>
       <c r="L250" t="n">
-        <v>0.1962555068637365</v>
+        <v>0.173528581206271</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1278587140401892</v>
+        <v>0.2960189115064029</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2832792102765832</v>
+        <v>0.2518197410324808</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1455750042335507</v>
+        <v>0.2942468687549236</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.08923000199810778</v>
+        <v>0.07820956471230997</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1323969927742863</v>
+        <v>0.2962351434536675</v>
       </c>
       <c r="J251" t="n">
-        <v>0.1075730379492908</v>
+        <v>0.09206983320295176</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1446301044923063</v>
+        <v>0.2973197013421228</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1956183983373054</v>
+        <v>0.1710048747478091</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1285498422241902</v>
+        <v>0.2976190137307618</v>
       </c>
       <c r="N251" t="n">
-        <v>0.2823858990006705</v>
+        <v>0.246623397468735</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1463618961483266</v>
+        <v>0.295837392369815</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.09700948607757219</v>
+        <v>0.06799620125985945</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1331088045633954</v>
+        <v>0.2978278055152463</v>
       </c>
       <c r="J252" t="n">
-        <v>0.107161628098212</v>
+        <v>0.09083564161015092</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1454076856992542</v>
+        <v>0.2989181943600911</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1928633190238177</v>
+        <v>0.1670700576973941</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1292409704081912</v>
+        <v>0.2992191159551208</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2805804714986759</v>
+        <v>0.2434110630257641</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1471487880631026</v>
+        <v>0.2974279159847065</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.09579014137343721</v>
+        <v>0.07677767625079711</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1338206163525044</v>
+        <v>0.2994204675768252</v>
       </c>
       <c r="J253" t="n">
-        <v>0.1058479885116384</v>
+        <v>0.0899953289964352</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1461852669062021</v>
+        <v>0.3005166873780595</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1926906966021933</v>
+        <v>0.1661239852737917</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1299320985921923</v>
+        <v>0.3008192181794797</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2788630306185351</v>
+        <v>0.2400825307849231</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1479356799778785</v>
+        <v>0.299018439599598</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.08757198043271693</v>
+        <v>0.07355392364659587</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1345324281416135</v>
+        <v>0.301013129638404</v>
       </c>
       <c r="J254" t="n">
-        <v>0.1054321100236428</v>
+        <v>0.08804881671667342</v>
       </c>
       <c r="K254" t="n">
-        <v>0.14696284811315</v>
+        <v>0.302115180396028</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1918009587513519</v>
+        <v>0.1628665126957669</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1306232267761933</v>
+        <v>0.3024193204038386</v>
       </c>
       <c r="N254" t="n">
-        <v>0.275433679208183</v>
+        <v>0.2374375938275666</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1487225718926545</v>
+        <v>0.3006089632144895</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.09535501580242568</v>
+        <v>0.07132487740872868</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1352442399307226</v>
+        <v>0.3026057916999829</v>
       </c>
       <c r="J255" t="n">
-        <v>0.1056139834682981</v>
+        <v>0.08749602612573437</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1477404293200979</v>
+        <v>0.3037136734139964</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1910945331502136</v>
+        <v>0.1598974951820851</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1313143549601943</v>
+        <v>0.3040194226281976</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2757925201155543</v>
+        <v>0.2303760452350492</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1495094638074304</v>
+        <v>0.302199486829381</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.08913926002957757</v>
+        <v>0.06809047149866847</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1359560517198316</v>
+        <v>0.3041984537615618</v>
       </c>
       <c r="J256" t="n">
-        <v>0.1054935996796773</v>
+        <v>0.08493687857848692</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1485180105270458</v>
+        <v>0.3053121664319647</v>
       </c>
       <c r="L256" t="n">
-        <v>0.188571847477698</v>
+        <v>0.1561167879515118</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1320054831441953</v>
+        <v>0.3056195248525565</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2761396561885847</v>
+        <v>0.2290976780887254</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1502963557222064</v>
+        <v>0.3037900104442725</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.09692472566118691</v>
+        <v>0.06185063987788816</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1366678635089407</v>
+        <v>0.3057911158231407</v>
       </c>
       <c r="J257" t="n">
-        <v>0.1042709494918529</v>
+        <v>0.08377129542979989</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1492955917339936</v>
+        <v>0.3069106594499332</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1863333294127254</v>
+        <v>0.1532242462228121</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1326966113281964</v>
+        <v>0.3072196270769155</v>
       </c>
       <c r="N257" t="n">
-        <v>0.272975190275209</v>
+        <v>0.2236022854699502</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1510832476369824</v>
+        <v>0.305380534059164</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.09271142524426786</v>
+        <v>0.06360531650786067</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1373796752980498</v>
+        <v>0.3073837778847195</v>
       </c>
       <c r="J258" t="n">
-        <v>0.104746023738898</v>
+        <v>0.08229919803454214</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1500731729409416</v>
+        <v>0.3085091524679016</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1851794066342152</v>
+        <v>0.1509197252147516</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1333877395121974</v>
+        <v>0.3088197293012744</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2712992252233626</v>
+        <v>0.2215896604600781</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1518701395517583</v>
+        <v>0.3069710576740554</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.09249937132583462</v>
+        <v>0.06335443535005893</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1380914870871589</v>
+        <v>0.3089764399462984</v>
       </c>
       <c r="J259" t="n">
-        <v>0.1033188132548855</v>
+        <v>0.08142050774758247</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1508507541478894</v>
+        <v>0.31010764548587</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1836105068210876</v>
+        <v>0.1486030801460953</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1340788676961984</v>
+        <v>0.3104198315256333</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2710118638809801</v>
+        <v>0.2167595961404636</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1526570314665342</v>
+        <v>0.3085615812889469</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.08928857645290146</v>
+        <v>0.06109793036595589</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1388032988762679</v>
+        <v>0.3105691020078772</v>
       </c>
       <c r="J260" t="n">
-        <v>0.103889308873888</v>
+        <v>0.07943514592378972</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1516283353548373</v>
+        <v>0.3117061385038384</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1829270576522625</v>
+        <v>0.1449741662356088</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1347699958801994</v>
+        <v>0.3120199337499923</v>
       </c>
       <c r="N260" t="n">
-        <v>0.270413209095997</v>
+        <v>0.2128118855924614</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1534439233813102</v>
+        <v>0.3101521049038384</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.09207905317248251</v>
+        <v>0.06683573551702453</v>
       </c>
       <c r="G261" t="n">
-        <v>0.139515110665377</v>
+        <v>0.3121617640694561</v>
       </c>
       <c r="J261" t="n">
-        <v>0.1032575014299784</v>
+        <v>0.07774303391803272</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1524059165617852</v>
+        <v>0.3133046315218068</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1810294868066595</v>
+        <v>0.1445328387020575</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1354611240642004</v>
+        <v>0.3136200359743512</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2666033637163481</v>
+        <v>0.2086463218974263</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1542308152960861</v>
+        <v>0.3117426285187299</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0888708140315921</v>
+        <v>0.05556778476473766</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1402269224544861</v>
+        <v>0.3137544261310349</v>
       </c>
       <c r="J262" t="n">
-        <v>0.1020233817572297</v>
+        <v>0.0759440930851803</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1531834977687331</v>
+        <v>0.3149031245397752</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1806182219631987</v>
+        <v>0.1414789527642065</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1361522522482015</v>
+        <v>0.3152201381987101</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2642824305899688</v>
+        <v>0.2028626981367129</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1550177072108621</v>
+        <v>0.3133331521336213</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.09566387157724439</v>
+        <v>0.05629401207056826</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1409387342435951</v>
+        <v>0.3153470881926138</v>
       </c>
       <c r="J263" t="n">
-        <v>0.1025869406897147</v>
+        <v>0.07483824478010123</v>
       </c>
       <c r="K263" t="n">
-        <v>0.153961078975681</v>
+        <v>0.3165016175577436</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1792936908008</v>
+        <v>0.1375123636408213</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1368433804322025</v>
+        <v>0.3168202404230691</v>
       </c>
       <c r="N263" t="n">
-        <v>0.2629505125647941</v>
+        <v>0.1992608073916758</v>
       </c>
       <c r="O263" t="n">
-        <v>0.155804599125638</v>
+        <v>0.3149236757485128</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.09545823835645355</v>
+        <v>0.06301435139598927</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1416505460327042</v>
+        <v>0.3169397502541926</v>
       </c>
       <c r="J264" t="n">
-        <v>0.101748169061506</v>
+        <v>0.0732254103576645</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1547386601826288</v>
+        <v>0.318100110575712</v>
       </c>
       <c r="L264" t="n">
-        <v>0.176456320998383</v>
+        <v>0.1354329265506671</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1375345086162035</v>
+        <v>0.318420342647428</v>
       </c>
       <c r="N264" t="n">
-        <v>0.2631077124887591</v>
+        <v>0.1955404427436697</v>
       </c>
       <c r="O264" t="n">
-        <v>0.156591491040414</v>
+        <v>0.3165141993634043</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1427.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1427.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.6416320504546997</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04504718969268319</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04504718969268319</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.0720755035082931</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.1269666590127808</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.0567594590127808</v>
+        <v>0.06685769262985453</v>
       </c>
       <c r="B65" t="n">
-        <v>0.002077541736942169</v>
+        <v>0.002447162980233778</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9276,29 +9250,29 @@
         <v/>
       </c>
       <c r="F65" s="170" t="n">
-        <v>0.02702831381560991</v>
+        <v>0</v>
       </c>
       <c r="G65" s="171" t="n">
-        <v>0.0006925139123140565</v>
+        <v>0</v>
       </c>
       <c r="H65" s="171" t="n"/>
       <c r="J65" s="170" t="n">
-        <v>0.03075453860973308</v>
+        <v>0</v>
       </c>
       <c r="K65" s="171" t="n">
-        <v>0.0007879864796352764</v>
+        <v>0</v>
       </c>
       <c r="L65" s="172" t="n">
-        <v>0.0564467179006547</v>
+        <v>0</v>
       </c>
       <c r="M65" s="170" t="n">
-        <v>0.0006555571793895307</v>
+        <v>0</v>
       </c>
       <c r="N65" s="171" t="n">
-        <v>0.08106215999999999</v>
+        <v>0</v>
       </c>
       <c r="O65" s="172" t="n">
-        <v>0.0005506636153846155</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="151" t="inlineStr">
         <is>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0567594590127808</v>
+        <v>0.02259458656420368</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.002077541736942169</v>
+        <v>0.0005293905351538765</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.0474677701757901</v>
+        <v>0.02259458656420368</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001598493017968402</v>
+        <v>0.0005293905351538765</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.08870337403615292</v>
+        <v>0.0564467179006547</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001600102224358935</v>
+        <v>0.0005681495554709266</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.1785628199816877</v>
+        <v>0.08035326899175943</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001651990846153846</v>
+        <v>0.0005572198799193533</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.06211102162345494</v>
+        <v>0.0340974232412258</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003185324123157715</v>
+        <v>0.0008736371839434586</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.06685769262985453</v>
+        <v>0.0340974232412258</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003237902058461539</v>
+        <v>0.0008736371839434586</v>
       </c>
       <c r="L67" s="172" t="n">
         <v>0.1227102563057711</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003558134130177513</v>
+        <v>0.001764439613263748</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.1995652814576661</v>
+        <v>0.1785628199816877</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003181047229782958</v>
+        <v>0.001768951999743979</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.06592105035418197</v>
+        <v>0.05385809155574786</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004777986184736573</v>
+        <v>0.00158817160546163</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.07398407512596791</v>
+        <v>0.05385809155574786</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004795479053905206</v>
+        <v>0.00158817160546163</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.133635666165128</v>
+        <v>0.1343774130132622</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004800306673076804</v>
+        <v>0.002923406858647491</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.2228501786926515</v>
+        <v>0.1950586010991955</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004771570844674437</v>
+        <v>0.002923474884574328</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.07277081101010979</v>
+        <v>0.06429600356377616</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00637064824631543</v>
+        <v>0.002117562140615506</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.08151984259341</v>
+        <v>0.06429600356377616</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006393972071873608</v>
+        <v>0.002117562140615506</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.1463988212837953</v>
+        <v>0.1442241993442081</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006400408897435738</v>
+        <v>0.003897875811529988</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.2390163205992937</v>
+        <v>0.2108239130427152</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006362094459565915</v>
+        <v>0.003897966512765771</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0006925139123140565</v>
+        <v>0.0008736371839434586</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02702831381560991</v>
+        <v>0.0340974232412258</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.07875198247360443</v>
+        <v>0.06685769262985453</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.007963310307894288</v>
+        <v>0.002447162980233778</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.08681905653783858</v>
+        <v>0.06685769262985453</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00799246508984201</v>
+        <v>0.002447162980233778</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.1564803705168669</v>
+        <v>0.1551293900119937</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008000511121794673</v>
+        <v>0.004872344764412485</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.2542920504403589</v>
+        <v>0.2248546579244473</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.007952618074457393</v>
+        <v>0.004872458140957214</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.08395624362703193</v>
+        <v>0.0681781637961093</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009555972369473146</v>
+        <v>0.00317634321092326</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0920509179769996</v>
+        <v>0.0681781637961093</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009590958107810412</v>
+        <v>0.00317634321092326</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.1675816754061979</v>
+        <v>0.1643118306284604</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009600613346153608</v>
+        <v>0.005846813717294981</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.2689057114786132</v>
+        <v>0.2396783111997681</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009543141689348875</v>
+        <v>0.005846949769148657</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.08147527335275838</v>
+        <v>0.06911492435270955</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.011148634431052</v>
+        <v>0.003705733746077136</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.09678462792863898</v>
+        <v>0.06911492435270955</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01118945112577881</v>
+        <v>0.003705733746077136</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.1756040974936435</v>
+        <v>0.1726903668054496</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01120071557051254</v>
+        <v>0.006821282670177478</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.2791856469768232</v>
+        <v>0.2491223483240544</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01113366530424035</v>
+        <v>0.006821441397340099</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.08740075053314979</v>
+        <v>0.07003345094434621</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01274129649263086</v>
+        <v>0.004235124281231012</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.1007893874105027</v>
+        <v>0.07003345094434621</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.01278794414374722</v>
+        <v>0.004235124281231012</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.1828489983210584</v>
+        <v>0.1795838441548026</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01280081779487148</v>
+        <v>0.007795751623059975</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.287660200197755</v>
+        <v>0.2637142447526832</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01272418891913183</v>
+        <v>0.007795933025531543</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.08582435405057216</v>
+        <v>0.0709339207710987</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01433395855420972</v>
+        <v>0.004764514816384889</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.1048343974403366</v>
+        <v>0.0709339207710987</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01438643716171562</v>
+        <v>0.004764514816384889</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.1892177394302978</v>
+        <v>0.1877111082883606</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01440092001923041</v>
+        <v>0.008770220575942471</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.2950577144041748</v>
+        <v>0.2733814759410308</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01431471253402331</v>
+        <v>0.008770424653722986</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.08383776278739156</v>
+        <v>0.07181651103304634</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01592662061578858</v>
+        <v>0.005293905351538765</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.1082888590358866</v>
+        <v>0.07181651103304634</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01598493017968402</v>
+        <v>0.005293905351538765</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.196211682363217</v>
+        <v>0.1953910048179653</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01600102224358935</v>
+        <v>0.009744689528824969</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.299106532858849</v>
+        <v>0.2843515173444741</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01590523614891479</v>
+        <v>0.009744916281914429</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.08853265562597411</v>
+        <v>0.07268139893026851</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01751928267736743</v>
+        <v>0.005823295886692642</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.1100219732148988</v>
+        <v>0.07268139893026851</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01758342319765242</v>
+        <v>0.005823295886692642</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.2011321886616706</v>
+        <v>0.2007423793554579</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01760112446794828</v>
+        <v>0.01071915848170747</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.3045349988245438</v>
+        <v>0.2931518444183897</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01749575976380627</v>
+        <v>0.01071940791010587</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.09600071144868573</v>
+        <v>0.07352876166284458</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01911194473894629</v>
+        <v>0.006352686421846519</v>
       </c>
       <c r="J77" t="n">
-        <v>0.112402940995119</v>
+        <v>0.07352876166284458</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01918191621562082</v>
+        <v>0.006352686421846519</v>
       </c>
       <c r="L77" t="n">
-        <v>0.2068806198675138</v>
+        <v>0.2058840775126797</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01920122669230722</v>
+        <v>0.01169362743458996</v>
       </c>
       <c r="N77" t="n">
-        <v>0.3089714555640253</v>
+        <v>0.2993099326181544</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01908628337869775</v>
+        <v>0.01169389953829731</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0943336091378925</v>
+        <v>0.07435877643085392</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02070460680052515</v>
+        <v>0.006882076957000396</v>
       </c>
       <c r="J78" t="n">
-        <v>0.1151009633942933</v>
+        <v>0.07435877643085392</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02078040923358923</v>
+        <v>0.006882076957000396</v>
       </c>
       <c r="L78" t="n">
-        <v>0.2093583375226016</v>
+        <v>0.2115349449014722</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02080132891666615</v>
+        <v>0.01266809638747246</v>
       </c>
       <c r="N78" t="n">
-        <v>0.31104424634006</v>
+        <v>0.307253257399145</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02067680699358923</v>
+        <v>0.01266839116648876</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.09662302757596049</v>
+        <v>0.07517162043437589</v>
       </c>
       <c r="G79" t="n">
-        <v>0.022297268862104</v>
+        <v>0.007411467492154271</v>
       </c>
       <c r="J79" t="n">
-        <v>0.1162852414301673</v>
+        <v>0.07517162043437589</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02237890225155763</v>
+        <v>0.007411467492154271</v>
       </c>
       <c r="L79" t="n">
-        <v>0.2138667031687894</v>
+        <v>0.2157138271336765</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02240143114102508</v>
+        <v>0.01364256534035496</v>
       </c>
       <c r="N79" t="n">
-        <v>0.3147817144154142</v>
+        <v>0.3134092942167379</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02226733060848071</v>
+        <v>0.0136428827946802</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.09994385584419828</v>
+        <v>0.07596747087348982</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02388993092368286</v>
+        <v>0.007940858027308147</v>
       </c>
       <c r="J80" t="n">
-        <v>0.1177249761204872</v>
+        <v>0.07596747087348982</v>
       </c>
       <c r="K80" t="n">
-        <v>0.02397739526952603</v>
+        <v>0.007940858027308147</v>
       </c>
       <c r="L80" t="n">
-        <v>0.2158070783479317</v>
+        <v>0.2216395698211342</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02400153336538402</v>
+        <v>0.01461703429323745</v>
       </c>
       <c r="N80" t="n">
-        <v>0.3214335914828101</v>
+        <v>0.3224055185263102</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02385785422337218</v>
+        <v>0.01461737442287164</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.09524608456256391</v>
+        <v>0.07674650494827515</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02548259298526172</v>
+        <v>0.008470248562462025</v>
       </c>
       <c r="J81" t="n">
-        <v>0.1192918730482241</v>
+        <v>0.07674650494827515</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02557588828749443</v>
+        <v>0.008470248562462025</v>
       </c>
       <c r="L81" t="n">
-        <v>0.2189092814105595</v>
+        <v>0.2244310185756866</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02560163558974295</v>
+        <v>0.01559150324611995</v>
       </c>
       <c r="N81" t="n">
-        <v>0.3244958156341368</v>
+        <v>0.3277694057832381</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02544837783826366</v>
+        <v>0.01559186605106309</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.09350772408926876</v>
+        <v>0.07750889985881121</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02707525504684058</v>
+        <v>0.008999639097615902</v>
       </c>
       <c r="J82" t="n">
-        <v>0.1214165459563253</v>
+        <v>0.07750889985881121</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02717438130546283</v>
+        <v>0.008999639097615902</v>
       </c>
       <c r="L82" t="n">
-        <v>0.2224258774678631</v>
+        <v>0.2282070190091751</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02720173781410189</v>
+        <v>0.01656597219900245</v>
       </c>
       <c r="N82" t="n">
-        <v>0.3275243863300046</v>
+        <v>0.3308284314428985</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02703890145315514</v>
+        <v>0.01656635767925453</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.1037205968723932</v>
+        <v>0.07825483280517734</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02866791710841943</v>
+        <v>0.009529029632769779</v>
       </c>
       <c r="J83" t="n">
-        <v>0.1234898199520719</v>
+        <v>0.07825483280517734</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02877287432343124</v>
+        <v>0.009529029632769779</v>
       </c>
       <c r="L83" t="n">
-        <v>0.2263512277070151</v>
+        <v>0.2303864167334409</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02880184003846082</v>
+        <v>0.01754044115188494</v>
       </c>
       <c r="N83" t="n">
-        <v>0.3299936808310745</v>
+        <v>0.3376100709606685</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02862942506804662</v>
+        <v>0.01754084930744597</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.1048765253600176</v>
+        <v>0.07898448098745295</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03026057916999829</v>
+        <v>0.01005842016792365</v>
       </c>
       <c r="J84" t="n">
-        <v>0.1240019564075463</v>
+        <v>0.07898448098745295</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03037136734139964</v>
+        <v>0.01005842016792365</v>
       </c>
       <c r="L84" t="n">
-        <v>0.2279674038652885</v>
+        <v>0.2340880573603256</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03040194226281976</v>
+        <v>0.01851491010476744</v>
       </c>
       <c r="N84" t="n">
-        <v>0.3352780763980077</v>
+        <v>0.3419417997919242</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0302199486829381</v>
+        <v>0.01851534093563741</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.1069673320002225</v>
+        <v>0.07969802160571735</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03185324123157715</v>
+        <v>0.01058781070307753</v>
       </c>
       <c r="J85" t="n">
-        <v>0.1250432166948312</v>
+        <v>0.07969802160571735</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03196986035936804</v>
+        <v>0.01058781070307753</v>
       </c>
       <c r="L85" t="n">
-        <v>0.230156477679956</v>
+        <v>0.2372307865016703</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03200204448717869</v>
+        <v>0.01948937905764994</v>
       </c>
       <c r="N85" t="n">
-        <v>0.3391519502914659</v>
+        <v>0.3431510933920426</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03181047229782957</v>
+        <v>0.01948983256382886</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.1009848392410881</v>
+        <v>0.08039563186004994</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03344590329315601</v>
+        <v>0.01111720123823141</v>
       </c>
       <c r="J86" t="n">
-        <v>0.127403862186009</v>
+        <v>0.08039563186004994</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03356835337733644</v>
+        <v>0.01111720123823141</v>
       </c>
       <c r="L86" t="n">
-        <v>0.2338005208882905</v>
+        <v>0.2377334497693166</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03360214671153763</v>
+        <v>0.02046384801053244</v>
       </c>
       <c r="N86" t="n">
-        <v>0.3424896797721099</v>
+        <v>0.3455654272164004</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03340099591272105</v>
+        <v>0.0204643241920203</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.099920869530695</v>
+        <v>0.0810774889505301</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03503856535473487</v>
+        <v>0.01164659177338528</v>
       </c>
       <c r="J87" t="n">
-        <v>0.1282741542531623</v>
+        <v>0.0810774889505301</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03516684639530485</v>
+        <v>0.01164659177338528</v>
       </c>
       <c r="L87" t="n">
-        <v>0.2354816052275646</v>
+        <v>0.2398148927751058</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03520224893589656</v>
+        <v>0.02143831696341493</v>
       </c>
       <c r="N87" t="n">
-        <v>0.3435656421006011</v>
+        <v>0.3490122767203743</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03499151952761254</v>
+        <v>0.02143881582021174</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.1087672453171234</v>
+        <v>0.08174377007723721</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03663122741631372</v>
+        <v>0.01217598230853916</v>
       </c>
       <c r="J88" t="n">
-        <v>0.1293443542683735</v>
+        <v>0.08174377007723721</v>
       </c>
       <c r="K88" t="n">
-        <v>0.03676533941327325</v>
+        <v>0.01217598230853916</v>
       </c>
       <c r="L88" t="n">
-        <v>0.2369818024350512</v>
+        <v>0.2409939611308791</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03680235116025549</v>
+        <v>0.02241278591629743</v>
       </c>
       <c r="N88" t="n">
-        <v>0.3474542145376011</v>
+        <v>0.350919117359341</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03658204314250401</v>
+        <v>0.02241330744840319</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10167,7380 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.1055157890484539</v>
+        <v>0.08239465244025057</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03822388947789258</v>
+        <v>0.01270537284369304</v>
       </c>
       <c r="J89" t="n">
-        <v>0.1307047236037252</v>
+        <v>0.08239465244025057</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03836383243124165</v>
+        <v>0.01270537284369304</v>
       </c>
       <c r="L89" t="n">
-        <v>0.237683184248023</v>
+        <v>0.2424895004484779</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03840245338461443</v>
+        <v>0.02338725486917993</v>
       </c>
       <c r="N89" t="n">
-        <v>0.3478297743437708</v>
+        <v>0.350813424588677</v>
       </c>
       <c r="O89" t="n">
-        <v>0.0381725667573955</v>
+        <v>0.02338779907659463</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.1081583231727669</v>
+        <v>0.08303031323964957</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03981655153947144</v>
+        <v>0.01323476337884691</v>
       </c>
       <c r="J90" t="n">
-        <v>0.1308455236312999</v>
+        <v>0.08303031323964957</v>
       </c>
       <c r="K90" t="n">
-        <v>0.03996232544921005</v>
+        <v>0.01323476337884691</v>
       </c>
       <c r="L90" t="n">
-        <v>0.2389678224037527</v>
+        <v>0.2439203563397439</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04000255560897337</v>
+        <v>0.02436172382206242</v>
       </c>
       <c r="N90" t="n">
-        <v>0.3509666987797716</v>
+        <v>0.3548226738637593</v>
       </c>
       <c r="O90" t="n">
-        <v>0.03976309037228697</v>
+        <v>0.02436229070478607</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.1066866701381427</v>
+        <v>0.08365092967551363</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0414092136010503</v>
+        <v>0.01376415391400079</v>
       </c>
       <c r="J91" t="n">
-        <v>0.1319570157231801</v>
+        <v>0.08365092967551363</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04156081846717846</v>
+        <v>0.01376415391400079</v>
       </c>
       <c r="L91" t="n">
-        <v>0.2415177886395135</v>
+        <v>0.243105374416518</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0416026578333323</v>
+        <v>0.02533619277494492</v>
       </c>
       <c r="N91" t="n">
-        <v>0.3516393651062645</v>
+        <v>0.3537743406399645</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04135361398717845</v>
+        <v>0.02533678233297751</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.1070926523926617</v>
+        <v>0.08425667894792205</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04300187566262915</v>
+        <v>0.01429354444915467</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1323294612514484</v>
+        <v>0.08425667894792205</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04315931148514685</v>
+        <v>0.01429354444915467</v>
       </c>
       <c r="L92" t="n">
-        <v>0.2425151546925777</v>
+        <v>0.2454205126115422</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04320276005769123</v>
+        <v>0.02631066172782741</v>
       </c>
       <c r="N92" t="n">
-        <v>0.352822150583911</v>
+        <v>0.3571256399633753</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04294413760206993</v>
+        <v>0.02631127396116896</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.1063680923844043</v>
+        <v>0.08484773825695424</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04459453772420801</v>
+        <v>0.01482293498430854</v>
       </c>
       <c r="J93" t="n">
-        <v>0.1332531215881872</v>
+        <v>0.08484773825695424</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04475780450311526</v>
+        <v>0.01482293498430854</v>
       </c>
       <c r="L93" t="n">
-        <v>0.2446419923002184</v>
+        <v>0.2446132795739566</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04480286228205017</v>
+        <v>0.02728513068070991</v>
       </c>
       <c r="N93" t="n">
-        <v>0.3571256399633753</v>
+        <v>0.3552148285172499</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04453466121696141</v>
+        <v>0.0272857655893604</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.1135189180255616</v>
+        <v>0.08542428480268949</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04618719978578687</v>
+        <v>0.01535232551946242</v>
       </c>
       <c r="J94" t="n">
-        <v>0.1337153852597091</v>
+        <v>0.08542428480268949</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04635629752108366</v>
+        <v>0.01535232551946242</v>
       </c>
       <c r="L94" t="n">
-        <v>0.2454205126115422</v>
+        <v>0.2449045689288943</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04640296450640911</v>
+        <v>0.02825959963359241</v>
       </c>
       <c r="N94" t="n">
-        <v>0.3568155880353097</v>
+        <v>0.354396215255382</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04612518483185288</v>
+        <v>0.02826025721755184</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.1035072667012373</v>
+        <v>0.08598649578520728</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04777986184736573</v>
+        <v>0.01588171605461629</v>
       </c>
       <c r="J95" t="n">
-        <v>0.1329151321754065</v>
+        <v>0.08598649578520728</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04795479053905206</v>
+        <v>0.01588171605461629</v>
       </c>
       <c r="L95" t="n">
-        <v>0.24521236912832</v>
+        <v>0.2451312503713339</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04800306673076803</v>
+        <v>0.0292340685864749</v>
       </c>
       <c r="N95" t="n">
-        <v>0.3540539718852088</v>
+        <v>0.3538604123634744</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04771570844674437</v>
+        <v>0.02923474884574329</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.111431337396319</v>
+        <v>0.08653454840458691</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04937252390894459</v>
+        <v>0.01641110658977018</v>
       </c>
       <c r="J96" t="n">
-        <v>0.1325768991561685</v>
+        <v>0.08653454840458691</v>
       </c>
       <c r="K96" t="n">
-        <v>0.04955328355702046</v>
+        <v>0.01641110658977018</v>
       </c>
       <c r="L96" t="n">
-        <v>0.2429726982713502</v>
+        <v>0.2433013348033306</v>
       </c>
       <c r="M96" t="n">
-        <v>0.04960316895512697</v>
+        <v>0.0302085375393574</v>
       </c>
       <c r="N96" t="n">
-        <v>0.3537666154983196</v>
+        <v>0.355320701156289</v>
       </c>
       <c r="O96" t="n">
-        <v>0.04930623206163585</v>
+        <v>0.03020924047393472</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.1072884124685767</v>
+        <v>0.08706861986090775</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05096518597052344</v>
+        <v>0.01694049712492405</v>
       </c>
       <c r="J97" t="n">
-        <v>0.1328558980899811</v>
+        <v>0.08706861986090775</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05115177657498887</v>
+        <v>0.01694049712492405</v>
       </c>
       <c r="L97" t="n">
-        <v>0.2445753314927745</v>
+        <v>0.2438180299434711</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05120327117948591</v>
+        <v>0.0311830064922399</v>
       </c>
       <c r="N97" t="n">
-        <v>0.3549721095580718</v>
+        <v>0.3541842312837938</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05089675567652732</v>
+        <v>0.03118373210212617</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.1080828017236995</v>
+        <v>0.08758888735424916</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0525578480321023</v>
+        <v>0.01746988766007793</v>
       </c>
       <c r="J98" t="n">
-        <v>0.1329573903044942</v>
+        <v>0.08758888735424916</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05275026959295726</v>
+        <v>0.01746988766007793</v>
       </c>
       <c r="L98" t="n">
-        <v>0.2429338358158159</v>
+        <v>0.2435845435103419</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05280337340384484</v>
+        <v>0.0321574754451224</v>
       </c>
       <c r="N98" t="n">
-        <v>0.3523839579870159</v>
+        <v>0.3556581523959574</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0524872792914188</v>
+        <v>0.03215822373031761</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.1028188149673766</v>
+        <v>0.08809552808469051</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05415051009368116</v>
+        <v>0.0179992781952318</v>
       </c>
       <c r="J99" t="n">
-        <v>0.1328865083374666</v>
+        <v>0.08809552808469051</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05434876261092567</v>
+        <v>0.0179992781952318</v>
       </c>
       <c r="L99" t="n">
-        <v>0.2440576599519541</v>
+        <v>0.2421040832225294</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05440347562820377</v>
+        <v>0.0331319443980049</v>
       </c>
       <c r="N99" t="n">
-        <v>0.3520156647077022</v>
+        <v>0.3541496141427479</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05407780290631028</v>
+        <v>0.03313271535850906</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.1095007620052971</v>
+        <v>0.08858871925231121</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05574317215526001</v>
+        <v>0.01852866873038568</v>
       </c>
       <c r="J100" t="n">
-        <v>0.1323483847266573</v>
+        <v>0.08858871925231121</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05594725562889407</v>
+        <v>0.01852866873038568</v>
       </c>
       <c r="L100" t="n">
-        <v>0.2421562526126687</v>
+        <v>0.2425798567986203</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05600357785256271</v>
+        <v>0.03410641335088739</v>
       </c>
       <c r="N100" t="n">
-        <v>0.3511807336426811</v>
+        <v>0.3539657661741338</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05566832652120177</v>
+        <v>0.0341072069867005</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.1091329526431502</v>
+        <v>0.08906863805719054</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05733583421683887</v>
+        <v>0.01905805926553956</v>
       </c>
       <c r="J101" t="n">
-        <v>0.1316481520098253</v>
+        <v>0.08906863805719054</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05754574864686247</v>
+        <v>0.01905805926553956</v>
       </c>
       <c r="L101" t="n">
-        <v>0.2411390625094393</v>
+        <v>0.2418150719572011</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05760368007692165</v>
+        <v>0.03508088230376988</v>
       </c>
       <c r="N101" t="n">
-        <v>0.3501926687145031</v>
+        <v>0.3521137581400832</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05725885013609324</v>
+        <v>0.03508169861489194</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.1087196966866251</v>
+        <v>0.08953546169940796</v>
       </c>
       <c r="G102" t="n">
-        <v>0.05892849627841773</v>
+        <v>0.01958744980069343</v>
       </c>
       <c r="J102" t="n">
-        <v>0.1312909427247296</v>
+        <v>0.08953546169940796</v>
       </c>
       <c r="K102" t="n">
-        <v>0.05914424166483088</v>
+        <v>0.01958744980069343</v>
       </c>
       <c r="L102" t="n">
-        <v>0.2420155383537458</v>
+        <v>0.2416129364168582</v>
       </c>
       <c r="M102" t="n">
-        <v>0.05920378230128057</v>
+        <v>0.03605535125665239</v>
       </c>
       <c r="N102" t="n">
-        <v>0.3505649738457181</v>
+        <v>0.3509007396905645</v>
       </c>
       <c r="O102" t="n">
-        <v>0.05884937375098472</v>
+        <v>0.03605619024308338</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.1042653039414108</v>
+        <v>0.08998936737904273</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06052115833999658</v>
+        <v>0.02011684033584731</v>
       </c>
       <c r="J103" t="n">
-        <v>0.1309818894091291</v>
+        <v>0.08998936737904273</v>
       </c>
       <c r="K103" t="n">
-        <v>0.06074273468279928</v>
+        <v>0.02011684033584731</v>
       </c>
       <c r="L103" t="n">
-        <v>0.2407951288570677</v>
+        <v>0.2425766578961783</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06080388452563951</v>
+        <v>0.03702982020953488</v>
       </c>
       <c r="N103" t="n">
-        <v>0.348111152958877</v>
+        <v>0.3512338604755459</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0604398973658762</v>
+        <v>0.03703068187127483</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.1067740842131965</v>
+        <v>0.09043053229617432</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06211382040157544</v>
+        <v>0.02064623087100119</v>
       </c>
       <c r="J104" t="n">
-        <v>0.1301261246007828</v>
+        <v>0.09043053229617432</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06234122770076769</v>
+        <v>0.02064623087100119</v>
       </c>
       <c r="L104" t="n">
-        <v>0.2382872827308847</v>
+        <v>0.2408094441137478</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06240398674999845</v>
+        <v>0.03800428916241737</v>
       </c>
       <c r="N104" t="n">
-        <v>0.3457447099765297</v>
+        <v>0.3490202701449958</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06203042098076768</v>
+        <v>0.03800517349946627</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.1052503473076714</v>
+        <v>0.090859133650882</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0637064824631543</v>
+        <v>0.02117562140615506</v>
       </c>
       <c r="J105" t="n">
-        <v>0.1302287808374497</v>
+        <v>0.090859133650882</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06393972071873608</v>
+        <v>0.02117562140615506</v>
       </c>
       <c r="L105" t="n">
-        <v>0.2372014486866765</v>
+        <v>0.2396145027881533</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06400408897435739</v>
+        <v>0.03897875811529988</v>
       </c>
       <c r="N105" t="n">
-        <v>0.3434791488212269</v>
+        <v>0.3484671183488826</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06362094459565915</v>
+        <v>0.03897966512765771</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.1076984030305246</v>
+        <v>0.09127534864324524</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06529914452473316</v>
+        <v>0.02170501194130894</v>
       </c>
       <c r="J106" t="n">
-        <v>0.1291949906568887</v>
+        <v>0.09127534864324524</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06553821373670447</v>
+        <v>0.02170501194130894</v>
       </c>
       <c r="L106" t="n">
-        <v>0.2367470754359227</v>
+        <v>0.2407950416379813</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06560419119871631</v>
+        <v>0.03995322706818237</v>
       </c>
       <c r="N106" t="n">
-        <v>0.3437279734155186</v>
+        <v>0.3476815547371743</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06521146821055064</v>
+        <v>0.03995415675584915</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.1071225611874453</v>
+        <v>0.09167935447334336</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06689180658631202</v>
+        <v>0.02223440247646281</v>
       </c>
       <c r="J107" t="n">
-        <v>0.1279298865968588</v>
+        <v>0.09167935447334336</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06713670675467288</v>
+        <v>0.02223440247646281</v>
       </c>
       <c r="L107" t="n">
-        <v>0.2360336116901031</v>
+        <v>0.2387542683818184</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06720429342307525</v>
+        <v>0.04092769602106487</v>
       </c>
       <c r="N107" t="n">
-        <v>0.3428046876819556</v>
+        <v>0.3480707289598395</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06680199182544211</v>
+        <v>0.0409286483840406</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.1005271315841226</v>
+        <v>0.09207132834125567</v>
       </c>
       <c r="G108" t="n">
-        <v>0.06848446864789087</v>
+        <v>0.02276379301161669</v>
       </c>
       <c r="J108" t="n">
-        <v>0.127538601195119</v>
+        <v>0.09207132834125567</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06873519977264128</v>
+        <v>0.02276379301161669</v>
       </c>
       <c r="L108" t="n">
-        <v>0.2331705061606973</v>
+        <v>0.238495390738251</v>
       </c>
       <c r="M108" t="n">
-        <v>0.06880439564743419</v>
+        <v>0.04190216497394737</v>
       </c>
       <c r="N108" t="n">
-        <v>0.3397227955430879</v>
+        <v>0.3461417906668462</v>
       </c>
       <c r="O108" t="n">
-        <v>0.06839251544033359</v>
+        <v>0.04190314001223204</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.1059164240262457</v>
+        <v>0.0924514474470616</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07007713070946973</v>
+        <v>0.02329318354677057</v>
       </c>
       <c r="J109" t="n">
-        <v>0.1270262669894283</v>
+        <v>0.0924514474470616</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07033369279060969</v>
+        <v>0.02329318354677057</v>
       </c>
       <c r="L109" t="n">
-        <v>0.2329672075591851</v>
+        <v>0.2392216164258658</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07040449787179312</v>
+        <v>0.04287663392682986</v>
       </c>
       <c r="N109" t="n">
-        <v>0.3382958009214659</v>
+        <v>0.347401889508163</v>
       </c>
       <c r="O109" t="n">
-        <v>0.06998303905522507</v>
+        <v>0.04287763164042348</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.0962947483195037</v>
+        <v>0.09281988899084048</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0716697927710486</v>
+        <v>0.02382257408192444</v>
       </c>
       <c r="J110" t="n">
-        <v>0.1254980165175456</v>
+        <v>0.09281988899084048</v>
       </c>
       <c r="K110" t="n">
-        <v>0.07193218580857809</v>
+        <v>0.02382257408192444</v>
       </c>
       <c r="L110" t="n">
-        <v>0.232133164597046</v>
+        <v>0.2376361531632492</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07200460009615206</v>
+        <v>0.04385110287971236</v>
       </c>
       <c r="N110" t="n">
-        <v>0.3371372077396401</v>
+        <v>0.3435581751337579</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07157356267011655</v>
+        <v>0.04385212326861493</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.1036664142695858</v>
+        <v>0.09317683017267173</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07326245483262744</v>
+        <v>0.02435196461707832</v>
       </c>
       <c r="J111" t="n">
-        <v>0.12585898231723</v>
+        <v>0.09317683017267173</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0735306788265465</v>
+        <v>0.02435196461707832</v>
       </c>
       <c r="L111" t="n">
-        <v>0.2303778259857597</v>
+        <v>0.2382422086689877</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07360470232051099</v>
+        <v>0.04482557183259486</v>
       </c>
       <c r="N111" t="n">
-        <v>0.3349605199201607</v>
+        <v>0.3433177971935996</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07316408628500802</v>
+        <v>0.04482661489680637</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.1010357316821811</v>
+        <v>0.09352244819263469</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07485511689420631</v>
+        <v>0.0248813551522322</v>
       </c>
       <c r="J112" t="n">
-        <v>0.1244142969262403</v>
+        <v>0.09352244819263469</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07512917184451488</v>
+        <v>0.0248813551522322</v>
       </c>
       <c r="L112" t="n">
-        <v>0.228110640436806</v>
+        <v>0.2378429906616679</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07520480454486993</v>
+        <v>0.04580004078547735</v>
       </c>
       <c r="N112" t="n">
-        <v>0.330579241385578</v>
+        <v>0.341587905337656</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0747546098998995</v>
+        <v>0.04580110652499781</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.09940701036297871</v>
+        <v>0.09385692025080872</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07644777895578517</v>
+        <v>0.02541074568738608</v>
       </c>
       <c r="J113" t="n">
-        <v>0.1234690928823355</v>
+        <v>0.09385692025080872</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07672766486248329</v>
+        <v>0.02541074568738608</v>
       </c>
       <c r="L113" t="n">
-        <v>0.2283410566616644</v>
+        <v>0.2358417068598764</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07680490676922887</v>
+        <v>0.04677450973835985</v>
       </c>
       <c r="N113" t="n">
-        <v>0.3294068760584425</v>
+        <v>0.3436756492158956</v>
       </c>
       <c r="O113" t="n">
-        <v>0.076345133514791</v>
+        <v>0.04677559815318925</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.1027845601176679</v>
+        <v>0.09418042354727313</v>
       </c>
       <c r="G114" t="n">
-        <v>0.07804044101736402</v>
+        <v>0.02594013622253995</v>
       </c>
       <c r="J114" t="n">
-        <v>0.1225285027232747</v>
+        <v>0.09418042354727313</v>
       </c>
       <c r="K114" t="n">
-        <v>0.07832615788045169</v>
+        <v>0.02594013622253995</v>
       </c>
       <c r="L114" t="n">
-        <v>0.2250785233718146</v>
+        <v>0.2353415649821996</v>
       </c>
       <c r="M114" t="n">
-        <v>0.07840500899358779</v>
+        <v>0.04774897869124235</v>
       </c>
       <c r="N114" t="n">
-        <v>0.3275569199043287</v>
+        <v>0.3420881784782865</v>
       </c>
       <c r="O114" t="n">
-        <v>0.07793565712968246</v>
+        <v>0.0477500897813807</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.09713662341177694</v>
+        <v>0.09449313528210737</v>
       </c>
       <c r="G115" t="n">
-        <v>0.07963310307894288</v>
+        <v>0.02646952675769383</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1225931681332205</v>
+        <v>0.09449313528210737</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0799246508984201</v>
+        <v>0.02646952675769383</v>
       </c>
       <c r="L115" t="n">
-        <v>0.2239310260940818</v>
+        <v>0.2339457727472241</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08000511121794673</v>
+        <v>0.04872344764412485</v>
       </c>
       <c r="N115" t="n">
-        <v>0.3257670833445122</v>
+        <v>0.3392326427747973</v>
       </c>
       <c r="O115" t="n">
-        <v>0.07952618074457395</v>
+        <v>0.04872458140957214</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.09739973084877281</v>
+        <v>0.09479523265539075</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08122576514052174</v>
+        <v>0.02699891729284771</v>
       </c>
       <c r="J116" t="n">
-        <v>0.1211785126967537</v>
+        <v>0.09479523265539075</v>
       </c>
       <c r="K116" t="n">
-        <v>0.0815231439163885</v>
+        <v>0.02699891729284771</v>
       </c>
       <c r="L116" t="n">
-        <v>0.2241645503096018</v>
+        <v>0.2345575378735364</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08160521344230566</v>
+        <v>0.04969791659700734</v>
       </c>
       <c r="N116" t="n">
-        <v>0.3246001495553867</v>
+        <v>0.3402161917553962</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08111670435946543</v>
+        <v>0.04969907303776358</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.09258575349804148</v>
+        <v>0.09508689286720273</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0828184272021006</v>
+        <v>0.02752830782800158</v>
       </c>
       <c r="J117" t="n">
-        <v>0.1200633640630354</v>
+        <v>0.09508689286720273</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08312163693435691</v>
+        <v>0.02752830782800158</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2213086761842816</v>
+        <v>0.2340800680797231</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0832053156666646</v>
+        <v>0.05067238554988984</v>
       </c>
       <c r="N117" t="n">
-        <v>0.320800115930816</v>
+        <v>0.3380459750700514</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08270722797435691</v>
+        <v>0.05067356466595502</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.09170873322169197</v>
+        <v>0.09536829311762252</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08441108926367945</v>
+        <v>0.02805769836315546</v>
       </c>
       <c r="J118" t="n">
-        <v>0.1202644446536034</v>
+        <v>0.09536829311762252</v>
       </c>
       <c r="K118" t="n">
-        <v>0.08472012995232531</v>
+        <v>0.02805769836315546</v>
       </c>
       <c r="L118" t="n">
-        <v>0.2191941887495757</v>
+        <v>0.2341165710843706</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08480541789102354</v>
+        <v>0.05164685450277234</v>
       </c>
       <c r="N118" t="n">
-        <v>0.3175109798646633</v>
+        <v>0.3379291423687312</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08429775158924838</v>
+        <v>0.05164805629414646</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.08978271188183302</v>
+        <v>0.09563961060672962</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08600375132525831</v>
+        <v>0.02858708889830933</v>
       </c>
       <c r="J119" t="n">
-        <v>0.1189984768899955</v>
+        <v>0.09563961060672962</v>
       </c>
       <c r="K119" t="n">
-        <v>0.0863186229702937</v>
+        <v>0.02858708889830933</v>
       </c>
       <c r="L119" t="n">
-        <v>0.217851873036939</v>
+        <v>0.2329702546060656</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08640552011538247</v>
+        <v>0.05262132345565482</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3129767387507922</v>
+        <v>0.337472843301404</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08588827520413986</v>
+        <v>0.05262254792233791</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.09882173134057352</v>
+        <v>0.09590102253460334</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08759641338683717</v>
+        <v>0.02911647943346321</v>
       </c>
       <c r="J120" t="n">
-        <v>0.1181821831937493</v>
+        <v>0.09590102253460334</v>
       </c>
       <c r="K120" t="n">
-        <v>0.0879171159882621</v>
+        <v>0.02911647943346321</v>
       </c>
       <c r="L120" t="n">
-        <v>0.2148125140778259</v>
+        <v>0.2331443263633945</v>
       </c>
       <c r="M120" t="n">
-        <v>0.08800562233974139</v>
+        <v>0.05359579240853733</v>
       </c>
       <c r="N120" t="n">
-        <v>0.311441389983066</v>
+        <v>0.336284227518038</v>
       </c>
       <c r="O120" t="n">
-        <v>0.08747879881903134</v>
+        <v>0.05359703955052936</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.08783983346002223</v>
+        <v>0.09615270610132304</v>
       </c>
       <c r="G121" t="n">
-        <v>0.08918907544841602</v>
+        <v>0.02964586996861708</v>
       </c>
       <c r="J121" t="n">
-        <v>0.1170322859864027</v>
+        <v>0.09615270610132304</v>
       </c>
       <c r="K121" t="n">
-        <v>0.08951560900623051</v>
+        <v>0.02964586996861708</v>
       </c>
       <c r="L121" t="n">
-        <v>0.2150068969036912</v>
+        <v>0.2316419940749438</v>
       </c>
       <c r="M121" t="n">
-        <v>0.08960572456410033</v>
+        <v>0.05457026136141983</v>
       </c>
       <c r="N121" t="n">
-        <v>0.3098489309553483</v>
+        <v>0.3343704446686016</v>
       </c>
       <c r="O121" t="n">
-        <v>0.08906932243392282</v>
+        <v>0.05457153117872079</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0958510601022881</v>
+        <v>0.09639483850696812</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09078173750999488</v>
+        <v>0.03017526050377096</v>
       </c>
       <c r="J122" t="n">
-        <v>0.1145655076894935</v>
+        <v>0.09639483850696812</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09111410202419891</v>
+        <v>0.03017526050377096</v>
       </c>
       <c r="L122" t="n">
-        <v>0.2126658065459893</v>
+        <v>0.2303603544235061</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09120582678845927</v>
+        <v>0.05554473031430232</v>
       </c>
       <c r="N122" t="n">
-        <v>0.3059433590615024</v>
+        <v>0.336831168651353</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09065984604881429</v>
+        <v>0.05554602280691225</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.09186945312947987</v>
+        <v>0.09662759695161791</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09237439957157374</v>
+        <v>0.03070465103892484</v>
       </c>
       <c r="J123" t="n">
-        <v>0.1139985707245595</v>
+        <v>0.09662759695161791</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09271259504216732</v>
+        <v>0.03070465103892484</v>
       </c>
       <c r="L123" t="n">
-        <v>0.210020028036175</v>
+        <v>0.2302599364631048</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09280592901281821</v>
+        <v>0.05651919926718482</v>
       </c>
       <c r="N123" t="n">
-        <v>0.3014686716953919</v>
+        <v>0.3340177917259634</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09225036966370577</v>
+        <v>0.05652051443510368</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.08490905440370643</v>
+        <v>0.09685115863535179</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09396706163315259</v>
+        <v>0.03123404157407871</v>
       </c>
       <c r="J124" t="n">
-        <v>0.1128481975131384</v>
+        <v>0.09685115863535179</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09431108806013572</v>
+        <v>0.03123404157407871</v>
       </c>
       <c r="L124" t="n">
-        <v>0.2070003464057029</v>
+        <v>0.2294356599167814</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09440603123717714</v>
+        <v>0.05749366822006732</v>
       </c>
       <c r="N124" t="n">
-        <v>0.2984688662508803</v>
+        <v>0.3355195241735762</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09384089327859725</v>
+        <v>0.05749500606329512</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.08498390578707661</v>
+        <v>0.09706570075824913</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09555972369473145</v>
+        <v>0.03176343210923259</v>
       </c>
       <c r="J125" t="n">
-        <v>0.1118311104767681</v>
+        <v>0.09706570075824913</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09590958107810413</v>
+        <v>0.03176343210923259</v>
       </c>
       <c r="L125" t="n">
-        <v>0.2062375466860275</v>
+        <v>0.229690648618889</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09600613346153607</v>
+        <v>0.0584681371729498</v>
       </c>
       <c r="N125" t="n">
-        <v>0.2977879401218311</v>
+        <v>0.3333354991521393</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09543141689348873</v>
+        <v>0.05846949769148657</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.09109308436449869</v>
+        <v>0.09727140052038932</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09715238575631031</v>
+        <v>0.03229282264438647</v>
       </c>
       <c r="J126" t="n">
-        <v>0.1109640320369862</v>
+        <v>0.09727140052038932</v>
       </c>
       <c r="K126" t="n">
-        <v>0.09750807409607251</v>
+        <v>0.03229282264438647</v>
       </c>
       <c r="L126" t="n">
-        <v>0.2038624139086035</v>
+        <v>0.22922802640378</v>
       </c>
       <c r="M126" t="n">
-        <v>0.09760623568589501</v>
+        <v>0.0594426061258323</v>
       </c>
       <c r="N126" t="n">
-        <v>0.2936743454833091</v>
+        <v>0.3357648498195998</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0970219405083802</v>
+        <v>0.05944398931967801</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.09313457611715086</v>
+        <v>0.09746843512185169</v>
       </c>
       <c r="G127" t="n">
-        <v>0.09874504781788918</v>
+        <v>0.03282221317954035</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1100829697835279</v>
+        <v>0.09746843512185169</v>
       </c>
       <c r="K127" t="n">
-        <v>0.09910656711404092</v>
+        <v>0.03282221317954035</v>
       </c>
       <c r="L127" t="n">
-        <v>0.2008980924794253</v>
+        <v>0.2287509171058075</v>
       </c>
       <c r="M127" t="n">
-        <v>0.09920633791025395</v>
+        <v>0.0604170750787148</v>
       </c>
       <c r="N127" t="n">
-        <v>0.2908157365779254</v>
+        <v>0.3342067093339045</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0986124641232717</v>
+        <v>0.06041848094786945</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0891028441992049</v>
+        <v>0.09765698176271559</v>
       </c>
       <c r="G128" t="n">
-        <v>0.100337709879468</v>
+        <v>0.03335160371469422</v>
       </c>
       <c r="J128" t="n">
-        <v>0.108003528401395</v>
+        <v>0.09765698176271559</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1007050601320093</v>
+        <v>0.03335160371469422</v>
       </c>
       <c r="L128" t="n">
-        <v>0.199253525201619</v>
+        <v>0.2271624445593243</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1008064401346129</v>
+        <v>0.0613915440315973</v>
       </c>
       <c r="N128" t="n">
-        <v>0.2885389883827778</v>
+        <v>0.3317602108530011</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1002029877381632</v>
+        <v>0.0613929725760609</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.08901798954038322</v>
+        <v>0.09783721764306039</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1019303719410469</v>
+        <v>0.0338809942498481</v>
       </c>
       <c r="J129" t="n">
-        <v>0.1078491783586855</v>
+        <v>0.09783721764306039</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1023035531499777</v>
+        <v>0.0338809942498481</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1961651665523161</v>
+        <v>0.2278657325986834</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1024065423589718</v>
+        <v>0.0623660129844798</v>
       </c>
       <c r="N129" t="n">
-        <v>0.282807083180071</v>
+        <v>0.3345244875348367</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1017935113530546</v>
+        <v>0.06236746420425234</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.08190011307040813</v>
+        <v>0.09800931996296552</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1035230340026257</v>
+        <v>0.03441038478500198</v>
       </c>
       <c r="J130" t="n">
-        <v>0.1055438578067295</v>
+        <v>0.09800931996296552</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1039020461679461</v>
+        <v>0.03441038478500198</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1939770853130626</v>
+        <v>0.2256639050582374</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1040066445833307</v>
+        <v>0.0633404819373623</v>
       </c>
       <c r="N130" t="n">
-        <v>0.2800830032520093</v>
+        <v>0.3315986725373582</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1033840349679461</v>
+        <v>0.06334195583244377</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.07776931571900214</v>
+        <v>0.09817346592251028</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1051156960642046</v>
+        <v>0.03493977532015585</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1040115048968573</v>
+        <v>0.09817346592251028</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1055005391859145</v>
+        <v>0.03493977532015585</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1910333502654043</v>
+        <v>0.2254600857723392</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1056067468076897</v>
+        <v>0.06431495089024479</v>
       </c>
       <c r="N131" t="n">
-        <v>0.2759297308807976</v>
+        <v>0.3329818990185134</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1049745585828376</v>
+        <v>0.06431644746063522</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.08164569841588755</v>
+        <v>0.09832983272177409</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1067083581257835</v>
+        <v>0.03546916585530973</v>
       </c>
       <c r="J132" t="n">
-        <v>0.103776057780399</v>
+        <v>0.09832983272177409</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1070990322038829</v>
+        <v>0.03546916585530973</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1895780301908869</v>
+        <v>0.2261573985753419</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1072068490320486</v>
+        <v>0.06528941984312729</v>
       </c>
       <c r="N132" t="n">
-        <v>0.2742102483486404</v>
+        <v>0.3322733001362491</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1065650821977291</v>
+        <v>0.06529093908882666</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.08054936209078674</v>
+        <v>0.09847859756083627</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1083010201873623</v>
+        <v>0.03599855639046361</v>
       </c>
       <c r="J133" t="n">
-        <v>0.1016614546086849</v>
+        <v>0.09847859756083627</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1086975252218513</v>
+        <v>0.03599855639046361</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1878551938710564</v>
+        <v>0.2251589673015982</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1088069512564075</v>
+        <v>0.06626388879600979</v>
       </c>
       <c r="N133" t="n">
-        <v>0.2692875379377424</v>
+        <v>0.3313720090485125</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1081556058126206</v>
+        <v>0.06626543071701811</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.08550040767342211</v>
+        <v>0.09861993763977617</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1098936822489412</v>
+        <v>0.03652794692561748</v>
       </c>
       <c r="J134" t="n">
-        <v>0.1006916335330452</v>
+        <v>0.09861993763977617</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1102960182398197</v>
+        <v>0.03652794692561748</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1841089100874584</v>
+        <v>0.2244679157854609</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1104070534807665</v>
+        <v>0.06723835774889228</v>
       </c>
       <c r="N134" t="n">
-        <v>0.2664245819303083</v>
+        <v>0.3300771589132512</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1097461294275121</v>
+        <v>0.06723992234520955</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.08051893609351603</v>
+        <v>0.09875403015867321</v>
       </c>
       <c r="G135" t="n">
-        <v>0.11148634431052</v>
+        <v>0.03705733746077135</v>
       </c>
       <c r="J135" t="n">
-        <v>0.09889053270480994</v>
+        <v>0.09875403015867321</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1118945112577881</v>
+        <v>0.03705733746077135</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1826832476216387</v>
+        <v>0.2245873678612829</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1120071557051254</v>
+        <v>0.06821282670177478</v>
       </c>
       <c r="N135" t="n">
-        <v>0.2650843626085425</v>
+        <v>0.3306878828884121</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1113366530424035</v>
+        <v>0.068214413973401</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.07962504828079088</v>
+        <v>0.09888105231760674</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1130790063720989</v>
+        <v>0.03758672799592524</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0985820902753094</v>
+        <v>0.09888105231760674</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1134930042757565</v>
+        <v>0.03758672799592524</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1799222752551434</v>
+        <v>0.2228204473634171</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1136072579294844</v>
+        <v>0.06918729565465727</v>
       </c>
       <c r="N136" t="n">
-        <v>0.2606298622546498</v>
+        <v>0.3298033141319424</v>
       </c>
       <c r="O136" t="n">
-        <v>0.112927176657295</v>
+        <v>0.06918890560159244</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.07383884516496908</v>
+        <v>0.09900118131665606</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1146716684336777</v>
+        <v>0.03811611853107912</v>
       </c>
       <c r="J137" t="n">
-        <v>0.09689024439587379</v>
+        <v>0.09900118131665606</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1150914972937249</v>
+        <v>0.03811611853107912</v>
       </c>
       <c r="L137" t="n">
-        <v>0.178470061769518</v>
+        <v>0.2221702781262164</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1152073601538433</v>
+        <v>0.07016176460753977</v>
       </c>
       <c r="N137" t="n">
-        <v>0.2584240631508347</v>
+        <v>0.3322225858017894</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1145177002721865</v>
+        <v>0.07016339722978389</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.07118042767577296</v>
+        <v>0.09911459435590067</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1162643304952566</v>
+        <v>0.03864550906623299</v>
       </c>
       <c r="J138" t="n">
-        <v>0.09683893321783327</v>
+        <v>0.09911459435590067</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1166899903116933</v>
+        <v>0.03864550906623299</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1779706759463085</v>
+        <v>0.2231399839840335</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1168074623782022</v>
+        <v>0.07113623356042227</v>
       </c>
       <c r="N138" t="n">
-        <v>0.2569299475793022</v>
+        <v>0.3310448310559005</v>
       </c>
       <c r="O138" t="n">
-        <v>0.116108223887078</v>
+        <v>0.07113788885797533</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.07566989674292492</v>
+        <v>0.09922146863541981</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1178569925568355</v>
+        <v>0.03917489960138686</v>
       </c>
       <c r="J139" t="n">
-        <v>0.09625209489251801</v>
+        <v>0.09922146863541981</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1182884833296618</v>
+        <v>0.03917489960138686</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1761681865670606</v>
+        <v>0.2220326887712213</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1184075646025611</v>
+        <v>0.07211070251330477</v>
       </c>
       <c r="N139" t="n">
-        <v>0.2566104978222564</v>
+        <v>0.3303691830522228</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1176987475019694</v>
+        <v>0.07211238048616676</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.07432735329614733</v>
+        <v>0.09932198135529291</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1194496546184143</v>
+        <v>0.03970429013654074</v>
       </c>
       <c r="J140" t="n">
-        <v>0.09515366757125826</v>
+        <v>0.09932198135529291</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1198869763476302</v>
+        <v>0.03970429013654074</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1743066624133201</v>
+        <v>0.2203515163221328</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1200076668269201</v>
+        <v>0.07308517146618727</v>
       </c>
       <c r="N140" t="n">
-        <v>0.2525286961619023</v>
+        <v>0.3315947749487033</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1192892711168609</v>
+        <v>0.07308687211435821</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.07817289826516256</v>
+        <v>0.09941630971559934</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1210423166799932</v>
+        <v>0.04023368067169462</v>
       </c>
       <c r="J141" t="n">
-        <v>0.09446758940538413</v>
+        <v>0.09941630971559934</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1214854693655986</v>
+        <v>0.04023368067169462</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1747301722666329</v>
+        <v>0.2205995904711207</v>
       </c>
       <c r="M141" t="n">
-        <v>0.121607769051279</v>
+        <v>0.07405964041906976</v>
       </c>
       <c r="N141" t="n">
-        <v>0.2521475248804443</v>
+        <v>0.3286207399032893</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1208797947317524</v>
+        <v>0.07406136374254965</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.07217455998067374</v>
+        <v>0.0995046309164184</v>
       </c>
       <c r="G142" t="n">
-        <v>0.122634978741572</v>
+        <v>0.04076307120684849</v>
       </c>
       <c r="J142" t="n">
-        <v>0.09490812492686299</v>
+        <v>0.0995046309164184</v>
       </c>
       <c r="K142" t="n">
-        <v>0.123083962383567</v>
+        <v>0.04076307120684849</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1736766959722145</v>
+        <v>0.2201800350525379</v>
       </c>
       <c r="M142" t="n">
-        <v>0.123207871275638</v>
+        <v>0.07503410937195225</v>
       </c>
       <c r="N142" t="n">
-        <v>0.2548846748781647</v>
+        <v>0.3304462110739284</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1224703183466439</v>
+        <v>0.07503585537074109</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0802120838225248</v>
+        <v>0.09958712215782953</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1242276408031509</v>
+        <v>0.04129246174200237</v>
       </c>
       <c r="J143" t="n">
-        <v>0.09503692267372069</v>
+        <v>0.09958712215782953</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1246824554015354</v>
+        <v>0.04129246174200237</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1737216012005675</v>
+        <v>0.2201959739007374</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1248079734999969</v>
+        <v>0.07600857832483475</v>
       </c>
       <c r="N143" t="n">
-        <v>0.2536175032598619</v>
+        <v>0.3299703216185672</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1240608419615354</v>
+        <v>0.07601034699893254</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.07027813511903919</v>
+        <v>0.09966396063991206</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1258203028647297</v>
+        <v>0.04182185227715625</v>
       </c>
       <c r="J144" t="n">
-        <v>0.09440034614991674</v>
+        <v>0.09966396063991206</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1262809484195037</v>
+        <v>0.04182185227715625</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1735305803763568</v>
+        <v>0.2188505308500718</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1264080757243558</v>
+        <v>0.07698304727771725</v>
       </c>
       <c r="N144" t="n">
-        <v>0.2522390840626412</v>
+        <v>0.3278922046951536</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1256513655764268</v>
+        <v>0.07698483862712398</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.08037123686122304</v>
+        <v>0.09973532356274539</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1274129649263086</v>
+        <v>0.04235124281231012</v>
       </c>
       <c r="J145" t="n">
-        <v>0.09529663638881133</v>
+        <v>0.09973532356274539</v>
       </c>
       <c r="K145" t="n">
-        <v>0.1278794414374722</v>
+        <v>0.04235124281231012</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1757003953415673</v>
+        <v>0.2194468297348941</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1280081779487148</v>
+        <v>0.07795751623059975</v>
       </c>
       <c r="N145" t="n">
-        <v>0.2535447893713484</v>
+        <v>0.3292109934616344</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1272418891913183</v>
+        <v>0.07795933025531543</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.07548991204008244</v>
+        <v>0.09980138812640882</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1290056269878875</v>
+        <v>0.042880633347464</v>
       </c>
       <c r="J146" t="n">
-        <v>0.09472403442376456</v>
+        <v>0.09980138812640882</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1294779344554406</v>
+        <v>0.042880633347464</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1740278079381837</v>
+        <v>0.2189879943895572</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1296082801730737</v>
+        <v>0.07893198518348225</v>
       </c>
       <c r="N146" t="n">
-        <v>0.2553299912708296</v>
+        <v>0.3284258210759569</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1288324128062098</v>
+        <v>0.07893382188350687</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.08063268364662361</v>
+        <v>0.09986233153098178</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1305982890494663</v>
+        <v>0.04341002388261788</v>
       </c>
       <c r="J147" t="n">
-        <v>0.09558078128813666</v>
+        <v>0.09986233153098178</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1310764274734089</v>
+        <v>0.04341002388261788</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1739095800081911</v>
+        <v>0.217676969529681</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1312083823974326</v>
+        <v>0.07990645413636474</v>
       </c>
       <c r="N147" t="n">
-        <v>0.2549900618459309</v>
+        <v>0.3278358882117319</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1304229364211013</v>
+        <v>0.0799083135116983</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.08079807467185258</v>
+        <v>0.0999183309765436</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1321909511110452</v>
+        <v>0.04393941441777175</v>
       </c>
       <c r="J148" t="n">
-        <v>0.09546511801528773</v>
+        <v>0.0999183309765436</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1326749204913774</v>
+        <v>0.04393941441777175</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1763424733935741</v>
+        <v>0.2194926892730297</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1328084846217916</v>
+        <v>0.08088092308924724</v>
       </c>
       <c r="N148" t="n">
-        <v>0.2548203731814982</v>
+        <v>0.3263496969406487</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1320134600359928</v>
+        <v>0.08088280513988975</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.07498460810677553</v>
+        <v>0.09996956366317367</v>
       </c>
       <c r="G149" t="n">
-        <v>0.133783613172624</v>
+        <v>0.04446880495292563</v>
       </c>
       <c r="J149" t="n">
-        <v>0.09637528563857797</v>
+        <v>0.09996956366317367</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1342734135093458</v>
+        <v>0.04446880495292563</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1746232499363177</v>
+        <v>0.2182187043298091</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1344085868461505</v>
+        <v>0.08185539204212974</v>
       </c>
       <c r="N149" t="n">
-        <v>0.2563162973623775</v>
+        <v>0.3283731073691261</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1336039836508842</v>
+        <v>0.08185729676808119</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.08019080694239857</v>
+        <v>0.1000162067909513</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1353762752342029</v>
+        <v>0.04499819548807951</v>
       </c>
       <c r="J150" t="n">
-        <v>0.09550952519136754</v>
+        <v>0.1000162067909513</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1358719065273142</v>
+        <v>0.04499819548807951</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1769486714784068</v>
+        <v>0.2173544881234263</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1360086890705094</v>
+        <v>0.08282986099501223</v>
       </c>
       <c r="N150" t="n">
-        <v>0.2568732064734153</v>
+        <v>0.327805397431906</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1351945072657757</v>
+        <v>0.08283178839627263</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0724151941697278</v>
+        <v>0.1000584375599559</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1369689372957817</v>
+        <v>0.04552758602323338</v>
       </c>
       <c r="J151" t="n">
-        <v>0.09686607770701661</v>
+        <v>0.1000584375599559</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1374703995452826</v>
+        <v>0.04552758602323338</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1767154998618263</v>
+        <v>0.2191995140772884</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1376087912948684</v>
+        <v>0.08380432994789473</v>
       </c>
       <c r="N151" t="n">
-        <v>0.257586472599457</v>
+        <v>0.3264458450637304</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1367850308806672</v>
+        <v>0.08380628002446408</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.07965629277976939</v>
+        <v>0.1000964331702669</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1385615993573606</v>
+        <v>0.04605697655838726</v>
       </c>
       <c r="J152" t="n">
-        <v>0.09594318421888529</v>
+        <v>0.1000964331702669</v>
       </c>
       <c r="K152" t="n">
-        <v>0.139068892563251</v>
+        <v>0.04605697655838726</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1777204969285608</v>
+        <v>0.2186532556148022</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1392088935192273</v>
+        <v>0.08477879890077722</v>
       </c>
       <c r="N152" t="n">
-        <v>0.2588514678253492</v>
+        <v>0.3261937281993416</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1383755544955587</v>
+        <v>0.08478077165265552</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.07291262576352947</v>
+        <v>0.1001303708219636</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1401542614189395</v>
+        <v>0.04658636709354114</v>
       </c>
       <c r="J153" t="n">
-        <v>0.09713908576033378</v>
+        <v>0.1001303708219636</v>
       </c>
       <c r="K153" t="n">
-        <v>0.1406673855812194</v>
+        <v>0.04658636709354114</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1784604245205955</v>
+        <v>0.2180151861593748</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1408089957435862</v>
+        <v>0.08575326785365972</v>
       </c>
       <c r="N153" t="n">
-        <v>0.2606635642359374</v>
+        <v>0.3277483247734815</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1399660781104501</v>
+        <v>0.08575526328084697</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.07320390993816778</v>
+        <v>0.1001604277151253</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1417469234805183</v>
+        <v>0.04711575762869501</v>
       </c>
       <c r="J154" t="n">
-        <v>0.09725202336472227</v>
+        <v>0.1001604277151253</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1422658785991878</v>
+        <v>0.04711575762869501</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1783320444799151</v>
+        <v>0.2187847791344132</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1424090979679452</v>
+        <v>0.08672773680654222</v>
       </c>
       <c r="N154" t="n">
-        <v>0.2610421485914406</v>
+        <v>0.3253089127208924</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1415566017253416</v>
+        <v>0.08672975490903841</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.08171070036946664</v>
+        <v>0.1001867810498315</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1433395855420972</v>
+        <v>0.04764514816384888</v>
       </c>
       <c r="J155" t="n">
-        <v>0.09823149916506838</v>
+        <v>0.1001867810498315</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1438643716171562</v>
+        <v>0.04764514816384888</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1795533631845692</v>
+        <v>0.2163615079633244</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1440092001923041</v>
+        <v>0.08770220575942472</v>
       </c>
       <c r="N155" t="n">
-        <v>0.2631453332205893</v>
+        <v>0.3241747699763162</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1431471253402331</v>
+        <v>0.08770424653722986</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.08443871326202719</v>
+        <v>0.1002096080261615</v>
       </c>
       <c r="G156" t="n">
-        <v>0.144932247603676</v>
+        <v>0.04817453869900277</v>
       </c>
       <c r="J156" t="n">
-        <v>0.09859457860887799</v>
+        <v>0.1002096080261615</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1454628646351246</v>
+        <v>0.04817453869900277</v>
       </c>
       <c r="L156" t="n">
-        <v>0.180903149909339</v>
+        <v>0.2177448460695155</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1456093024166631</v>
+        <v>0.08867667471230722</v>
       </c>
       <c r="N156" t="n">
-        <v>0.2630221327559158</v>
+        <v>0.3266451744744949</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1447376489551246</v>
+        <v>0.08867873816542129</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.07834336127921264</v>
+        <v>0.1002290858441946</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1465249096652549</v>
+        <v>0.04870392923415665</v>
       </c>
       <c r="J157" t="n">
-        <v>0.09988816399014119</v>
+        <v>0.1002290858441946</v>
       </c>
       <c r="K157" t="n">
-        <v>0.147061357653093</v>
+        <v>0.04870392923415665</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1832874755568447</v>
+        <v>0.2179342668763933</v>
       </c>
       <c r="M157" t="n">
-        <v>0.147209404641022</v>
+        <v>0.08965114366518971</v>
       </c>
       <c r="N157" t="n">
-        <v>0.2678328416087934</v>
+        <v>0.3261194041501709</v>
       </c>
       <c r="O157" t="n">
-        <v>0.146328172570016</v>
+        <v>0.08965322979361275</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.08138005708438635</v>
+        <v>0.1002453917040102</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1481175717268337</v>
+        <v>0.04923331976931052</v>
       </c>
       <c r="J158" t="n">
-        <v>0.1009591563514186</v>
+        <v>0.1002453917040102</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1486598506710614</v>
+        <v>0.04923331976931052</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1843085879521822</v>
+        <v>0.2177292438073649</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1488095068653809</v>
+        <v>0.0906256126180722</v>
       </c>
       <c r="N158" t="n">
-        <v>0.2705377541905957</v>
+        <v>0.3246967369380859</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1479186961849075</v>
+        <v>0.09062772142180418</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.08750421334091153</v>
+        <v>0.1002587028056878</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1497102337884126</v>
+        <v>0.04976271030446439</v>
       </c>
       <c r="J159" t="n">
-        <v>0.1025544567352708</v>
+        <v>0.1002587028056878</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1502583436890298</v>
+        <v>0.04976271030446439</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1879687349204479</v>
+        <v>0.2167292502858373</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1504096090897399</v>
+        <v>0.0916000815709547</v>
       </c>
       <c r="N159" t="n">
-        <v>0.2757971649126961</v>
+        <v>0.3234764507729821</v>
       </c>
       <c r="O159" t="n">
-        <v>0.149509219799799</v>
+        <v>0.09160221304999562</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.08267124271215141</v>
+        <v>0.1002691963493066</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1513028958499915</v>
+        <v>0.05029210083961827</v>
       </c>
       <c r="J160" t="n">
-        <v>0.1027209661842584</v>
+        <v>0.1002691963493066</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1518568367069982</v>
+        <v>0.05029210083961827</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1887701642867377</v>
+        <v>0.2175337597352177</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1520097113140988</v>
+        <v>0.0925745505238372</v>
       </c>
       <c r="N160" t="n">
-        <v>0.2775713681864679</v>
+        <v>0.3263578235896016</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1510997434146905</v>
+        <v>0.09257670467818707</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.08783655786146939</v>
+        <v>0.100277049534946</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1528955579115703</v>
+        <v>0.05082149137477215</v>
       </c>
       <c r="J161" t="n">
-        <v>0.1043055857409422</v>
+        <v>0.100277049534946</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1534553297249666</v>
+        <v>0.05082149137477215</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1908151238761475</v>
+        <v>0.2167422455789128</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1536098135384577</v>
+        <v>0.0935490194767197</v>
       </c>
       <c r="N161" t="n">
-        <v>0.2822206584232843</v>
+        <v>0.3256401333226865</v>
       </c>
       <c r="O161" t="n">
-        <v>0.152690267029582</v>
+        <v>0.09355119630637851</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.08295557145222858</v>
+        <v>0.1002824395626855</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1544882199731492</v>
+        <v>0.05135088190992602</v>
       </c>
       <c r="J162" t="n">
-        <v>0.1065552164478827</v>
+        <v>0.1002824395626855</v>
       </c>
       <c r="K162" t="n">
-        <v>0.155053822742935</v>
+        <v>0.05135088190992602</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1949058615137736</v>
+        <v>0.2170541812403297</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1552099157628166</v>
+        <v>0.09452348842960219</v>
       </c>
       <c r="N162" t="n">
-        <v>0.284905330034519</v>
+        <v>0.3260226579069789</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1542807906444734</v>
+        <v>0.09452568793456995</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.08698369614779232</v>
+        <v>0.1002855436326043</v>
       </c>
       <c r="G163" t="n">
-        <v>0.156080882034728</v>
+        <v>0.0518802724450799</v>
       </c>
       <c r="J163" t="n">
-        <v>0.1068167593476406</v>
+        <v>0.1002855436326043</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1566523157609034</v>
+        <v>0.0518802724450799</v>
       </c>
       <c r="L163" t="n">
-        <v>0.196544625024712</v>
+        <v>0.2177690401428755</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1568100179871756</v>
+        <v>0.09549795738248469</v>
       </c>
       <c r="N163" t="n">
-        <v>0.2884856774315453</v>
+        <v>0.3238046752772208</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1558713142593649</v>
+        <v>0.0955001795627614</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.08587743661454504</v>
+        <v>0.1002865389447818</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1576735440963069</v>
+        <v>0.05240966298023377</v>
       </c>
       <c r="J164" t="n">
-        <v>0.1083371154827766</v>
+        <v>0.1002865389447818</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1582508087788718</v>
+        <v>0.05240966298023377</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1990336622340588</v>
+        <v>0.217086295709957</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1584101202115345</v>
+        <v>0.09647242633536719</v>
       </c>
       <c r="N164" t="n">
-        <v>0.2897378178959474</v>
+        <v>0.3235854633681543</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1574618378742564</v>
+        <v>0.09647467119095283</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.09269565164839481</v>
+        <v>0.1002865389447818</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1592662061578858</v>
+        <v>0.05240966298023377</v>
       </c>
       <c r="J165" t="n">
-        <v>0.1087187569047674</v>
+        <v>0.1002865389447818</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1598493017968402</v>
+        <v>0.05240966298023377</v>
       </c>
       <c r="L165" t="n">
-        <v>0.2009513019418595</v>
+        <v>0.2178054213649814</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1600102224358935</v>
+        <v>0.09744689528824969</v>
       </c>
       <c r="N165" t="n">
-        <v>0.2928998772495983</v>
+        <v>0.3244643001145214</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1590523614891479</v>
+        <v>0.09744916281914427</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.09249410111441715</v>
+        <v>0.09865090913381391</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1608588682194646</v>
+        <v>0.05240939445176976</v>
       </c>
       <c r="J166" t="n">
-        <v>0.1101709385710093</v>
+        <v>0.09865090913381391</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1614477948148086</v>
+        <v>0.05240939445176976</v>
       </c>
       <c r="L166" t="n">
-        <v>0.2033049360291407</v>
+        <v>0.2154258905313557</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1616103246602524</v>
+        <v>0.09842136424113218</v>
       </c>
       <c r="N166" t="n">
-        <v>0.2960005117491509</v>
+        <v>0.3229404634510643</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1606428851040393</v>
+        <v>0.09842365444733572</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.08727419945712837</v>
+        <v>0.09703345619237419</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1624515302810435</v>
+        <v>0.05240912592330574</v>
       </c>
       <c r="J167" t="n">
-        <v>0.1115007434811828</v>
+        <v>0.09703345619237419</v>
       </c>
       <c r="K167" t="n">
-        <v>0.163046287832777</v>
+        <v>0.05240912592330574</v>
       </c>
       <c r="L167" t="n">
-        <v>0.2032171115774636</v>
+        <v>0.2167471766324868</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1632104268846113</v>
+        <v>0.09939583319401468</v>
       </c>
       <c r="N167" t="n">
-        <v>0.2981441532763605</v>
+        <v>0.3239132313125249</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1622334087189309</v>
+        <v>0.09939814607552716</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.09503736112104495</v>
+        <v>0.09543500687941417</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1640441923426223</v>
+        <v>0.05240885739484172</v>
       </c>
       <c r="J168" t="n">
-        <v>0.1120098560940342</v>
+        <v>0.09543500687941417</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1646447808507454</v>
+        <v>0.05240885739484172</v>
       </c>
       <c r="L168" t="n">
-        <v>0.2060909295800291</v>
+        <v>0.2171687530917818</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1648105291089703</v>
+        <v>0.1003703021468972</v>
       </c>
       <c r="N168" t="n">
-        <v>0.3014352337129815</v>
+        <v>0.3219818816336455</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1638239323338223</v>
+        <v>0.1003726377037186</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.08778500055068318</v>
+        <v>0.09385638795374548</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1656368544042012</v>
+        <v>0.0524085888663777</v>
       </c>
       <c r="J169" t="n">
-        <v>0.1132999608683097</v>
+        <v>0.09385638795374548</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1662432738687138</v>
+        <v>0.0524085888663777</v>
       </c>
       <c r="L169" t="n">
-        <v>0.2066294910300381</v>
+        <v>0.2168900933326476</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1664106313333292</v>
+        <v>0.1013447710997797</v>
       </c>
       <c r="N169" t="n">
-        <v>0.3019781849407689</v>
+        <v>0.321045692349168</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1654144559487138</v>
+        <v>0.10134712933191</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0905185321905594</v>
+        <v>0.09229842617431799</v>
       </c>
       <c r="G170" t="n">
-        <v>0.16722951646578</v>
+        <v>0.05240832033791369</v>
       </c>
       <c r="J170" t="n">
-        <v>0.1132727422627559</v>
+        <v>0.09229842617431799</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1678417668866822</v>
+        <v>0.05240832033791369</v>
       </c>
       <c r="L170" t="n">
-        <v>0.2095358969206915</v>
+        <v>0.2172106707784913</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1680107335576881</v>
+        <v>0.1023192400526622</v>
       </c>
       <c r="N170" t="n">
-        <v>0.3051774388414776</v>
+        <v>0.3209039413938346</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1670049795636053</v>
+        <v>0.1023216209601015</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.09323937048518997</v>
+        <v>0.09076194829994505</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1688221785273589</v>
+        <v>0.05240805180944967</v>
       </c>
       <c r="J171" t="n">
-        <v>0.114329884736119</v>
+        <v>0.09076194829994505</v>
       </c>
       <c r="K171" t="n">
-        <v>0.1694402599046506</v>
+        <v>0.05240805180944967</v>
       </c>
       <c r="L171" t="n">
-        <v>0.2113132482451899</v>
+        <v>0.2155299588527197</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1696108357820471</v>
+        <v>0.1032937090055447</v>
       </c>
       <c r="N171" t="n">
-        <v>0.3077374272968623</v>
+        <v>0.3218559067023874</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1685955031784968</v>
+        <v>0.1032961125882929</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0899489298790913</v>
+        <v>0.08924778108957479</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1704148405889377</v>
+        <v>0.05240778328098566</v>
       </c>
       <c r="J172" t="n">
-        <v>0.1154730727471453</v>
+        <v>0.08924778108957479</v>
       </c>
       <c r="K172" t="n">
-        <v>0.171038752922619</v>
+        <v>0.05240778328098566</v>
       </c>
       <c r="L172" t="n">
-        <v>0.2114646459967344</v>
+        <v>0.2172474309787402</v>
       </c>
       <c r="M172" t="n">
-        <v>0.171210938006406</v>
+        <v>0.1042681779584272</v>
       </c>
       <c r="N172" t="n">
-        <v>0.3085625821886782</v>
+        <v>0.3223008662095683</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1701860267933882</v>
+        <v>0.1042706042164844</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.09564862481677967</v>
+        <v>0.0877567513020224</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1720075026505166</v>
+        <v>0.05240751475252164</v>
       </c>
       <c r="J173" t="n">
-        <v>0.1163039907545812</v>
+        <v>0.0877567513020224</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1726372459405874</v>
+        <v>0.05240751475252164</v>
       </c>
       <c r="L173" t="n">
-        <v>0.2133931911685257</v>
+        <v>0.2163625605799594</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1728110402307649</v>
+        <v>0.1052426469113096</v>
       </c>
       <c r="N173" t="n">
-        <v>0.3123573353986797</v>
+        <v>0.3230380978501194</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1717765504082797</v>
+        <v>0.1052450958446758</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.09533986974277146</v>
+        <v>0.08628968569623399</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1736001647120955</v>
+        <v>0.05240724622405762</v>
       </c>
       <c r="J174" t="n">
-        <v>0.1166243232171732</v>
+        <v>0.08628968569623399</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1742357389585558</v>
+        <v>0.05240724622405762</v>
       </c>
       <c r="L174" t="n">
-        <v>0.2145019847537647</v>
+        <v>0.2165748210797845</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1744111424551239</v>
+        <v>0.1062171158641922</v>
       </c>
       <c r="N174" t="n">
-        <v>0.3130261188086216</v>
+        <v>0.3207668795587828</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1733670740231712</v>
+        <v>0.1062195874728673</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.09802407910158302</v>
+        <v>0.08484741103102686</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1751928267736743</v>
+        <v>0.0524069776955936</v>
       </c>
       <c r="J175" t="n">
-        <v>0.1183357545936674</v>
+        <v>0.08484741103102686</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1758342319765242</v>
+        <v>0.0524069776955936</v>
       </c>
       <c r="L175" t="n">
-        <v>0.2156941277456523</v>
+        <v>0.2161836859016225</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1760112446794828</v>
+        <v>0.1071915848170747</v>
       </c>
       <c r="N175" t="n">
-        <v>0.3167733643002592</v>
+        <v>0.3217864892703007</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1749575976380627</v>
+        <v>0.1071940791010587</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.09671139156859933</v>
+        <v>0.08343075406534492</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1767854888352532</v>
+        <v>0.05240670916712958</v>
       </c>
       <c r="J176" t="n">
-        <v>0.1182416967849926</v>
+        <v>0.08343075406534492</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1774327249944926</v>
+        <v>0.05240670916712958</v>
       </c>
       <c r="L176" t="n">
-        <v>0.2186738291671617</v>
+        <v>0.2144886284688803</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1776113469038418</v>
+        <v>0.1081660537699572</v>
       </c>
       <c r="N176" t="n">
-        <v>0.3183436493087753</v>
+        <v>0.319396204919415</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1765481212529542</v>
+        <v>0.1081685707292502</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.101438247626103</v>
+        <v>0.08204054155800783</v>
       </c>
       <c r="G177" t="n">
-        <v>0.178378150896832</v>
+        <v>0.05240644063866556</v>
       </c>
       <c r="J177" t="n">
-        <v>0.1195863593311288</v>
+        <v>0.08204054155800783</v>
       </c>
       <c r="K177" t="n">
-        <v>0.179031218012461</v>
+        <v>0.05240644063866556</v>
       </c>
       <c r="L177" t="n">
-        <v>0.2191172998514138</v>
+        <v>0.215989122204965</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1792114491282007</v>
+        <v>0.1091405227228397</v>
       </c>
       <c r="N177" t="n">
-        <v>0.3218395467346955</v>
+        <v>0.3222953044408678</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1781386448678456</v>
+        <v>0.1091430623574416</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.09618770915018031</v>
+        <v>0.08067760026795712</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1799708129584109</v>
+        <v>0.05240617211020155</v>
       </c>
       <c r="J178" t="n">
-        <v>0.1208670275310059</v>
+        <v>0.08067760026795712</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1806297110304294</v>
+        <v>0.05240617211020155</v>
       </c>
       <c r="L178" t="n">
-        <v>0.2214316490680522</v>
+        <v>0.2147846405332836</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1808115513525596</v>
+        <v>0.1101149916757221</v>
       </c>
       <c r="N178" t="n">
-        <v>0.3240974639304031</v>
+        <v>0.3185830657694013</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1797291684827371</v>
+        <v>0.110117553985633</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.09393547847873605</v>
+        <v>0.07934275695401471</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1815634750199898</v>
+        <v>0.05240590358173753</v>
       </c>
       <c r="J179" t="n">
-        <v>0.1221547653542896</v>
+        <v>0.07934275695401471</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1822282040483978</v>
+        <v>0.05240590358173753</v>
       </c>
       <c r="L179" t="n">
-        <v>0.2223636072231958</v>
+        <v>0.2159746568772432</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1824116535769185</v>
+        <v>0.1110894606286046</v>
       </c>
       <c r="N179" t="n">
-        <v>0.3241412689839851</v>
+        <v>0.3210587668397574</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1813196920976286</v>
+        <v>0.1110920456138245</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.09565725794967507</v>
+        <v>0.07803683837511988</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1831561370815686</v>
+        <v>0.05240563505327352</v>
       </c>
       <c r="J180" t="n">
-        <v>0.1220206367706448</v>
+        <v>0.07803683837511988</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1838266970663662</v>
+        <v>0.05240563505327352</v>
       </c>
       <c r="L180" t="n">
-        <v>0.2251599047229633</v>
+        <v>0.2140586446602504</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1840117558012775</v>
+        <v>0.1120639295814871</v>
       </c>
       <c r="N180" t="n">
-        <v>0.3293948299835286</v>
+        <v>0.3191216855866783</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1829102157125201</v>
+        <v>0.1120665372420159</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.1053287499009023</v>
+        <v>0.07676067129009698</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1847487991431475</v>
+        <v>0.0524053665248095</v>
       </c>
       <c r="J181" t="n">
-        <v>0.1238357057497369</v>
+        <v>0.07676067129009698</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1854251900843346</v>
+        <v>0.0524053665248095</v>
       </c>
       <c r="L181" t="n">
-        <v>0.2250672719734737</v>
+        <v>0.2147360773057127</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1856118580256364</v>
+        <v>0.1130383985343696</v>
       </c>
       <c r="N181" t="n">
-        <v>0.3313820150171214</v>
+        <v>0.3185710999449063</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1845007393274115</v>
+        <v>0.1130410288702074</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.1009256566703225</v>
+        <v>0.07551508245788266</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1863414612047263</v>
+        <v>0.05240509799634548</v>
       </c>
       <c r="J182" t="n">
-        <v>0.1245710362612311</v>
+        <v>0.07551508245788266</v>
       </c>
       <c r="K182" t="n">
-        <v>0.187023683102303</v>
+        <v>0.05240509799634548</v>
       </c>
       <c r="L182" t="n">
-        <v>0.2267324393808458</v>
+        <v>0.2145064282370369</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1872119602499953</v>
+        <v>0.1140128674872521</v>
       </c>
       <c r="N182" t="n">
-        <v>0.3309266921728503</v>
+        <v>0.3171062878491829</v>
       </c>
       <c r="O182" t="n">
-        <v>0.186091262942303</v>
+        <v>0.1140155204983988</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.1024236805958405</v>
+        <v>0.07430089863733003</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1879341232663052</v>
+        <v>0.05240482946788147</v>
       </c>
       <c r="J183" t="n">
-        <v>0.1238976922747928</v>
+        <v>0.07430089863733003</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1886221761202714</v>
+        <v>0.05240482946788147</v>
       </c>
       <c r="L183" t="n">
-        <v>0.2276021373511984</v>
+        <v>0.2138691708776299</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1888120624743543</v>
+        <v>0.1149873364401346</v>
       </c>
       <c r="N183" t="n">
-        <v>0.3327527295388025</v>
+        <v>0.3197265272342507</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1876817865571945</v>
+        <v>0.1149900121265902</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.1057985240153612</v>
+        <v>0.07311894658729484</v>
       </c>
       <c r="G184" t="n">
-        <v>0.189526785327884</v>
+        <v>0.05240456093941745</v>
       </c>
       <c r="J184" t="n">
-        <v>0.1249867377600871</v>
+        <v>0.07311894658729484</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1902206691382398</v>
+        <v>0.05240456093941745</v>
       </c>
       <c r="L184" t="n">
-        <v>0.2298230962906505</v>
+        <v>0.2147237786508988</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1904121646987132</v>
+        <v>0.1159618053930171</v>
       </c>
       <c r="N184" t="n">
-        <v>0.3333839952030654</v>
+        <v>0.3186310960348513</v>
       </c>
       <c r="O184" t="n">
-        <v>0.189272310172086</v>
+        <v>0.1159645037547817</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.1020754084190285</v>
+        <v>0.0719700530667097</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1911194473894629</v>
+        <v>0.05240429241095344</v>
       </c>
       <c r="J185" t="n">
-        <v>0.1249327967622463</v>
+        <v>0.0719700530667097</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1918191621562083</v>
+        <v>0.05240429241095344</v>
       </c>
       <c r="L185" t="n">
-        <v>0.2312727951365998</v>
+        <v>0.2151697249802507</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1920122669230721</v>
+        <v>0.1169362743458996</v>
       </c>
       <c r="N185" t="n">
-        <v>0.3358450519472786</v>
+        <v>0.3191192721857272</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1908628337869775</v>
+        <v>0.1169389953829731</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.104343780867705</v>
+        <v>0.07085504483440583</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1927121094510418</v>
+        <v>0.05240402388248942</v>
       </c>
       <c r="J186" t="n">
-        <v>0.1262520341095166</v>
+        <v>0.07085504483440583</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1934176551741766</v>
+        <v>0.05240402388248942</v>
       </c>
       <c r="L186" t="n">
-        <v>0.2316603028282859</v>
+        <v>0.2147048618187794</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1936123691474311</v>
+        <v>0.1179107432987821</v>
       </c>
       <c r="N186" t="n">
-        <v>0.3362862898564335</v>
+        <v>0.3160744278148365</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1924533574018689</v>
+        <v>0.1179134870111646</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.1076063251512666</v>
+        <v>0.06977474864931288</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1943047715126206</v>
+        <v>0.0524037553540254</v>
       </c>
       <c r="J187" t="n">
-        <v>0.126364386325468</v>
+        <v>0.06977474864931288</v>
       </c>
       <c r="K187" t="n">
-        <v>0.195016148192145</v>
+        <v>0.0524037553540254</v>
       </c>
       <c r="L187" t="n">
-        <v>0.23053516350828</v>
+        <v>0.2150217747006716</v>
       </c>
       <c r="M187" t="n">
-        <v>0.19521247137179</v>
+        <v>0.1188852122516646</v>
       </c>
       <c r="N187" t="n">
-        <v>0.3355092124300418</v>
+        <v>0.316724743266509</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1940438810167604</v>
+        <v>0.118887978639356</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.1058629518510288</v>
+        <v>0.06872999127026508</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1958974335741995</v>
+        <v>0.05240348682556138</v>
       </c>
       <c r="J188" t="n">
-        <v>0.1269697469215932</v>
+        <v>0.06872999127026508</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1966146412101134</v>
+        <v>0.05240348682556138</v>
       </c>
       <c r="L188" t="n">
-        <v>0.2329971811372687</v>
+        <v>0.214920529340585</v>
       </c>
       <c r="M188" t="n">
-        <v>0.196812573596149</v>
+        <v>0.1198596812045471</v>
       </c>
       <c r="N188" t="n">
-        <v>0.3382135394923663</v>
+        <v>0.3143680118174745</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1956344046316519</v>
+        <v>0.1198624702675475</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.09711357154830715</v>
+        <v>0.06772159945618897</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1974900956357784</v>
+        <v>0.05240321829709736</v>
       </c>
       <c r="J189" t="n">
-        <v>0.126468009409385</v>
+        <v>0.06772159945618897</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1982131342280818</v>
+        <v>0.05240321829709736</v>
       </c>
       <c r="L189" t="n">
-        <v>0.2325461596759381</v>
+        <v>0.214902192317559</v>
       </c>
       <c r="M189" t="n">
-        <v>0.1984126758205079</v>
+        <v>0.1208341501574296</v>
       </c>
       <c r="N189" t="n">
-        <v>0.3397989908676687</v>
+        <v>0.3141117552663705</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1972249282465434</v>
+        <v>0.1208369618957389</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.1033580948244173</v>
+        <v>0.06674702403382357</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1990827576973572</v>
+        <v>0.05240294976863334</v>
       </c>
       <c r="J190" t="n">
-        <v>0.1268590673003363</v>
+        <v>0.06674702403382357</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1998116272460503</v>
+        <v>0.05240294976863334</v>
       </c>
       <c r="L190" t="n">
-        <v>0.2337819030849745</v>
+        <v>0.2125678302106324</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2000127780448668</v>
+        <v>0.1218086191103121</v>
       </c>
       <c r="N190" t="n">
-        <v>0.3391652863802114</v>
+        <v>0.3156634954118351</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1988154518614349</v>
+        <v>0.1218114535239303</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0995964322606749</v>
+        <v>0.06578683616950395</v>
       </c>
       <c r="G191" t="n">
-        <v>0.200675419758936</v>
+        <v>0.05240268124016933</v>
       </c>
       <c r="J191" t="n">
-        <v>0.1269428141059398</v>
+        <v>0.06578683616950395</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2014101202640186</v>
+        <v>0.05240268124016933</v>
       </c>
       <c r="L191" t="n">
-        <v>0.233004215325064</v>
+        <v>0.2134185095988445</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2016128802692258</v>
+        <v>0.1227830880631946</v>
       </c>
       <c r="N191" t="n">
-        <v>0.3409121458542568</v>
+        <v>0.313430754052506</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2004059754763263</v>
+        <v>0.1227859451521218</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.1038284944383955</v>
+        <v>0.06483848668997147</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2022680818205149</v>
+        <v>0.05240241271170531</v>
       </c>
       <c r="J192" t="n">
-        <v>0.1274191433376886</v>
+        <v>0.06483848668997147</v>
       </c>
       <c r="K192" t="n">
-        <v>0.203008613281987</v>
+        <v>0.05240241271170531</v>
       </c>
       <c r="L192" t="n">
-        <v>0.2342129003568929</v>
+        <v>0.2141552970612342</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2032129824935847</v>
+        <v>0.1237575570160771</v>
       </c>
       <c r="N192" t="n">
-        <v>0.342439289114067</v>
+        <v>0.3137210529870211</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2019964990912178</v>
+        <v>0.1237604367803132</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.1000541919388947</v>
+        <v>0.06390280235414861</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2038607438820938</v>
+        <v>0.05240214418324129</v>
       </c>
       <c r="J193" t="n">
-        <v>0.1272879485070752</v>
+        <v>0.06390280235414861</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2046071062999555</v>
+        <v>0.05240214418324129</v>
       </c>
       <c r="L193" t="n">
-        <v>0.2332077621411475</v>
+        <v>0.2117792591768406</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2048130847179436</v>
+        <v>0.1247320259689596</v>
       </c>
       <c r="N193" t="n">
-        <v>0.3418464359839041</v>
+        <v>0.3098419140140182</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2035870227061093</v>
+        <v>0.1247349284085047</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.1022734353434881</v>
+        <v>0.06298060992087567</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2054534059436726</v>
+        <v>0.05240187565477727</v>
       </c>
       <c r="J194" t="n">
-        <v>0.1284491231255927</v>
+        <v>0.06298060992087567</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2062055993179238</v>
+        <v>0.05240187565477727</v>
       </c>
       <c r="L194" t="n">
-        <v>0.234888604638514</v>
+        <v>0.2135914625247028</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2064131869423026</v>
+        <v>0.1257064949218421</v>
       </c>
       <c r="N194" t="n">
-        <v>0.3410333062880303</v>
+        <v>0.3114008589321348</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2051775463210008</v>
+        <v>0.1257094200366961</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.1004861352334913</v>
+        <v>0.06207273614907416</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2070460680052515</v>
+        <v>0.05240160712631326</v>
       </c>
       <c r="J195" t="n">
-        <v>0.1283025607047338</v>
+        <v>0.06207273614907416</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2078040923358923</v>
+        <v>0.05240160712631326</v>
       </c>
       <c r="L195" t="n">
-        <v>0.2343552318096786</v>
+        <v>0.21149297368386</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2080132891666615</v>
+        <v>0.1266809638747246</v>
       </c>
       <c r="N195" t="n">
-        <v>0.3430996198507081</v>
+        <v>0.3084054095400091</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2067680699358923</v>
+        <v>0.1266839116648875</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.09969220219021994</v>
+        <v>0.06118000779758562</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2086387300668303</v>
+        <v>0.05240133859784924</v>
       </c>
       <c r="J196" t="n">
-        <v>0.1287481547559913</v>
+        <v>0.06118000779758562</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2094025853538607</v>
+        <v>0.05240133859784924</v>
       </c>
       <c r="L196" t="n">
-        <v>0.2347074476153275</v>
+        <v>0.2107848592333511</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2096133913910204</v>
+        <v>0.1276554328276071</v>
       </c>
       <c r="N196" t="n">
-        <v>0.3423450964961995</v>
+        <v>0.3076630876362785</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2083585935507837</v>
+        <v>0.127658403293079</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.1028915467949896</v>
+        <v>0.06030325162533007</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2102313921284092</v>
+        <v>0.05240107006938523</v>
       </c>
       <c r="J197" t="n">
-        <v>0.1287857987908581</v>
+        <v>0.06030325162533007</v>
       </c>
       <c r="K197" t="n">
-        <v>0.211001078371829</v>
+        <v>0.05240107006938523</v>
       </c>
       <c r="L197" t="n">
-        <v>0.237145056016147</v>
+        <v>0.2121681857522154</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2112134936153794</v>
+        <v>0.1286299017804896</v>
       </c>
       <c r="N197" t="n">
-        <v>0.3427694560487669</v>
+        <v>0.3050814150195812</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2099491171656752</v>
+        <v>0.1286328949212704</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.1070840796291159</v>
+        <v>0.0594432943911691</v>
       </c>
       <c r="G198" t="n">
-        <v>0.211824054189988</v>
+        <v>0.05240080154092121</v>
       </c>
       <c r="J198" t="n">
-        <v>0.128915386320827</v>
+        <v>0.0594432943911691</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2125995713897975</v>
+        <v>0.05240080154092121</v>
       </c>
       <c r="L198" t="n">
-        <v>0.2378678609728234</v>
+        <v>0.2105440198194917</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2128135958397383</v>
+        <v>0.1296043707333721</v>
       </c>
       <c r="N198" t="n">
-        <v>0.3450724183326722</v>
+        <v>0.3035679134885547</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2115396407805667</v>
+        <v>0.1296073865494619</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.1022697112739144</v>
+        <v>0.05860096285396574</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2134167162515669</v>
+        <v>0.05240053301245719</v>
       </c>
       <c r="J199" t="n">
-        <v>0.1285368108573909</v>
+        <v>0.05860096285396574</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2141980644077658</v>
+        <v>0.05240053301245719</v>
       </c>
       <c r="L199" t="n">
-        <v>0.2381756664460428</v>
+        <v>0.2120134280142194</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2144136980640972</v>
+        <v>0.1305788396862546</v>
       </c>
       <c r="N199" t="n">
-        <v>0.3462537031721777</v>
+        <v>0.304530104841837</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2131301643954581</v>
+        <v>0.1305818781776533</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.09944835231070069</v>
+        <v>0.05777708377263774</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2150093783131458</v>
+        <v>0.05240026448399317</v>
       </c>
       <c r="J200" t="n">
-        <v>0.1299499659120425</v>
+        <v>0.05777708377263774</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2157965574257343</v>
+        <v>0.05240026448399317</v>
       </c>
       <c r="L200" t="n">
-        <v>0.2382682763964914</v>
+        <v>0.2117774769154373</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2160138002884562</v>
+        <v>0.1315533086391371</v>
       </c>
       <c r="N200" t="n">
-        <v>0.3459130303915459</v>
+        <v>0.3015755108780656</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2147206880103496</v>
+        <v>0.1315563698058448</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.1026199133207904</v>
+        <v>0.05697248390603055</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2166020403747246</v>
+        <v>0.05239999595552915</v>
       </c>
       <c r="J201" t="n">
-        <v>0.1299547449962747</v>
+        <v>0.05697248390603055</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2173950504437027</v>
+        <v>0.05239999595552915</v>
       </c>
       <c r="L201" t="n">
-        <v>0.2367454947848556</v>
+        <v>0.2104372331021846</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2176139025128151</v>
+        <v>0.1325277775920196</v>
       </c>
       <c r="N201" t="n">
-        <v>0.3472501198150387</v>
+        <v>0.3019116533958786</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2163112116252411</v>
+        <v>0.1325308614340362</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.1097843048854992</v>
+        <v>0.05618799001306024</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2181947024363035</v>
+        <v>0.05239972742706514</v>
       </c>
       <c r="J202" t="n">
-        <v>0.1299510416215804</v>
+        <v>0.05618799001306024</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2189935434616711</v>
+        <v>0.05239972742706514</v>
       </c>
       <c r="L202" t="n">
-        <v>0.2374071255718216</v>
+        <v>0.2090937631535004</v>
       </c>
       <c r="M202" t="n">
-        <v>0.219214004737174</v>
+        <v>0.1335022465449021</v>
       </c>
       <c r="N202" t="n">
-        <v>0.3477646912669184</v>
+        <v>0.3004460541939137</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2179017352401326</v>
+        <v>0.1335053530622277</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.09994143758614261</v>
+        <v>0.05542442885257387</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2197873644978824</v>
+        <v>0.05239945889860112</v>
       </c>
       <c r="J203" t="n">
-        <v>0.1299387492994523</v>
+        <v>0.05542442885257387</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2205920364796395</v>
+        <v>0.05239945889860112</v>
       </c>
       <c r="L203" t="n">
-        <v>0.2386529727180756</v>
+        <v>0.2090481336484238</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2208141069615329</v>
+        <v>0.1344767154977846</v>
       </c>
       <c r="N203" t="n">
-        <v>0.3463564645714474</v>
+        <v>0.2970862350708086</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2194922588550241</v>
+        <v>0.1344798446904191</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.1030912220040363</v>
+        <v>0.05468262718348588</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2213800265594612</v>
+        <v>0.05239919037013711</v>
       </c>
       <c r="J204" t="n">
-        <v>0.1308177615413833</v>
+        <v>0.05468262718348588</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2221905294976079</v>
+        <v>0.05239919037013711</v>
       </c>
       <c r="L204" t="n">
-        <v>0.2385828401843038</v>
+        <v>0.2091014111659937</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2224142091858919</v>
+        <v>0.1354511844506671</v>
       </c>
       <c r="N204" t="n">
-        <v>0.3473251595528878</v>
+        <v>0.2970397178252011</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2210827824699156</v>
+        <v>0.1354543363186106</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.1022335687204958</v>
+        <v>0.05396341176464516</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2229726886210401</v>
+        <v>0.05239892184167309</v>
       </c>
       <c r="J205" t="n">
-        <v>0.1298879718588663</v>
+        <v>0.05396341176464516</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2237890225155763</v>
+        <v>0.05239892184167309</v>
       </c>
       <c r="L205" t="n">
-        <v>0.2403965319311924</v>
+        <v>0.2100546622852495</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2240143114102509</v>
+        <v>0.1364256534035496</v>
       </c>
       <c r="N205" t="n">
-        <v>0.3486704960355018</v>
+        <v>0.2955140242557293</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2226733060848071</v>
+        <v>0.136428827946802</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.1043683883168367</v>
+        <v>0.05326760935496412</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2245653506826189</v>
+        <v>0.05239865331320907</v>
       </c>
       <c r="J206" t="n">
-        <v>0.1311492737633941</v>
+        <v>0.05326760935496412</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2253875155335447</v>
+        <v>0.05239865331320907</v>
       </c>
       <c r="L206" t="n">
-        <v>0.2392938519194277</v>
+        <v>0.2073089535852299</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2256144136346098</v>
+        <v>0.1374001223564321</v>
       </c>
       <c r="N206" t="n">
-        <v>0.3484921938435515</v>
+        <v>0.2943166761610306</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2242638296996985</v>
+        <v>0.1374033195749934</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.1094955913743747</v>
+        <v>0.05259604671329372</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2261580127441978</v>
+        <v>0.05239838478474505</v>
       </c>
       <c r="J207" t="n">
-        <v>0.1313015607664593</v>
+        <v>0.05259604671329372</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2269860085515131</v>
+        <v>0.05239838478474505</v>
       </c>
       <c r="L207" t="n">
-        <v>0.239974604109696</v>
+        <v>0.2084653516449744</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2272145158589687</v>
+        <v>0.1383745913093145</v>
       </c>
       <c r="N207" t="n">
-        <v>0.3488899728012994</v>
+        <v>0.291855195339743</v>
       </c>
       <c r="O207" t="n">
-        <v>0.22585435331459</v>
+        <v>0.1383778112031849</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.1016150884744253</v>
+        <v>0.05194955059854435</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2277506748057766</v>
+        <v>0.05239811625628104</v>
       </c>
       <c r="J208" t="n">
-        <v>0.131444726379555</v>
+        <v>0.05194955059854435</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2285845015694815</v>
+        <v>0.05239811625628104</v>
       </c>
       <c r="L208" t="n">
-        <v>0.2396385924626834</v>
+        <v>0.2072249230435216</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2288146180833276</v>
+        <v>0.1393490602621971</v>
       </c>
       <c r="N208" t="n">
-        <v>0.3488635527330074</v>
+        <v>0.2935371035905043</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2274448769294815</v>
+        <v>0.1393523028313763</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.1057267901983042</v>
+        <v>0.05132894776956903</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2293433368673555</v>
+        <v>0.05239784772781702</v>
       </c>
       <c r="J209" t="n">
-        <v>0.130978664114174</v>
+        <v>0.05132894776956903</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2301829945874499</v>
+        <v>0.05239784772781702</v>
       </c>
       <c r="L209" t="n">
-        <v>0.2411856209390762</v>
+        <v>0.2081887343599111</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2304147203076866</v>
+        <v>0.1403235292150795</v>
       </c>
       <c r="N209" t="n">
-        <v>0.3499126534629378</v>
+        <v>0.2907699227119522</v>
       </c>
       <c r="O209" t="n">
-        <v>0.229035400544373</v>
+        <v>0.1403267944595678</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.1008306071273269</v>
+        <v>0.05073506498527597</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2309359989289343</v>
+        <v>0.05239757919935301</v>
       </c>
       <c r="J210" t="n">
-        <v>0.130803267481809</v>
+        <v>0.05073506498527597</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2317814876054183</v>
+        <v>0.05239757919935301</v>
       </c>
       <c r="L210" t="n">
-        <v>0.2403154934995607</v>
+        <v>0.2077578521731815</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2320148225320455</v>
+        <v>0.141297998167962</v>
       </c>
       <c r="N210" t="n">
-        <v>0.351036994815353</v>
+        <v>0.2879611745027248</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2306259241592644</v>
+        <v>0.1413012860877592</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.1119264498428091</v>
+        <v>0.05016872900452046</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2325286609905132</v>
+        <v>0.05239731067088899</v>
       </c>
       <c r="J211" t="n">
-        <v>0.130918429993953</v>
+        <v>0.05016872900452046</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2333799806233867</v>
+        <v>0.05239731067088899</v>
       </c>
       <c r="L211" t="n">
-        <v>0.2400280141048231</v>
+        <v>0.2074333430623723</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2336149247564044</v>
+        <v>0.1422724671208445</v>
       </c>
       <c r="N211" t="n">
-        <v>0.349336296614515</v>
+        <v>0.2880183807614595</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2322164477741559</v>
+        <v>0.1422757777159507</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.1020142289260663</v>
+        <v>0.04963076658620834</v>
       </c>
       <c r="G212" t="n">
-        <v>0.234121323052092</v>
+        <v>0.05239704214242497</v>
       </c>
       <c r="J212" t="n">
-        <v>0.1317240451620987</v>
+        <v>0.04963076658620834</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2349784736413551</v>
+        <v>0.05239704214242497</v>
       </c>
       <c r="L212" t="n">
-        <v>0.2401229867155495</v>
+        <v>0.2068162736065223</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2352150269807634</v>
+        <v>0.143246936073727</v>
       </c>
       <c r="N212" t="n">
-        <v>0.3501102786846862</v>
+        <v>0.2881490632867943</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2338069713890474</v>
+        <v>0.1432502693441421</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.1090938549584142</v>
+        <v>0.0491220044891974</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2357139851136709</v>
+        <v>0.05239677361396095</v>
       </c>
       <c r="J213" t="n">
-        <v>0.1308200064977389</v>
+        <v>0.0491220044891974</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2365769666593235</v>
+        <v>0.05239677361396095</v>
       </c>
       <c r="L213" t="n">
-        <v>0.2399002152924262</v>
+        <v>0.2061077103846706</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2368151292051223</v>
+        <v>0.1442214050266095</v>
       </c>
       <c r="N213" t="n">
-        <v>0.3516586608501288</v>
+        <v>0.2880607438773669</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2353974950039389</v>
+        <v>0.1442247609723335</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.1101652385211684</v>
+        <v>0.04864326947239089</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2373066471752498</v>
+        <v>0.05239650508549693</v>
       </c>
       <c r="J214" t="n">
-        <v>0.1314062075123666</v>
+        <v>0.04864326947239089</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2381754596772919</v>
+        <v>0.05239650508549693</v>
       </c>
       <c r="L214" t="n">
-        <v>0.2409595037961396</v>
+        <v>0.2062087199758564</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2384152314294813</v>
+        <v>0.145195873979492</v>
       </c>
       <c r="N214" t="n">
-        <v>0.3495811629351049</v>
+        <v>0.2849609443318151</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2369880186188304</v>
+        <v>0.145199252600525</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.1022282901956444</v>
+        <v>0.04864326947239091</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2388993092368286</v>
+        <v>0.05239650508549693</v>
       </c>
       <c r="J215" t="n">
-        <v>0.1314825417174745</v>
+        <v>0.04864326947239091</v>
       </c>
       <c r="K215" t="n">
-        <v>0.2397739526952603</v>
+        <v>0.05239650508549693</v>
       </c>
       <c r="L215" t="n">
-        <v>0.2418006561873757</v>
+        <v>0.2046203689591187</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2400153336538402</v>
+        <v>0.1461703429323745</v>
       </c>
       <c r="N215" t="n">
-        <v>0.3508775047638767</v>
+        <v>0.2852571864487767</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2385785422337218</v>
+        <v>0.1461737442287164</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.1062829205631579</v>
+        <v>0.04736291326167334</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2404919712984075</v>
+        <v>0.05238812416763079</v>
       </c>
       <c r="J216" t="n">
-        <v>0.1320489026245555</v>
+        <v>0.04736291326167334</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2413724457132287</v>
+        <v>0.05238812416763079</v>
       </c>
       <c r="L216" t="n">
-        <v>0.2415234764268209</v>
+        <v>0.2044437239134966</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2416154358781991</v>
+        <v>0.147144811885257</v>
       </c>
       <c r="N216" t="n">
-        <v>0.3526474061607064</v>
+        <v>0.2841569920268897</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2401690658486133</v>
+        <v>0.1471482358569079</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.1063290402050245</v>
+        <v>0.04609556805773203</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2420846333599863</v>
+        <v>0.05237974324976464</v>
       </c>
       <c r="J217" t="n">
-        <v>0.1315051837451023</v>
+        <v>0.04609556805773203</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2429709387311971</v>
+        <v>0.05237974324976464</v>
       </c>
       <c r="L217" t="n">
-        <v>0.2413277684751614</v>
+        <v>0.2058798514180293</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2432155381025581</v>
+        <v>0.1481192808381395</v>
       </c>
       <c r="N217" t="n">
-        <v>0.3533905869498566</v>
+        <v>0.2849678828647917</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2417595894635048</v>
+        <v>0.1481227274850993</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.1043665597025597</v>
+        <v>0.04484167391596781</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2436772954215652</v>
+        <v>0.05237136233189849</v>
       </c>
       <c r="J218" t="n">
-        <v>0.1319512785906079</v>
+        <v>0.04484167391596781</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2445694317491655</v>
+        <v>0.05237136233189849</v>
       </c>
       <c r="L218" t="n">
-        <v>0.2425133362930833</v>
+        <v>0.2042298180517557</v>
       </c>
       <c r="M218" t="n">
-        <v>0.244815640326917</v>
+        <v>0.149093749791022</v>
       </c>
       <c r="N218" t="n">
-        <v>0.352606766955589</v>
+        <v>0.2850973807611206</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2433501130783963</v>
+        <v>0.1490972191132907</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.1063953896370792</v>
+        <v>0.04360167089178153</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2452699574831441</v>
+        <v>0.05236298141403235</v>
       </c>
       <c r="J219" t="n">
-        <v>0.1310870806725651</v>
+        <v>0.04360167089178153</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2461679247671339</v>
+        <v>0.05236298141403235</v>
       </c>
       <c r="L219" t="n">
-        <v>0.2407799838412731</v>
+        <v>0.205794690393715</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2464157425512759</v>
+        <v>0.1500682187439045</v>
       </c>
       <c r="N219" t="n">
-        <v>0.3510956660021661</v>
+        <v>0.2853530075145139</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2449406366932877</v>
+        <v>0.1500717107414822</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.1044154405898986</v>
+        <v>0.04237599904057399</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2468626195447229</v>
+        <v>0.0523546004961662</v>
       </c>
       <c r="J220" t="n">
-        <v>0.1313124835024665</v>
+        <v>0.04237599904057399</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2477664177851023</v>
+        <v>0.0523546004961662</v>
       </c>
       <c r="L220" t="n">
-        <v>0.2424275150804168</v>
+        <v>0.2051755350229461</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2480158447756349</v>
+        <v>0.151042687696787</v>
       </c>
       <c r="N220" t="n">
-        <v>0.35065700391385</v>
+        <v>0.2838422849236099</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2465311603081792</v>
+        <v>0.1510462023696736</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.1124266231423335</v>
+        <v>0.04116509841774603</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2484552816063018</v>
+        <v>0.05234621957830005</v>
       </c>
       <c r="J221" t="n">
-        <v>0.1324273805918053</v>
+        <v>0.04116509841774603</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2493649108030707</v>
+        <v>0.05234621957830005</v>
       </c>
       <c r="L221" t="n">
-        <v>0.2421557339712006</v>
+        <v>0.2035692601430751</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2496159469999938</v>
+        <v>0.1520171566496695</v>
       </c>
       <c r="N221" t="n">
-        <v>0.3511905005149031</v>
+        <v>0.284736265257388</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2481216839230707</v>
+        <v>0.1520206939978651</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.1074200883907625</v>
+        <v>0.03996940907869848</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2500479436678806</v>
+        <v>0.05233783866043391</v>
       </c>
       <c r="J222" t="n">
-        <v>0.131830074430632</v>
+        <v>0.03996940907869848</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2509634038210391</v>
+        <v>0.05233783866043391</v>
       </c>
       <c r="L222" t="n">
-        <v>0.2415634898658421</v>
+        <v>0.2048648095232505</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2512160492243528</v>
+        <v>0.152991625602552</v>
       </c>
       <c r="N222" t="n">
-        <v>0.3532547300012339</v>
+        <v>0.2817364813463051</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2497122075379622</v>
+        <v>0.1529951856260565</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.1092141712156059</v>
+        <v>0.03878937107883219</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2516406057294595</v>
+        <v>0.05232945774256776</v>
       </c>
       <c r="J223" t="n">
-        <v>0.1318345526017924</v>
+        <v>0.03878937107883219</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2525618968390075</v>
+        <v>0.05232945774256776</v>
       </c>
       <c r="L223" t="n">
-        <v>0.2427288114425879</v>
+        <v>0.2045615853829099</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2528161514487117</v>
+        <v>0.1539660945554345</v>
       </c>
       <c r="N223" t="n">
-        <v>0.3519615982597359</v>
+        <v>0.2824371754522331</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2513027311528536</v>
+        <v>0.153969677254248</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.1027575936679682</v>
+        <v>0.03762542447354798</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2532332677910383</v>
+        <v>0.05232107682470161</v>
       </c>
       <c r="J224" t="n">
-        <v>0.1307366438832014</v>
+        <v>0.03762542447354798</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2541603898569759</v>
+        <v>0.05232107682470161</v>
       </c>
       <c r="L224" t="n">
-        <v>0.2413354957879013</v>
+        <v>0.2036596693242366</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2544162536730706</v>
+        <v>0.154940563508317</v>
       </c>
       <c r="N224" t="n">
-        <v>0.3504868306362336</v>
+        <v>0.2830386272698218</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2528932547677451</v>
+        <v>0.1549441688824394</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.1110782314309827</v>
+        <v>0.0364780093182467</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2548259298526172</v>
+        <v>0.05231269590683547</v>
       </c>
       <c r="J225" t="n">
-        <v>0.1307695453622819</v>
+        <v>0.0364780093182467</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2557588828749443</v>
+        <v>0.05231269590683547</v>
       </c>
       <c r="L225" t="n">
-        <v>0.2393446568605601</v>
+        <v>0.2022591429494139</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2560163558974295</v>
+        <v>0.1559150324611995</v>
       </c>
       <c r="N225" t="n">
-        <v>0.3464177700629195</v>
+        <v>0.2848411164937208</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2544837783826366</v>
+        <v>0.1559186605106309</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.09920396018778292</v>
+        <v>0.03534756566832917</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2564185919141961</v>
+        <v>0.05230431498896932</v>
       </c>
       <c r="J226" t="n">
-        <v>0.1290664541264571</v>
+        <v>0.03534756566832917</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2573573758929127</v>
+        <v>0.05230431498896932</v>
       </c>
       <c r="L226" t="n">
-        <v>0.237917408619342</v>
+        <v>0.2024600878606254</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2576164581217885</v>
+        <v>0.156889501414082</v>
       </c>
       <c r="N226" t="n">
-        <v>0.3437417594719868</v>
+        <v>0.28404492281858</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2560743019975281</v>
+        <v>0.1568931521388223</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.1081626556215022</v>
+        <v>0.0342345335791962</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2580112539757749</v>
+        <v>0.05229593407110317</v>
       </c>
       <c r="J227" t="n">
-        <v>0.1286605672631503</v>
+        <v>0.0342345335791962</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2589558689108811</v>
+        <v>0.05229593407110317</v>
       </c>
       <c r="L227" t="n">
-        <v>0.2364148650230244</v>
+        <v>0.2035625856600546</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2592165603461474</v>
+        <v>0.1578639703669645</v>
       </c>
       <c r="N227" t="n">
-        <v>0.340446141795628</v>
+        <v>0.2851503259390491</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2576648256124196</v>
+        <v>0.1578676437670137</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.09998219341527402</v>
+        <v>0.03313935310624942</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2596039160373538</v>
+        <v>0.05228755315323703</v>
       </c>
       <c r="J228" t="n">
-        <v>0.1270850818597843</v>
+        <v>0.03313935310624942</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2605543619288495</v>
+        <v>0.05228755315323703</v>
       </c>
       <c r="L228" t="n">
-        <v>0.2315981400303854</v>
+        <v>0.2031667179498848</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2608166625705063</v>
+        <v>0.158838439319847</v>
       </c>
       <c r="N228" t="n">
-        <v>0.3374182599660364</v>
+        <v>0.282257605549778</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2592553492273111</v>
+        <v>0.1588421353952052</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.09769044925223173</v>
+        <v>0.0320624643048881</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2611965780989327</v>
+        <v>0.05227917223537089</v>
       </c>
       <c r="J229" t="n">
-        <v>0.1247731950037825</v>
+        <v>0.0320624643048881</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2621528549468179</v>
+        <v>0.05227917223537089</v>
       </c>
       <c r="L229" t="n">
-        <v>0.2309283476002023</v>
+        <v>0.2025725663322995</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2624167647948653</v>
+        <v>0.1598129082727295</v>
       </c>
       <c r="N229" t="n">
-        <v>0.3331454569154044</v>
+        <v>0.2847670413454163</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2608458728422026</v>
+        <v>0.1598166270233966</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.1033152988155087</v>
+        <v>0.03100430723051385</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2627892401605115</v>
+        <v>0.05227079131750474</v>
       </c>
       <c r="J230" t="n">
-        <v>0.1230581037825678</v>
+        <v>0.03100430723051385</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2637513479647863</v>
+        <v>0.05227079131750474</v>
       </c>
       <c r="L230" t="n">
-        <v>0.2279666016912529</v>
+        <v>0.2028802124094821</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2640168670192242</v>
+        <v>0.160787377225612</v>
       </c>
       <c r="N230" t="n">
-        <v>0.329015075575925</v>
+        <v>0.2837789130206138</v>
       </c>
       <c r="O230" t="n">
-        <v>0.262436396457094</v>
+        <v>0.160791118651588</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.09988461778823847</v>
+        <v>0.02996532193852751</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2643819022220903</v>
+        <v>0.0522624103996386</v>
       </c>
       <c r="J231" t="n">
-        <v>0.1215730052835635</v>
+        <v>0.02996532193852751</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2653498409827547</v>
+        <v>0.0522624103996386</v>
       </c>
       <c r="L231" t="n">
-        <v>0.223474016262315</v>
+        <v>0.202989737783616</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2656169692435831</v>
+        <v>0.1617618461784945</v>
       </c>
       <c r="N231" t="n">
-        <v>0.3255144588797911</v>
+        <v>0.2851935002700202</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2640269200719855</v>
+        <v>0.1617656102797795</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.09242628185355432</v>
+        <v>0.02894594848432994</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2659745642836692</v>
+        <v>0.05225402948177245</v>
       </c>
       <c r="J232" t="n">
-        <v>0.1207510965941928</v>
+        <v>0.02894594848432994</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2669483340007231</v>
+        <v>0.05225402948177245</v>
       </c>
       <c r="L232" t="n">
-        <v>0.2212117052721661</v>
+        <v>0.2029012240568846</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2672170714679421</v>
+        <v>0.162736315131377</v>
       </c>
       <c r="N232" t="n">
-        <v>0.3189309497591957</v>
+        <v>0.2847110827882854</v>
       </c>
       <c r="O232" t="n">
-        <v>0.265617443686877</v>
+        <v>0.1627401019079709</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.09296816669458975</v>
+        <v>0.02794662692332191</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2675672263452481</v>
+        <v>0.0522456485639063</v>
       </c>
       <c r="J233" t="n">
-        <v>0.1184255748018785</v>
+        <v>0.02794662692332191</v>
       </c>
       <c r="K233" t="n">
-        <v>0.2685468270186915</v>
+        <v>0.0522456485639063</v>
       </c>
       <c r="L233" t="n">
-        <v>0.217340782679584</v>
+        <v>0.2018147528314716</v>
       </c>
       <c r="M233" t="n">
-        <v>0.268817173692301</v>
+        <v>0.1637107840842595</v>
       </c>
       <c r="N233" t="n">
-        <v>0.3157518911463313</v>
+        <v>0.284231940270059</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2672079673017684</v>
+        <v>0.1637145935361624</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.08953814799447814</v>
+        <v>0.0269677973109043</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2691598884068269</v>
+        <v>0.05223726764604016</v>
       </c>
       <c r="J234" t="n">
-        <v>0.117029636994044</v>
+        <v>0.0269677973109043</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2701453200366599</v>
+        <v>0.05223726764604016</v>
       </c>
       <c r="L234" t="n">
-        <v>0.2143223624433461</v>
+        <v>0.2018304057095601</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2704172759166599</v>
+        <v>0.164685253037142</v>
       </c>
       <c r="N234" t="n">
-        <v>0.3126646259733911</v>
+        <v>0.2820563524099911</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2687984909166599</v>
+        <v>0.1646890851643538</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.09516410143635286</v>
+        <v>0.02600989970247794</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2707525504684057</v>
+        <v>0.05222888672817401</v>
       </c>
       <c r="J235" t="n">
-        <v>0.1155964802581123</v>
+        <v>0.02600989970247794</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2717438130546284</v>
+        <v>0.05222888672817401</v>
       </c>
       <c r="L235" t="n">
-        <v>0.2122175585222303</v>
+        <v>0.2025482642933337</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2720173781410189</v>
+        <v>0.1656597219900245</v>
       </c>
       <c r="N235" t="n">
-        <v>0.3082564971725676</v>
+        <v>0.2851845989027311</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2703890145315514</v>
+        <v>0.1656635767925453</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.09687390270334735</v>
+        <v>0.02507337415344364</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2723452125299846</v>
+        <v>0.05222050581030786</v>
       </c>
       <c r="J236" t="n">
-        <v>0.1141593016815066</v>
+        <v>0.02507337415344364</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2733423060725967</v>
+        <v>0.05222050581030786</v>
       </c>
       <c r="L236" t="n">
-        <v>0.2083874848750144</v>
+        <v>0.2023684101849758</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2736174803653778</v>
+        <v>0.166634190942907</v>
       </c>
       <c r="N236" t="n">
-        <v>0.303814847676054</v>
+        <v>0.2844169594429288</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2719795381464429</v>
+        <v>0.1666380684207367</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.09569167117753587</v>
+        <v>0.02415866071920224</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2739378745915635</v>
+        <v>0.05221212489244172</v>
       </c>
       <c r="J237" t="n">
-        <v>0.1126498495795536</v>
+        <v>0.02415866071920224</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2749407990905651</v>
+        <v>0.05221212489244172</v>
       </c>
       <c r="L237" t="n">
-        <v>0.2063915767603276</v>
+        <v>0.2014909249866698</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2752175825897368</v>
+        <v>0.1676086598957895</v>
       </c>
       <c r="N237" t="n">
-        <v>0.2986111853353457</v>
+        <v>0.285153713725234</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2735700617613344</v>
+        <v>0.1676125600489282</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.08554363547230841</v>
+        <v>0.02326619945515458</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2755305366531424</v>
+        <v>0.05220374397457557</v>
       </c>
       <c r="J238" t="n">
-        <v>0.1113930945407886</v>
+        <v>0.02326619945515458</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2765392921085336</v>
+        <v>0.05220374397457557</v>
       </c>
       <c r="L238" t="n">
-        <v>0.2046991329048999</v>
+        <v>0.2003158903005993</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2768176848140957</v>
+        <v>0.168583128848672</v>
       </c>
       <c r="N238" t="n">
-        <v>0.2956038936047967</v>
+        <v>0.2834951414442966</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2751605853762258</v>
+        <v>0.1685870516771196</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.08439136274984811</v>
+        <v>0.02239643041670149</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2771231987147212</v>
+        <v>0.05219536305670942</v>
       </c>
       <c r="J239" t="n">
-        <v>0.1088313195129451</v>
+        <v>0.02239643041670149</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2781377851265019</v>
+        <v>0.05219536305670942</v>
       </c>
       <c r="L239" t="n">
-        <v>0.2006974606135699</v>
+        <v>0.2009433877289475</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2784177870384546</v>
+        <v>0.1695575978015544</v>
       </c>
       <c r="N239" t="n">
-        <v>0.2913833009374124</v>
+        <v>0.2855415222947663</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2767511089911173</v>
+        <v>0.169561543305311</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.08423478697162791</v>
+        <v>0.02154799676635707</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2787158607763001</v>
+        <v>0.05218698213884328</v>
       </c>
       <c r="J240" t="n">
-        <v>0.1078644458508918</v>
+        <v>0.02154799676635707</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2797362781444703</v>
+        <v>0.05218698213884328</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1992864151051028</v>
+        <v>0.2010734988738979</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2800178892628136</v>
+        <v>0.170532066754437</v>
       </c>
       <c r="N240" t="n">
-        <v>0.2896492004145474</v>
+        <v>0.2831931359712927</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2783416326060088</v>
+        <v>0.1705360349335025</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.08607384209912074</v>
+        <v>0.02071055720220176</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2803085228378789</v>
+        <v>0.05217860122097713</v>
       </c>
       <c r="J241" t="n">
-        <v>0.1060923949094978</v>
+        <v>0.02071055720220176</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2813347711624388</v>
+        <v>0.05217860122097713</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1961658515982642</v>
+        <v>0.1997063053376341</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2816179914871725</v>
+        <v>0.1715065357073194</v>
       </c>
       <c r="N241" t="n">
-        <v>0.2839013851175562</v>
+        <v>0.2849502621685256</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2799321562209003</v>
+        <v>0.1715105265616939</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.07890846209379951</v>
+        <v>0.01988275488674965</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2819011848994578</v>
+        <v>0.05217022030311098</v>
       </c>
       <c r="J242" t="n">
-        <v>0.1055150880436316</v>
+        <v>0.01988275488674965</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2829332641804072</v>
+        <v>0.05217022030311098</v>
       </c>
       <c r="L242" t="n">
-        <v>0.193135625311819</v>
+        <v>0.2011418887223392</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2832180937115314</v>
+        <v>0.1724810046602019</v>
       </c>
       <c r="N242" t="n">
-        <v>0.2825396481277938</v>
+        <v>0.2853131805811151</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2815226798357918</v>
+        <v>0.1724850181898854</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.08673858091713714</v>
+        <v>0.01906502987540158</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2834938469610366</v>
+        <v>0.05216183938524484</v>
       </c>
       <c r="J243" t="n">
-        <v>0.1037324466081622</v>
+        <v>0.01906502987540158</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2845317571983756</v>
+        <v>0.05216183938524484</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1900955914645331</v>
+        <v>0.200680330630197</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2848181959358904</v>
+        <v>0.1734554736130844</v>
       </c>
       <c r="N243" t="n">
-        <v>0.2789637825266144</v>
+        <v>0.2846821709037105</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2831132034506832</v>
+        <v>0.1734595098180768</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.08156413253060661</v>
+        <v>0.01825782222355839</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2850865090226155</v>
+        <v>0.05215345846737869</v>
       </c>
       <c r="J244" t="n">
-        <v>0.1024443919579586</v>
+        <v>0.01825782222355839</v>
       </c>
       <c r="K244" t="n">
-        <v>0.286130250216344</v>
+        <v>0.05215345846737869</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1881456052751713</v>
+        <v>0.1992217126633907</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2864182981602493</v>
+        <v>0.1744299425659669</v>
       </c>
       <c r="N244" t="n">
-        <v>0.2745735813953729</v>
+        <v>0.2843575128309618</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2847037270655747</v>
+        <v>0.1744340014462683</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.08338505089568084</v>
+        <v>0.01746157198662091</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2866791710841944</v>
+        <v>0.05214507754951254</v>
       </c>
       <c r="J245" t="n">
-        <v>0.1016508454478893</v>
+        <v>0.01746157198662091</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2877287432343124</v>
+        <v>0.05214507754951254</v>
       </c>
       <c r="L245" t="n">
-        <v>0.1845855219624992</v>
+        <v>0.1987661164241039</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2880184003846082</v>
+        <v>0.1754044115188494</v>
       </c>
       <c r="N245" t="n">
-        <v>0.2683688378154242</v>
+        <v>0.2847394860575188</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2862942506804662</v>
+        <v>0.1754084930744597</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.08220126997383274</v>
+        <v>0.01667671921998995</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2882718331457732</v>
+        <v>0.0521366966316464</v>
       </c>
       <c r="J246" t="n">
-        <v>0.09955172843282328</v>
+        <v>0.01667671921998995</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2893272362522808</v>
+        <v>0.0521366966316464</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1837151967452823</v>
+        <v>0.1999136235145198</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2896185026089672</v>
+        <v>0.1763788804717319</v>
       </c>
       <c r="N246" t="n">
-        <v>0.2667493448681223</v>
+        <v>0.285628370278031</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2878847742953577</v>
+        <v>0.1763829847026512</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.07401272372653528</v>
+        <v>0.01590370397906636</v>
       </c>
       <c r="G247" t="n">
-        <v>0.289864495207352</v>
+        <v>0.05212831571378025</v>
       </c>
       <c r="J247" t="n">
-        <v>0.09794696226762944</v>
+        <v>0.01590370397906636</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2909257292702492</v>
+        <v>0.05212831571378025</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1813344848422855</v>
+        <v>0.198364315536822</v>
       </c>
       <c r="M247" t="n">
-        <v>0.2912186048333261</v>
+        <v>0.1773533494246144</v>
       </c>
       <c r="N247" t="n">
-        <v>0.2629148956348226</v>
+        <v>0.2837244451871485</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2894752979102492</v>
+        <v>0.1773574763308426</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.07481934611526132</v>
+        <v>0.01514296631925098</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2914571572689309</v>
+        <v>0.05211993479591411</v>
       </c>
       <c r="J248" t="n">
-        <v>0.09753646830717652</v>
+        <v>0.01514296631925098</v>
       </c>
       <c r="K248" t="n">
-        <v>0.2925242222882176</v>
+        <v>0.05211993479591411</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1786432414722746</v>
+        <v>0.1982182740931939</v>
       </c>
       <c r="M248" t="n">
-        <v>0.292818707057685</v>
+        <v>0.1783278183774969</v>
       </c>
       <c r="N248" t="n">
-        <v>0.2593652831968791</v>
+        <v>0.2858279904795208</v>
       </c>
       <c r="O248" t="n">
-        <v>0.2910658215251407</v>
+        <v>0.178331967959034</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.07762107110148385</v>
+        <v>0.01439494629594464</v>
       </c>
       <c r="G249" t="n">
-        <v>0.2930498193305098</v>
+        <v>0.05211155387804796</v>
       </c>
       <c r="J249" t="n">
-        <v>0.09572016790633334</v>
+        <v>0.01439494629594464</v>
       </c>
       <c r="K249" t="n">
-        <v>0.294122715306186</v>
+        <v>0.05211155387804796</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1759413218540146</v>
+        <v>0.199275580785819</v>
       </c>
       <c r="M249" t="n">
-        <v>0.2944188092820439</v>
+        <v>0.1793022873303794</v>
       </c>
       <c r="N249" t="n">
-        <v>0.2535003006356471</v>
+        <v>0.2836392858497977</v>
       </c>
       <c r="O249" t="n">
-        <v>0.2926563451400321</v>
+        <v>0.1793064595872255</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.07241783264667574</v>
+        <v>0.01366008396454815</v>
       </c>
       <c r="G250" t="n">
-        <v>0.2946424813920887</v>
+        <v>0.05210317296018181</v>
       </c>
       <c r="J250" t="n">
-        <v>0.09359798241996883</v>
+        <v>0.01366008396454815</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2957212083241543</v>
+        <v>0.05210317296018181</v>
       </c>
       <c r="L250" t="n">
-        <v>0.173528581206271</v>
+        <v>0.1979363172168805</v>
       </c>
       <c r="M250" t="n">
-        <v>0.2960189115064029</v>
+        <v>0.1802767562832619</v>
       </c>
       <c r="N250" t="n">
-        <v>0.2518197410324808</v>
+        <v>0.2851586109926292</v>
       </c>
       <c r="O250" t="n">
-        <v>0.2942468687549236</v>
+        <v>0.1802809512154169</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.07820956471230997</v>
+        <v>0.01293881938046239</v>
       </c>
       <c r="G251" t="n">
-        <v>0.2962351434536675</v>
+        <v>0.05209479204231567</v>
       </c>
       <c r="J251" t="n">
-        <v>0.09206983320295176</v>
+        <v>0.01293881938046239</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2973197013421228</v>
+        <v>0.05209479204231567</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1710048747478091</v>
+        <v>0.1983005649885622</v>
       </c>
       <c r="M251" t="n">
-        <v>0.2976190137307618</v>
+        <v>0.1812512252361444</v>
       </c>
       <c r="N251" t="n">
-        <v>0.246623397468735</v>
+        <v>0.2833862456026648</v>
       </c>
       <c r="O251" t="n">
-        <v>0.295837392369815</v>
+        <v>0.1812554428436084</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.06799620125985945</v>
+        <v>0.01223159259908863</v>
       </c>
       <c r="G252" t="n">
-        <v>0.2978278055152463</v>
+        <v>0.05208641112444953</v>
       </c>
       <c r="J252" t="n">
-        <v>0.09083564161015092</v>
+        <v>0.01223159259908863</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2989181943600911</v>
+        <v>0.05208641112444953</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1670700576973941</v>
+        <v>0.1986684057030472</v>
       </c>
       <c r="M252" t="n">
-        <v>0.2992191159551208</v>
+        <v>0.1822256941890269</v>
       </c>
       <c r="N252" t="n">
-        <v>0.2434110630257641</v>
+        <v>0.2854224693745543</v>
       </c>
       <c r="O252" t="n">
-        <v>0.2974279159847065</v>
+        <v>0.1822299344717998</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.07677767625079711</v>
+        <v>0.01153884367582673</v>
       </c>
       <c r="G253" t="n">
-        <v>0.2994204675768252</v>
+        <v>0.05207803020658338</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0899953289964352</v>
+        <v>0.01153884367582673</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3005166873780595</v>
+        <v>0.05207803020658338</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1661239852737917</v>
+        <v>0.197539920962519</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3008192181794797</v>
+        <v>0.1832001631419094</v>
       </c>
       <c r="N253" t="n">
-        <v>0.2400825307849231</v>
+        <v>0.2861675620029475</v>
       </c>
       <c r="O253" t="n">
-        <v>0.299018439599598</v>
+        <v>0.1832044260999912</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.07355392364659587</v>
+        <v>0.01086101266607804</v>
       </c>
       <c r="G254" t="n">
-        <v>0.301013129638404</v>
+        <v>0.05206964928871723</v>
       </c>
       <c r="J254" t="n">
-        <v>0.08804881671667342</v>
+        <v>0.01086101266607804</v>
       </c>
       <c r="K254" t="n">
-        <v>0.302115180396028</v>
+        <v>0.05206964928871723</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1628665126957669</v>
+        <v>0.1975151923691613</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3024193204038386</v>
+        <v>0.1841746320947919</v>
       </c>
       <c r="N254" t="n">
-        <v>0.2374375938275666</v>
+        <v>0.2860218031824941</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3006089632144895</v>
+        <v>0.1841789177281827</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.07132487740872868</v>
+        <v>0.01019853962524338</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3026057916999829</v>
+        <v>0.05206126837085109</v>
       </c>
       <c r="J255" t="n">
-        <v>0.08749602612573437</v>
+        <v>0.01019853962524338</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3037136734139964</v>
+        <v>0.05206126837085109</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1598974951820851</v>
+        <v>0.1974943015251572</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3040194226281976</v>
+        <v>0.1851491010476744</v>
       </c>
       <c r="N255" t="n">
-        <v>0.2303760452350492</v>
+        <v>0.2838854726078441</v>
       </c>
       <c r="O255" t="n">
-        <v>0.302199486829381</v>
+        <v>0.1851534093563741</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.06809047149866847</v>
+        <v>0.009551864608723579</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3041984537615618</v>
+        <v>0.05205288745298494</v>
       </c>
       <c r="J256" t="n">
-        <v>0.08493687857848692</v>
+        <v>0.009551864608723579</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3053121664319647</v>
+        <v>0.05205288745298494</v>
       </c>
       <c r="L256" t="n">
-        <v>0.1561167879515118</v>
+        <v>0.1974773300326902</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3056195248525565</v>
+        <v>0.1861235700005569</v>
       </c>
       <c r="N256" t="n">
-        <v>0.2290976780887254</v>
+        <v>0.284158849973647</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3037900104442725</v>
+        <v>0.1861279009845656</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.06185063987788816</v>
+        <v>0.00892142767191946</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3057911158231407</v>
+        <v>0.05204450653511879</v>
       </c>
       <c r="J257" t="n">
-        <v>0.08377129542979989</v>
+        <v>0.00892142767191946</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3069106594499332</v>
+        <v>0.05204450653511879</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1532242462228121</v>
+        <v>0.1990643594939439</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3072196270769155</v>
+        <v>0.1870980389534394</v>
       </c>
       <c r="N257" t="n">
-        <v>0.2236022854699502</v>
+        <v>0.2871422149745526</v>
       </c>
       <c r="O257" t="n">
-        <v>0.305380534059164</v>
+        <v>0.187102392612757</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.06360531650786067</v>
+        <v>0.008307668870231863</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3073837778847195</v>
+        <v>0.05203612561725265</v>
       </c>
       <c r="J258" t="n">
-        <v>0.08229919803454214</v>
+        <v>0.008307668870231863</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3085091524679016</v>
+        <v>0.05203612561725265</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1509197252147516</v>
+        <v>0.1989554715111016</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3088197293012744</v>
+        <v>0.1880725079063219</v>
       </c>
       <c r="N258" t="n">
-        <v>0.2215896604600781</v>
+        <v>0.2853358473052108</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3069710576740554</v>
+        <v>0.1880768842409485</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.06335443535005893</v>
+        <v>0.007711028259061656</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3089764399462984</v>
+        <v>0.0520277446993865</v>
       </c>
       <c r="J259" t="n">
-        <v>0.08142050774758247</v>
+        <v>0.007711028259061656</v>
       </c>
       <c r="K259" t="n">
-        <v>0.31010764548587</v>
+        <v>0.0520277446993865</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1486030801460953</v>
+        <v>0.1977507476863467</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3104198315256333</v>
+        <v>0.1890469768592044</v>
       </c>
       <c r="N259" t="n">
-        <v>0.2167595961404636</v>
+        <v>0.2859400266602711</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3085615812889469</v>
+        <v>0.1890513758691399</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.06109793036595589</v>
+        <v>0.00713194589380961</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3105691020078772</v>
+        <v>0.05201936378152035</v>
       </c>
       <c r="J260" t="n">
-        <v>0.07943514592378972</v>
+        <v>0.00713194589380961</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3117061385038384</v>
+        <v>0.05201936378152035</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1449741662356088</v>
+        <v>0.1977502696218628</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3120199337499923</v>
+        <v>0.1900214458120869</v>
       </c>
       <c r="N260" t="n">
-        <v>0.2128118855924614</v>
+        <v>0.2862550327343836</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3101521049038384</v>
+        <v>0.1900258674973314</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.06683573551702453</v>
+        <v>0.006570861829876595</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3121617640694561</v>
+        <v>0.05201098286365421</v>
       </c>
       <c r="J261" t="n">
-        <v>0.07774303391803272</v>
+        <v>0.006570861829876595</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3133046315218068</v>
+        <v>0.05201098286365421</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1445328387020575</v>
+        <v>0.1965541189198332</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3136200359743512</v>
+        <v>0.1909959147649694</v>
       </c>
       <c r="N261" t="n">
-        <v>0.2086463218974263</v>
+        <v>0.2865811452221977</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3117426285187299</v>
+        <v>0.1910003591255228</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.05556778476473766</v>
+        <v>0.006028216122663424</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3137544261310349</v>
+        <v>0.05200260194578806</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0759440930851803</v>
+        <v>0.006028216122663424</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3149031245397752</v>
+        <v>0.05200260194578806</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1414789527642065</v>
+        <v>0.1983623771824413</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3152201381987101</v>
+        <v>0.1919703837178519</v>
       </c>
       <c r="N262" t="n">
-        <v>0.2028626981367129</v>
+        <v>0.2852186438183635</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3133331521336213</v>
+        <v>0.1919748507537142</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.05629401207056826</v>
+        <v>0.005504448827570951</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3153470881926138</v>
+        <v>0.05199422102792191</v>
       </c>
       <c r="J263" t="n">
-        <v>0.07483824478010123</v>
+        <v>0.005504448827570951</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3165016175577436</v>
+        <v>0.05199422102792191</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1375123636408213</v>
+        <v>0.1965751260118706</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3168202404230691</v>
+        <v>0.1929448526707344</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1992608073916758</v>
+        <v>0.2861678082175305</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3149236757485128</v>
+        <v>0.1929493423819057</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.06301435139598927</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3169397502541926</v>
+        <v>0.05198584011005577</v>
       </c>
       <c r="J264" t="n">
-        <v>0.0732254103576645</v>
+        <v>0.005000000000000004</v>
       </c>
       <c r="K264" t="n">
-        <v>0.318100110575712</v>
+        <v>0.05198584011005577</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1354329265506671</v>
+        <v>0.1979924470103046</v>
       </c>
       <c r="M264" t="n">
-        <v>0.318420342647428</v>
+        <v>0.1939193216236169</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1955404427436697</v>
+        <v>0.2879289181143486</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3165141993634043</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1939238340100971</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05197268221531893</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0.005000000000000004</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0.05197268221531893</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.006215775746045246</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05197295074378294</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0.006215775746045246</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0.05197295074378294</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.007425281355765076</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05197321927224696</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0.007425281355765076</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0.05197321927224696</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.008628452320161309</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05197348780071098</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0.008628452320161309</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0.05197348780071098</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.009825224130340787</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.051973756329175</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0.009825224130340787</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.051973756329175</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.0110155322773059</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05197402485763901</v>
+      </c>
+      <c r="J270" t="n">
+        <v>0.0110155322773059</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.05197402485763901</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.01219931225216293</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05197429338610303</v>
+      </c>
+      <c r="J271" t="n">
+        <v>0.01219931225216293</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.05197429338610303</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.0133764995459148</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05197456191456704</v>
+      </c>
+      <c r="J272" t="n">
+        <v>0.0133764995459148</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0.05197456191456704</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01454702964966724</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05197483044303106</v>
+      </c>
+      <c r="J273" t="n">
+        <v>0.01454702964966724</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.05197483044303106</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01571083805442375</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05197509897149508</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0.01571083805442375</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0.05197509897149508</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.0168678602512895</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.0519753674999591</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0.0168678602512895</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0.0519753674999591</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01801803173126856</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05197563602842312</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0.01801803173126856</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0.05197563602842312</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01916128798546549</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05197590455688714</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0.01916128798546549</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0.05197590455688714</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.02029756450488496</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05197617308535115</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0.02029756450488496</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0.05197617308535115</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.02142679678063092</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05197644161381517</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0.02142679678063092</v>
+      </c>
+      <c r="K279" t="n">
+        <v>0.05197644161381517</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0225489203037087</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05197671014227918</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0.0225489203037087</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0.05197671014227918</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.02366387056522161</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.0519769786707432</v>
+      </c>
+      <c r="J281" t="n">
+        <v>0.02366387056522161</v>
+      </c>
+      <c r="K281" t="n">
+        <v>0.0519769786707432</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.02477158305617558</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05197724719920722</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0.02477158305617558</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0.05197724719920722</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.02587199326764941</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05197751572767123</v>
+      </c>
+      <c r="J283" t="n">
+        <v>0.02587199326764941</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0.05197751572767123</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.02696503669072131</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05197778425613525</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0.02696503669072131</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0.05197778425613525</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.02805064881639817</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05197805278459927</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0.02805064881639817</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0.05197805278459927</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.02912876513578171</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05197832131306329</v>
+      </c>
+      <c r="J286" t="n">
+        <v>0.02912876513578171</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0.05197832131306329</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.03019932113987947</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0519785898415273</v>
+      </c>
+      <c r="J287" t="n">
+        <v>0.03019932113987947</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0.0519785898415273</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.03126225231979252</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05197885836999133</v>
+      </c>
+      <c r="J288" t="n">
+        <v>0.03126225231979252</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0.05197885836999133</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.03231749416652907</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05197912689845534</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0.03231749416652907</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0.05197912689845534</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.03336524558271708</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05197939542691936</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0.03336524558271708</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0.05197939542691936</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.03440702252853094</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05197966395538337</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0.03440702252853094</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0.05197966395538337</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.03544302390659797</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05197993248384739</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0.03544302390659797</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0.05197993248384739</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.03647318520792756</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05198020101231141</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0.03647318520792756</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0.05198020101231141</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.03749744192361905</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05198046954077543</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0.03749744192361905</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0.05198046954077543</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0385157295446823</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05198073806923944</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0.0385157295446823</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0.05198073806923944</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.03952798356221612</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05198100659770346</v>
+      </c>
+      <c r="J296" t="n">
+        <v>0.03952798356221612</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0.05198100659770346</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.04053413946723093</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05198127512616748</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0.04053413946723093</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0.05198127512616748</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.04153413275080325</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05198154365463149</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0.04153413275080325</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0.05198154365463149</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.04252789890400918</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05198181218309551</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0.04252789890400918</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0.05198181218309551</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.04351537341785987</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05198208071155953</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0.04351537341785987</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0.05198208071155953</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.04449649178345282</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05198234924002355</v>
+      </c>
+      <c r="J301" t="n">
+        <v>0.04449649178345282</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0.05198234924002355</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.04547118949179976</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05198261776848756</v>
+      </c>
+      <c r="J302" t="n">
+        <v>0.04547118949179976</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0.05198261776848756</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.04643940203399763</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05198288629695158</v>
+      </c>
+      <c r="J303" t="n">
+        <v>0.04643940203399763</v>
+      </c>
+      <c r="K303" t="n">
+        <v>0.05198288629695158</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.04740106490105872</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05198315482541559</v>
+      </c>
+      <c r="J304" t="n">
+        <v>0.04740106490105872</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0.05198315482541559</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.04835611358407936</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05198342335387961</v>
+      </c>
+      <c r="J305" t="n">
+        <v>0.04835611358407936</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0.05198342335387961</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.04930448357407248</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05198369188234363</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0.04930448357407248</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0.05198369188234363</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.05024611036213379</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05198396041080765</v>
+      </c>
+      <c r="J307" t="n">
+        <v>0.05024611036213379</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0.05198396041080765</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.05118092943927681</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05198422893927166</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0.05118092943927681</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0.05198422893927166</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.05210887629659669</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05198449746773568</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0.05210887629659669</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0.05198449746773568</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.05302988642510748</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.0519847659961997</v>
+      </c>
+      <c r="J310" t="n">
+        <v>0.05302988642510748</v>
+      </c>
+      <c r="K310" t="n">
+        <v>0.0519847659961997</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.05394389531590378</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05198503452466372</v>
+      </c>
+      <c r="J311" t="n">
+        <v>0.05394389531590378</v>
+      </c>
+      <c r="K311" t="n">
+        <v>0.05198503452466372</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.05485083846000025</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.05198530305312773</v>
+      </c>
+      <c r="J312" t="n">
+        <v>0.05485083846000025</v>
+      </c>
+      <c r="K312" t="n">
+        <v>0.05198530305312773</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.05575065134849089</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05198557158159176</v>
+      </c>
+      <c r="J313" t="n">
+        <v>0.05575065134849089</v>
+      </c>
+      <c r="K313" t="n">
+        <v>0.05198557158159176</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0566432694723909</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05198584011005577</v>
+      </c>
+      <c r="J314" t="n">
+        <v>0.0566432694723909</v>
+      </c>
+      <c r="K314" t="n">
+        <v>0.05198584011005577</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.0566432694723909</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05197268221531893</v>
+      </c>
+      <c r="J315" t="n">
+        <v>0.0566432694723909</v>
+      </c>
+      <c r="K315" t="n">
+        <v>0.05197268221531893</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.05775117508035632</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05198160019011311</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0.05775117508035632</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0.05198160019011311</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.05885041098413982</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05199051816490729</v>
+      </c>
+      <c r="J317" t="n">
+        <v>0.05885041098413982</v>
+      </c>
+      <c r="K317" t="n">
+        <v>0.05199051816490729</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.05994080913882219</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05199943613970147</v>
+      </c>
+      <c r="J318" t="n">
+        <v>0.05994080913882219</v>
+      </c>
+      <c r="K318" t="n">
+        <v>0.05199943613970147</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.0610222014994842</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05200835411449565</v>
+      </c>
+      <c r="J319" t="n">
+        <v>0.0610222014994842</v>
+      </c>
+      <c r="K319" t="n">
+        <v>0.05200835411449565</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.06209442002120588</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05201727208928983</v>
+      </c>
+      <c r="J320" t="n">
+        <v>0.06209442002120588</v>
+      </c>
+      <c r="K320" t="n">
+        <v>0.05201727208928983</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.06315729665906952</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05202619006408401</v>
+      </c>
+      <c r="J321" t="n">
+        <v>0.06315729665906952</v>
+      </c>
+      <c r="K321" t="n">
+        <v>0.05202619006408401</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.06421066336815509</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05203510803887819</v>
+      </c>
+      <c r="J322" t="n">
+        <v>0.06421066336815509</v>
+      </c>
+      <c r="K322" t="n">
+        <v>0.05203510803887819</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.06525435210354341</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05204402601367237</v>
+      </c>
+      <c r="J323" t="n">
+        <v>0.06525435210354341</v>
+      </c>
+      <c r="K323" t="n">
+        <v>0.05204402601367237</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0662881948203152</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05205294398846655</v>
+      </c>
+      <c r="J324" t="n">
+        <v>0.0662881948203152</v>
+      </c>
+      <c r="K324" t="n">
+        <v>0.05205294398846655</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.06731202347355128</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05206186196326074</v>
+      </c>
+      <c r="J325" t="n">
+        <v>0.06731202347355128</v>
+      </c>
+      <c r="K325" t="n">
+        <v>0.05206186196326074</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.06832567001833242</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05207077993805492</v>
+      </c>
+      <c r="J326" t="n">
+        <v>0.06832567001833242</v>
+      </c>
+      <c r="K326" t="n">
+        <v>0.05207077993805492</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.06932896640973937</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0520796979128491</v>
+      </c>
+      <c r="J327" t="n">
+        <v>0.06932896640973937</v>
+      </c>
+      <c r="K327" t="n">
+        <v>0.0520796979128491</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.07032174460285295</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05208861588764328</v>
+      </c>
+      <c r="J328" t="n">
+        <v>0.07032174460285295</v>
+      </c>
+      <c r="K328" t="n">
+        <v>0.05208861588764328</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.07130383655275394</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05209753386243746</v>
+      </c>
+      <c r="J329" t="n">
+        <v>0.07130383655275394</v>
+      </c>
+      <c r="K329" t="n">
+        <v>0.05209753386243746</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.07227507421452239</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05210645183723164</v>
+      </c>
+      <c r="J330" t="n">
+        <v>0.07227507421452239</v>
+      </c>
+      <c r="K330" t="n">
+        <v>0.05210645183723164</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.07323528954324043</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05211536981202582</v>
+      </c>
+      <c r="J331" t="n">
+        <v>0.07323528954324043</v>
+      </c>
+      <c r="K331" t="n">
+        <v>0.05211536981202582</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.07418431449398816</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05212428778682</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0.07418431449398816</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0.05212428778682</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.07512198102184633</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05213320576161418</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0.07512198102184633</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0.05213320576161418</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.07604812108189579</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05214212373640836</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0.07604812108189579</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0.05214212373640836</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.07696256662921724</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05215104171120254</v>
+      </c>
+      <c r="J335" t="n">
+        <v>0.07696256662921724</v>
+      </c>
+      <c r="K335" t="n">
+        <v>0.05215104171120254</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.07786514961889152</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05215995968599672</v>
+      </c>
+      <c r="J336" t="n">
+        <v>0.07786514961889152</v>
+      </c>
+      <c r="K336" t="n">
+        <v>0.05215995968599672</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.07875570200599932</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.0521688776607909</v>
+      </c>
+      <c r="J337" t="n">
+        <v>0.07875570200599932</v>
+      </c>
+      <c r="K337" t="n">
+        <v>0.0521688776607909</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.07963405574562149</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05217779563558508</v>
+      </c>
+      <c r="J338" t="n">
+        <v>0.07963405574562149</v>
+      </c>
+      <c r="K338" t="n">
+        <v>0.05217779563558508</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.08050004279283882</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05218671361037926</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0.08050004279283882</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0.05218671361037926</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.0813541812861516</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05219563158517344</v>
+      </c>
+      <c r="J340" t="n">
+        <v>0.0813541812861516</v>
+      </c>
+      <c r="K340" t="n">
+        <v>0.05219563158517344</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.08220042028116284</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05220454955996762</v>
+      </c>
+      <c r="J341" t="n">
+        <v>0.08220042028116284</v>
+      </c>
+      <c r="K341" t="n">
+        <v>0.05220454955996762</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.08303927791637289</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.0522134675347618</v>
+      </c>
+      <c r="J342" t="n">
+        <v>0.08303927791637289</v>
+      </c>
+      <c r="K342" t="n">
+        <v>0.0522134675347618</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.08387058614686252</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05222238550955598</v>
+      </c>
+      <c r="J343" t="n">
+        <v>0.08387058614686252</v>
+      </c>
+      <c r="K343" t="n">
+        <v>0.05222238550955598</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.08469417692771256</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05223130348435016</v>
+      </c>
+      <c r="J344" t="n">
+        <v>0.08469417692771256</v>
+      </c>
+      <c r="K344" t="n">
+        <v>0.05223130348435016</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.08550988221400371</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05224022145914434</v>
+      </c>
+      <c r="J345" t="n">
+        <v>0.08550988221400371</v>
+      </c>
+      <c r="K345" t="n">
+        <v>0.05224022145914434</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.08631753396081682</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05224913943393852</v>
+      </c>
+      <c r="J346" t="n">
+        <v>0.08631753396081682</v>
+      </c>
+      <c r="K346" t="n">
+        <v>0.05224913943393852</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.08711696412323258</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.0522580574087327</v>
+      </c>
+      <c r="J347" t="n">
+        <v>0.08711696412323258</v>
+      </c>
+      <c r="K347" t="n">
+        <v>0.0522580574087327</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.08790800465633183</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05226697538352689</v>
+      </c>
+      <c r="J348" t="n">
+        <v>0.08790800465633183</v>
+      </c>
+      <c r="K348" t="n">
+        <v>0.05226697538352689</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.08869048751519532</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05227589335832107</v>
+      </c>
+      <c r="J349" t="n">
+        <v>0.08869048751519532</v>
+      </c>
+      <c r="K349" t="n">
+        <v>0.05227589335832107</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.0894642446549033</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05228481133311524</v>
+      </c>
+      <c r="J350" t="n">
+        <v>0.0894642446549033</v>
+      </c>
+      <c r="K350" t="n">
+        <v>0.05228481133311524</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.09022910803053757</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05229372930790942</v>
+      </c>
+      <c r="J351" t="n">
+        <v>0.09022910803053757</v>
+      </c>
+      <c r="K351" t="n">
+        <v>0.05229372930790942</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.09098490959717842</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.0523026472827036</v>
+      </c>
+      <c r="J352" t="n">
+        <v>0.09098490959717842</v>
+      </c>
+      <c r="K352" t="n">
+        <v>0.0523026472827036</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.09173148130990663</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05231156525749778</v>
+      </c>
+      <c r="J353" t="n">
+        <v>0.09173148130990663</v>
+      </c>
+      <c r="K353" t="n">
+        <v>0.05231156525749778</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.09246865512380292</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05232048323229197</v>
+      </c>
+      <c r="J354" t="n">
+        <v>0.09246865512380292</v>
+      </c>
+      <c r="K354" t="n">
+        <v>0.05232048323229197</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.09319626299394809</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05232940120708615</v>
+      </c>
+      <c r="J355" t="n">
+        <v>0.09319626299394809</v>
+      </c>
+      <c r="K355" t="n">
+        <v>0.05232940120708615</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.09391413687542294</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05233831918188033</v>
+      </c>
+      <c r="J356" t="n">
+        <v>0.09391413687542294</v>
+      </c>
+      <c r="K356" t="n">
+        <v>0.05233831918188033</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.0946221087233082</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05234723715667451</v>
+      </c>
+      <c r="J357" t="n">
+        <v>0.0946221087233082</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0.05234723715667451</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.09532001049268471</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05235615513146869</v>
+      </c>
+      <c r="J358" t="n">
+        <v>0.09532001049268471</v>
+      </c>
+      <c r="K358" t="n">
+        <v>0.05235615513146869</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.09600767413863315</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05236507310626287</v>
+      </c>
+      <c r="J359" t="n">
+        <v>0.09600767413863315</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0.05236507310626287</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.09668493161623393</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05237399108105705</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.09668493161623393</v>
+      </c>
+      <c r="K360" t="n">
+        <v>0.05237399108105705</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.09735161488056868</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05238290905585123</v>
+      </c>
+      <c r="J361" t="n">
+        <v>0.09735161488056868</v>
+      </c>
+      <c r="K361" t="n">
+        <v>0.05238290905585123</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.09800755588671772</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05239182703064541</v>
+      </c>
+      <c r="J362" t="n">
+        <v>0.09800755588671772</v>
+      </c>
+      <c r="K362" t="n">
+        <v>0.05239182703064541</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.09865258658976181</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05240074500543959</v>
+      </c>
+      <c r="J363" t="n">
+        <v>0.09865258658976181</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0.05240074500543959</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.09928653894478176</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05240966298023377</v>
+      </c>
+      <c r="J364" t="n">
+        <v>0.09928653894478176</v>
+      </c>
+      <c r="K364" t="n">
+        <v>0.05240966298023377</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.09928653894478179</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05240966298023377</v>
+      </c>
+      <c r="J365" t="n">
+        <v>0.09928653894478179</v>
+      </c>
+      <c r="K365" t="n">
+        <v>0.05240966298023377</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.09758071136078891</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05559008932889287</v>
+      </c>
+      <c r="J366" t="n">
+        <v>0.09758071136078891</v>
+      </c>
+      <c r="K366" t="n">
+        <v>0.05559008932889287</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.09607403145088611</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05877051567755197</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.09607403145088611</v>
+      </c>
+      <c r="K367" t="n">
+        <v>0.05877051567755197</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.09475479914581383</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06195094202621107</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.09475479914581383</v>
+      </c>
+      <c r="K368" t="n">
+        <v>0.06195094202621107</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.09361131437631243</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06513136837487016</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.09361131437631243</v>
+      </c>
+      <c r="K369" t="n">
+        <v>0.06513136837487016</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0926318770731222</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06831179472352926</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.0926318770731222</v>
+      </c>
+      <c r="K370" t="n">
+        <v>0.06831179472352926</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.09180478716698356</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.07149222107218835</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.09180478716698356</v>
+      </c>
+      <c r="K371" t="n">
+        <v>0.07149222107218835</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.09111834458863685</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.07467264742084745</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.09111834458863685</v>
+      </c>
+      <c r="K372" t="n">
+        <v>0.07467264742084745</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.09056084926882246</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.07785307376950654</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.09056084926882246</v>
+      </c>
+      <c r="K373" t="n">
+        <v>0.07785307376950654</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.09012060113828077</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.08103350011816564</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.09012060113828077</v>
+      </c>
+      <c r="K374" t="n">
+        <v>0.08103350011816564</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.08978590012775203</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.08421392646682473</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.08978590012775203</v>
+      </c>
+      <c r="K375" t="n">
+        <v>0.08421392646682473</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.08954504616797676</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.08739435281548383</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.08954504616797676</v>
+      </c>
+      <c r="K376" t="n">
+        <v>0.08739435281548383</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.08938633918969516</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.09057477916414293</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.08938633918969516</v>
+      </c>
+      <c r="K377" t="n">
+        <v>0.09057477916414293</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.08929807912364773</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.09375520551280203</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.08929807912364773</v>
+      </c>
+      <c r="K378" t="n">
+        <v>0.09375520551280203</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.08926856590057478</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.09693563186146112</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.08926856590057478</v>
+      </c>
+      <c r="K379" t="n">
+        <v>0.09693563186146112</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.08956079268131592</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1001160582101202</v>
+      </c>
+      <c r="J380" t="n">
+        <v>0.08956079268131592</v>
+      </c>
+      <c r="K380" t="n">
+        <v>0.1001160582101202</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.09043545981675988</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1032964845587793</v>
+      </c>
+      <c r="J381" t="n">
+        <v>0.09043545981675988</v>
+      </c>
+      <c r="K381" t="n">
+        <v>0.1032964845587793</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.0917045394732616</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1064769109074384</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.0917045394732616</v>
+      </c>
+      <c r="K382" t="n">
+        <v>0.1064769109074384</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.09317729691211768</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1096573372560975</v>
+      </c>
+      <c r="J383" t="n">
+        <v>0.09317729691211768</v>
+      </c>
+      <c r="K383" t="n">
+        <v>0.1096573372560975</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.09466299739462475</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1128377636047566</v>
+      </c>
+      <c r="J384" t="n">
+        <v>0.09466299739462475</v>
+      </c>
+      <c r="K384" t="n">
+        <v>0.1128377636047566</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.09597090618207951</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1160181899534157</v>
+      </c>
+      <c r="J385" t="n">
+        <v>0.09597090618207951</v>
+      </c>
+      <c r="K385" t="n">
+        <v>0.1160181899534157</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.09691028853577854</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.1191986163020748</v>
+      </c>
+      <c r="J386" t="n">
+        <v>0.09691028853577854</v>
+      </c>
+      <c r="K386" t="n">
+        <v>0.1191986163020748</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.09729040971701858</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1223790426507339</v>
+      </c>
+      <c r="J387" t="n">
+        <v>0.09729040971701858</v>
+      </c>
+      <c r="K387" t="n">
+        <v>0.1223790426507339</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.09712106772069376</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.125559468999393</v>
+      </c>
+      <c r="J388" t="n">
+        <v>0.09712106772069376</v>
+      </c>
+      <c r="K388" t="n">
+        <v>0.125559468999393</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.09659560500453285</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1287398953480521</v>
+      </c>
+      <c r="J389" t="n">
+        <v>0.09659560500453285</v>
+      </c>
+      <c r="K389" t="n">
+        <v>0.1287398953480521</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.09574716656574972</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1319203216967112</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.09574716656574972</v>
+      </c>
+      <c r="K390" t="n">
+        <v>0.1319203216967112</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.09460845611856106</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1351007480453703</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.09460845611856106</v>
+      </c>
+      <c r="K391" t="n">
+        <v>0.1351007480453703</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.09321217737718343</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1382811743940294</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.09321217737718343</v>
+      </c>
+      <c r="K392" t="n">
+        <v>0.1382811743940294</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.09159103405583341</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1414616007426885</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.09159103405583341</v>
+      </c>
+      <c r="K393" t="n">
+        <v>0.1414616007426885</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.08977772986872762</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1446420270913476</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.08977772986872762</v>
+      </c>
+      <c r="K394" t="n">
+        <v>0.1446420270913476</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.08780496853008266</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1478224534400066</v>
+      </c>
+      <c r="J395" t="n">
+        <v>0.08780496853008266</v>
+      </c>
+      <c r="K395" t="n">
+        <v>0.1478224534400066</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.08570545375411509</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J396" t="n">
+        <v>0.08570545375411509</v>
+      </c>
+      <c r="K396" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.08351188925504155</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1541833061373248</v>
+      </c>
+      <c r="J397" t="n">
+        <v>0.08351188925504155</v>
+      </c>
+      <c r="K397" t="n">
+        <v>0.1541833061373248</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.08125697874707855</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1573637324859839</v>
+      </c>
+      <c r="J398" t="n">
+        <v>0.08125697874707855</v>
+      </c>
+      <c r="K398" t="n">
+        <v>0.1573637324859839</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.07877428770070122</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.160544158834643</v>
+      </c>
+      <c r="J399" t="n">
+        <v>0.07877428770070122</v>
+      </c>
+      <c r="K399" t="n">
+        <v>0.160544158834643</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.07449841068123383</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1637245851833021</v>
+      </c>
+      <c r="J400" t="n">
+        <v>0.07449841068123383</v>
+      </c>
+      <c r="K400" t="n">
+        <v>0.1637245851833021</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.06972287597545601</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1669050115319612</v>
+      </c>
+      <c r="J401" t="n">
+        <v>0.06972287597545601</v>
+      </c>
+      <c r="K401" t="n">
+        <v>0.1669050115319612</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.06649647918328735</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1700854378806203</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0.06649647918328735</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0.1700854378806203</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.06609899400794797</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1732658642292794</v>
+      </c>
+      <c r="J403" t="n">
+        <v>0.06609899400794797</v>
+      </c>
+      <c r="K403" t="n">
+        <v>0.1732658642292794</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.06612301467656739</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1764462905779385</v>
+      </c>
+      <c r="J404" t="n">
+        <v>0.06612301467656739</v>
+      </c>
+      <c r="K404" t="n">
+        <v>0.1764462905779385</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.0661712759019655</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1796267169265976</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0.0661712759019655</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0.1796267169265976</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.0662454294991224</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1828071432752567</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0.0662454294991224</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0.1828071432752567</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.06634712728301834</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1859875696239158</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0.06634712728301834</v>
+      </c>
+      <c r="K407" t="n">
+        <v>0.1859875696239158</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.06647802106863343</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1891679959725749</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0.06647802106863343</v>
+      </c>
+      <c r="K408" t="n">
+        <v>0.1891679959725749</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.0666397626709479</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.192348422321234</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0.0666397626709479</v>
+      </c>
+      <c r="K409" t="n">
+        <v>0.192348422321234</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.0668340039049419</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1955288486698931</v>
+      </c>
+      <c r="J410" t="n">
+        <v>0.0668340039049419</v>
+      </c>
+      <c r="K410" t="n">
+        <v>0.1955288486698931</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.06719217050762386</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1987092750185522</v>
+      </c>
+      <c r="J411" t="n">
+        <v>0.06719217050762386</v>
+      </c>
+      <c r="K411" t="n">
+        <v>0.1987092750185522</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.06888404310959514</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.2018897013672113</v>
+      </c>
+      <c r="J412" t="n">
+        <v>0.06888404310959514</v>
+      </c>
+      <c r="K412" t="n">
+        <v>0.2018897013672113</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.07125802020112565</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.2050701277158704</v>
+      </c>
+      <c r="J413" t="n">
+        <v>0.07125802020112565</v>
+      </c>
+      <c r="K413" t="n">
+        <v>0.2050701277158704</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.07315272728397926</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.2082505540645295</v>
+      </c>
+      <c r="J414" t="n">
+        <v>0.07315272728397926</v>
+      </c>
+      <c r="K414" t="n">
+        <v>0.2082505540645295</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.07451084505004738</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.2114309804131886</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0.07451084505004738</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0.2114309804131886</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.07573567949993301</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.2146114067618476</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0.07573567949993301</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0.2146114067618476</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.07686426899388252</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.2177918331105068</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0.07686426899388252</v>
+      </c>
+      <c r="K417" t="n">
+        <v>0.2177918331105068</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.07793365189214208</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.2209722594591658</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0.07793365189214208</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0.2209722594591658</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.07898086655495795</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.224152685807825</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0.07898086655495795</v>
+      </c>
+      <c r="K419" t="n">
+        <v>0.224152685807825</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.08002898302265307</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.227333112156484</v>
+      </c>
+      <c r="J420" t="n">
+        <v>0.08002898302265307</v>
+      </c>
+      <c r="K420" t="n">
+        <v>0.227333112156484</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.08096354546229625</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.2305135385051432</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.08096354546229625</v>
+      </c>
+      <c r="K421" t="n">
+        <v>0.2305135385051432</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.08184965015053003</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2336939648538022</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.08184965015053003</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0.2336939648538022</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.08281291119964662</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2368743912024614</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.08281291119964662</v>
+      </c>
+      <c r="K423" t="n">
+        <v>0.2368743912024614</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.08397894272193807</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2400548175511204</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.08397894272193807</v>
+      </c>
+      <c r="K424" t="n">
+        <v>0.2400548175511204</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.08555349615867841</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2432352438997795</v>
+      </c>
+      <c r="J425" t="n">
+        <v>0.08555349615867841</v>
+      </c>
+      <c r="K425" t="n">
+        <v>0.2432352438997795</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.08762999112364381</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2464156702484386</v>
+      </c>
+      <c r="J426" t="n">
+        <v>0.08762999112364381</v>
+      </c>
+      <c r="K426" t="n">
+        <v>0.2464156702484386</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.09014041519543953</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2495960965970977</v>
+      </c>
+      <c r="J427" t="n">
+        <v>0.09014041519543953</v>
+      </c>
+      <c r="K427" t="n">
+        <v>0.2495960965970977</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.09301659928624365</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2527765229457568</v>
+      </c>
+      <c r="J428" t="n">
+        <v>0.09301659928624365</v>
+      </c>
+      <c r="K428" t="n">
+        <v>0.2527765229457568</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.09619037430823416</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2559569492944159</v>
+      </c>
+      <c r="J429" t="n">
+        <v>0.09619037430823416</v>
+      </c>
+      <c r="K429" t="n">
+        <v>0.2559569492944159</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.09959357117358908</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.259137375643075</v>
+      </c>
+      <c r="J430" t="n">
+        <v>0.09959357117358908</v>
+      </c>
+      <c r="K430" t="n">
+        <v>0.259137375643075</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.1031580207944864</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2623178019917341</v>
+      </c>
+      <c r="J431" t="n">
+        <v>0.1031580207944864</v>
+      </c>
+      <c r="K431" t="n">
+        <v>0.2623178019917341</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.1068155540831043</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2654982283403932</v>
+      </c>
+      <c r="J432" t="n">
+        <v>0.1068155540831043</v>
+      </c>
+      <c r="K432" t="n">
+        <v>0.2654982283403932</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.1104980019516205</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2686786546890523</v>
+      </c>
+      <c r="J433" t="n">
+        <v>0.1104980019516205</v>
+      </c>
+      <c r="K433" t="n">
+        <v>0.2686786546890523</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.1141371953122133</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2718590810377114</v>
+      </c>
+      <c r="J434" t="n">
+        <v>0.1141371953122133</v>
+      </c>
+      <c r="K434" t="n">
+        <v>0.2718590810377114</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.1176649650770606</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2750395073863705</v>
+      </c>
+      <c r="J435" t="n">
+        <v>0.1176649650770606</v>
+      </c>
+      <c r="K435" t="n">
+        <v>0.2750395073863705</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.1210131421583404</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2782199337350296</v>
+      </c>
+      <c r="J436" t="n">
+        <v>0.1210131421583404</v>
+      </c>
+      <c r="K436" t="n">
+        <v>0.2782199337350296</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.1241135574682307</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2814003600836887</v>
+      </c>
+      <c r="J437" t="n">
+        <v>0.1241135574682307</v>
+      </c>
+      <c r="K437" t="n">
+        <v>0.2814003600836887</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.1268980419189095</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2845807864323478</v>
+      </c>
+      <c r="J438" t="n">
+        <v>0.1268980419189095</v>
+      </c>
+      <c r="K438" t="n">
+        <v>0.2845807864323478</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.129298426422555</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2877612127810069</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.129298426422555</v>
+      </c>
+      <c r="K439" t="n">
+        <v>0.2877612127810069</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.131246541891345</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2909416391296659</v>
+      </c>
+      <c r="J440" t="n">
+        <v>0.131246541891345</v>
+      </c>
+      <c r="K440" t="n">
+        <v>0.2909416391296659</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.1326742192374577</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.294122065478325</v>
+      </c>
+      <c r="J441" t="n">
+        <v>0.1326742192374577</v>
+      </c>
+      <c r="K441" t="n">
+        <v>0.294122065478325</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.1337153852597091</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2973024918269841</v>
+      </c>
+      <c r="J442" t="n">
+        <v>0.1337153852597091</v>
+      </c>
+      <c r="K442" t="n">
+        <v>0.2973024918269841</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.1335738313977959</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.3004829181756432</v>
+      </c>
+      <c r="J443" t="n">
+        <v>0.1335738313977959</v>
+      </c>
+      <c r="K443" t="n">
+        <v>0.3004829181756432</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.1301387287032814</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.3036633445243023</v>
+      </c>
+      <c r="J444" t="n">
+        <v>0.1301387287032814</v>
+      </c>
+      <c r="K444" t="n">
+        <v>0.3036633445243023</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.1230534088702285</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.3068437708729614</v>
+      </c>
+      <c r="J445" t="n">
+        <v>0.1230534088702285</v>
+      </c>
+      <c r="K445" t="n">
+        <v>0.3068437708729614</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.1135758981724036</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.3100241972216205</v>
+      </c>
+      <c r="J446" t="n">
+        <v>0.1135758981724036</v>
+      </c>
+      <c r="K446" t="n">
+        <v>0.3100241972216205</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.1029642228835732</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.3132046235702796</v>
+      </c>
+      <c r="J447" t="n">
+        <v>0.1029642228835732</v>
+      </c>
+      <c r="K447" t="n">
+        <v>0.3132046235702796</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.09247640927750386</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.3163850499189387</v>
+      </c>
+      <c r="J448" t="n">
+        <v>0.09247640927750386</v>
+      </c>
+      <c r="K448" t="n">
+        <v>0.3163850499189387</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.08337048362796198</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.3195654762675978</v>
+      </c>
+      <c r="J449" t="n">
+        <v>0.08337048362796198</v>
+      </c>
+      <c r="K449" t="n">
+        <v>0.3195654762675978</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.0769044722087141</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.3227459026162569</v>
+      </c>
+      <c r="J450" t="n">
+        <v>0.0769044722087141</v>
+      </c>
+      <c r="K450" t="n">
+        <v>0.3227459026162569</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.07342207135459342</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.325926328964916</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0.07342207135459342</v>
+      </c>
+      <c r="K451" t="n">
+        <v>0.325926328964916</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.07033248899598479</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.3291067553135751</v>
+      </c>
+      <c r="J452" t="n">
+        <v>0.07033248899598479</v>
+      </c>
+      <c r="K452" t="n">
+        <v>0.3291067553135751</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.06738446360319431</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.3322871816622342</v>
+      </c>
+      <c r="J453" t="n">
+        <v>0.06738446360319431</v>
+      </c>
+      <c r="K453" t="n">
+        <v>0.3322871816622342</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0645963727208051</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.3354676080108933</v>
+      </c>
+      <c r="J454" t="n">
+        <v>0.0645963727208051</v>
+      </c>
+      <c r="K454" t="n">
+        <v>0.3354676080108933</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.06198659389340017</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.3386480343595524</v>
+      </c>
+      <c r="J455" t="n">
+        <v>0.06198659389340017</v>
+      </c>
+      <c r="K455" t="n">
+        <v>0.3386480343595524</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.05957350466556255</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.3418284607082115</v>
+      </c>
+      <c r="J456" t="n">
+        <v>0.05957350466556255</v>
+      </c>
+      <c r="K456" t="n">
+        <v>0.3418284607082115</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.05737548258187528</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.3450088870568706</v>
+      </c>
+      <c r="J457" t="n">
+        <v>0.05737548258187528</v>
+      </c>
+      <c r="K457" t="n">
+        <v>0.3450088870568706</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.05541090518692135</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.3481893134055297</v>
+      </c>
+      <c r="J458" t="n">
+        <v>0.05541090518692135</v>
+      </c>
+      <c r="K458" t="n">
+        <v>0.3481893134055297</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.05369815002528383</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.3513697397541888</v>
+      </c>
+      <c r="J459" t="n">
+        <v>0.05369815002528383</v>
+      </c>
+      <c r="K459" t="n">
+        <v>0.3513697397541888</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.05225559464154574</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.3545501661028479</v>
+      </c>
+      <c r="J460" t="n">
+        <v>0.05225559464154574</v>
+      </c>
+      <c r="K460" t="n">
+        <v>0.3545501661028479</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.0511016165802901</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.357730592451507</v>
+      </c>
+      <c r="J461" t="n">
+        <v>0.0511016165802901</v>
+      </c>
+      <c r="K461" t="n">
+        <v>0.357730592451507</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.05025459338609994</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.3609110188001661</v>
+      </c>
+      <c r="J462" t="n">
+        <v>0.05025459338609994</v>
+      </c>
+      <c r="K462" t="n">
+        <v>0.3609110188001661</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.04973290260355828</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.3640914451488251</v>
+      </c>
+      <c r="J463" t="n">
+        <v>0.04973290260355828</v>
+      </c>
+      <c r="K463" t="n">
+        <v>0.3640914451488251</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.04955492177724816</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.3672718714974842</v>
+      </c>
+      <c r="J464" t="n">
+        <v>0.04955492177724816</v>
+      </c>
+      <c r="K464" t="n">
+        <v>0.3672718714974842</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
